--- a/testdata/CommercialAuto.xlsx
+++ b/testdata/CommercialAuto.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CIG\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BF409D0-89DC-4333-9FDB-0DA62029B996}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B504A467-ADAC-48B4-A669-566CA17F839C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19800" windowHeight="11760" firstSheet="20" activeTab="21" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19800" windowHeight="11760" firstSheet="19" activeTab="22" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="searchValues" sheetId="18" r:id="rId1"/>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="767" uniqueCount="344">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="867" uniqueCount="348">
   <si>
     <t>su</t>
   </si>
@@ -1095,6 +1095,18 @@
   </si>
   <si>
     <t>$3,355.00</t>
+  </si>
+  <si>
+    <t>AUT_CA_PC_ApplyEndorsementTORenewal</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Renewal</t>
+  </si>
+  <si>
+    <t>Quoted</t>
   </si>
 </sst>
 </file>
@@ -1646,10 +1658,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C434C20-6A4B-456B-8D43-C8E066AF420F}">
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="V1" sqref="V1:AP1"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1718,9 +1730,27 @@
       </c>
       <c r="E2" s="20">
         <f ca="1">TODAY()</f>
-        <v>44656</v>
+        <v>44657</v>
       </c>
       <c r="L2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>344</v>
+      </c>
+      <c r="B3" t="s">
+        <v>197</v>
+      </c>
+      <c r="D3" t="s">
+        <v>198</v>
+      </c>
+      <c r="E3" s="20">
+        <f ca="1">TODAY()</f>
+        <v>44657</v>
+      </c>
+      <c r="L3" t="s">
         <v>93</v>
       </c>
     </row>
@@ -1732,10 +1762,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E1DC793-B854-43BE-BD2A-91D9F044E2A1}">
-  <dimension ref="A1:V3"/>
+  <dimension ref="A1:V4"/>
   <sheetViews>
-    <sheetView topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1808,7 +1838,7 @@
       </c>
       <c r="G2" s="25">
         <f ca="1">TODAY()</f>
-        <v>44656</v>
+        <v>44657</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
@@ -1832,8 +1862,39 @@
       </c>
       <c r="G3" s="25">
         <f ca="1">TODAY()</f>
-        <v>44656</v>
-      </c>
+        <v>44657</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>344</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="G4" s="25">
+        <f ca="1">TODAY()</f>
+        <v>44657</v>
+      </c>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1842,10 +1903,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27252891-3B19-4BAC-93AF-75D8B37A68D3}">
-  <dimension ref="A1:V5"/>
+  <dimension ref="A1:V6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1914,6 +1975,14 @@
         <v>110</v>
       </c>
     </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>344</v>
+      </c>
+      <c r="B6" t="s">
+        <v>110</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1921,10 +1990,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBF1A7FD-8CFF-426D-86B2-3602E2616FE0}">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2027,6 +2096,35 @@
         <v>115</v>
       </c>
     </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>344</v>
+      </c>
+      <c r="B4" t="s">
+        <v>115</v>
+      </c>
+      <c r="C4" t="s">
+        <v>115</v>
+      </c>
+      <c r="D4" t="s">
+        <v>115</v>
+      </c>
+      <c r="E4" t="s">
+        <v>115</v>
+      </c>
+      <c r="F4" t="s">
+        <v>117</v>
+      </c>
+      <c r="G4" t="s">
+        <v>119</v>
+      </c>
+      <c r="H4" t="s">
+        <v>115</v>
+      </c>
+      <c r="I4" t="s">
+        <v>115</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2034,10 +2132,10 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{669B8DAE-FB45-4C9B-9219-B08AC39D45EC}">
-  <dimension ref="A1:AI12"/>
+  <dimension ref="A1:AI13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2197,7 +2295,7 @@
       </c>
       <c r="E2" s="25">
         <f ca="1">TODAY()</f>
-        <v>44656</v>
+        <v>44657</v>
       </c>
       <c r="F2" s="4"/>
       <c r="G2" s="11" t="s">
@@ -2211,15 +2309,15 @@
       </c>
       <c r="J2" s="25">
         <f ca="1">searchValues!$E$2</f>
-        <v>44656</v>
+        <v>44657</v>
       </c>
       <c r="K2" s="25">
         <f ca="1">EDATE(J2,12)</f>
-        <v>45021</v>
+        <v>45022</v>
       </c>
       <c r="L2" s="25">
         <f ca="1">searchValues!$E$2</f>
-        <v>44656</v>
+        <v>44657</v>
       </c>
       <c r="M2" s="4" t="s">
         <v>200</v>
@@ -2273,7 +2371,7 @@
       </c>
       <c r="E3" s="25">
         <f ca="1">TODAY()</f>
-        <v>44656</v>
+        <v>44657</v>
       </c>
       <c r="F3" s="4"/>
       <c r="G3" s="11" t="s">
@@ -2287,15 +2385,15 @@
       </c>
       <c r="J3" s="25">
         <f ca="1">searchValues!$E$2</f>
-        <v>44656</v>
+        <v>44657</v>
       </c>
       <c r="K3" s="25">
         <f ca="1">EDATE(J3,12)</f>
-        <v>45021</v>
+        <v>45022</v>
       </c>
       <c r="L3" s="25">
         <f ca="1">searchValues!$E$2</f>
-        <v>44656</v>
+        <v>44657</v>
       </c>
       <c r="M3" s="4" t="s">
         <v>200</v>
@@ -2449,12 +2547,12 @@
       <c r="I6" s="4"/>
       <c r="J6" s="25">
         <f ca="1">L6-305</f>
-        <v>44351</v>
+        <v>44352</v>
       </c>
       <c r="K6" s="25"/>
       <c r="L6" s="25">
         <f ca="1">TODAY()</f>
-        <v>44656</v>
+        <v>44657</v>
       </c>
       <c r="M6" s="4" t="s">
         <v>200</v>
@@ -2723,6 +2821,82 @@
       </c>
       <c r="S12" s="4"/>
     </row>
+    <row r="13" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>344</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="C13" s="35" t="s">
+        <v>261</v>
+      </c>
+      <c r="D13" s="35" t="str">
+        <f>createAccount!$S$2</f>
+        <v>Anchorage</v>
+      </c>
+      <c r="E13" s="25">
+        <f ca="1">TODAY()</f>
+        <v>44657</v>
+      </c>
+      <c r="F13" s="4"/>
+      <c r="G13" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="J13" s="25">
+        <f ca="1">searchValues!$E$2</f>
+        <v>44657</v>
+      </c>
+      <c r="K13" s="25">
+        <f ca="1">EDATE(J13,12)</f>
+        <v>45022</v>
+      </c>
+      <c r="L13" s="25">
+        <f ca="1">searchValues!$E$2</f>
+        <v>44657</v>
+      </c>
+      <c r="M13" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="N13" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="O13" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="P13" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q13" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="R13" s="4" t="str">
+        <f>searchValues!$L$2</f>
+        <v>Alaska</v>
+      </c>
+      <c r="S13" s="4"/>
+      <c r="T13" s="4"/>
+      <c r="U13" s="4"/>
+      <c r="V13" s="4"/>
+      <c r="W13" s="4"/>
+      <c r="X13" s="4"/>
+      <c r="Y13" s="4"/>
+      <c r="Z13" s="4"/>
+      <c r="AA13" s="4"/>
+      <c r="AB13" s="4"/>
+      <c r="AC13" s="4"/>
+      <c r="AD13" s="4"/>
+      <c r="AE13" s="4"/>
+      <c r="AF13" s="4"/>
+      <c r="AG13" s="4"/>
+      <c r="AH13" s="4"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2731,10 +2905,10 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB0DD098-A800-41FF-9A1F-DEB129534991}">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2782,11 +2956,11 @@
       </c>
       <c r="E2" s="23">
         <f ca="1">TODAY()</f>
-        <v>44656</v>
+        <v>44657</v>
       </c>
       <c r="F2" s="23">
         <f ca="1">EDATE(E2,12)</f>
-        <v>45021</v>
+        <v>45022</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -2804,11 +2978,33 @@
       </c>
       <c r="E3" s="23">
         <f ca="1">TODAY()</f>
-        <v>44656</v>
+        <v>44657</v>
       </c>
       <c r="F3" s="23">
         <f ca="1">EDATE(E3,12)</f>
-        <v>45021</v>
+        <v>45022</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>344</v>
+      </c>
+      <c r="B4" t="s">
+        <v>202</v>
+      </c>
+      <c r="C4" t="s">
+        <v>204</v>
+      </c>
+      <c r="D4">
+        <v>1000</v>
+      </c>
+      <c r="E4" s="23">
+        <f ca="1">TODAY()</f>
+        <v>44657</v>
+      </c>
+      <c r="F4" s="23">
+        <f ca="1">EDATE(E4,12)</f>
+        <v>45022</v>
       </c>
     </row>
   </sheetData>
@@ -2818,10 +3014,10 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61F68CBA-0482-47BB-872C-CF08A849DFDE}">
-  <dimension ref="A1:M3"/>
+  <dimension ref="A1:M4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2908,6 +3104,20 @@
         <v>93</v>
       </c>
     </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>344</v>
+      </c>
+      <c r="B4" s="18" t="s">
+        <v>115</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="I4" s="18" t="s">
+        <v>93</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2915,10 +3125,10 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B38ACE15-3903-47FD-A871-433D6469AD12}">
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3018,6 +3228,32 @@
         <v>251</v>
       </c>
     </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>344</v>
+      </c>
+      <c r="C4" t="s">
+        <v>247</v>
+      </c>
+      <c r="D4" t="s">
+        <v>248</v>
+      </c>
+      <c r="E4" s="24">
+        <v>15000</v>
+      </c>
+      <c r="F4" s="26" t="s">
+        <v>249</v>
+      </c>
+      <c r="H4">
+        <v>2004</v>
+      </c>
+      <c r="I4" t="s">
+        <v>250</v>
+      </c>
+      <c r="J4" t="s">
+        <v>251</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3025,10 +3261,10 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B574B5B2-B32E-4B4E-B177-C78C0E6DAD01}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3060,6 +3296,14 @@
         <v>93</v>
       </c>
     </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>344</v>
+      </c>
+      <c r="B4" t="s">
+        <v>93</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3067,10 +3311,10 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A00E2BA-236D-4894-B471-B31CF1AB681B}">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3143,6 +3387,26 @@
         <v>93</v>
       </c>
     </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>344</v>
+      </c>
+      <c r="B4" t="s">
+        <v>252</v>
+      </c>
+      <c r="C4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D4" s="23">
+        <v>33001</v>
+      </c>
+      <c r="E4" t="s">
+        <v>235</v>
+      </c>
+      <c r="F4" s="18" t="s">
+        <v>93</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3150,10 +3414,10 @@
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89CC1748-4521-4A05-9CD5-139E4433B998}">
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3222,15 +3486,15 @@
       </c>
       <c r="G2" s="23">
         <f ca="1">CommercialAutoLine!$E$2</f>
-        <v>44656</v>
+        <v>44657</v>
       </c>
       <c r="H2" s="23">
         <f ca="1">CommercialAutoLine!$F$2</f>
-        <v>45021</v>
+        <v>45022</v>
       </c>
       <c r="I2" s="23">
         <f ca="1">CommercialAutoLine!$E$2</f>
-        <v>44656</v>
+        <v>44657</v>
       </c>
       <c r="J2" t="s">
         <v>260</v>
@@ -3256,15 +3520,15 @@
       </c>
       <c r="G3" s="23">
         <f ca="1">CommercialAutoLine!$E$2</f>
-        <v>44656</v>
+        <v>44657</v>
       </c>
       <c r="H3" s="23">
         <f ca="1">CommercialAutoLine!$F$2</f>
-        <v>45021</v>
+        <v>45022</v>
       </c>
       <c r="I3" s="23">
         <f ca="1">CommercialAutoLine!$E$2</f>
-        <v>44656</v>
+        <v>44657</v>
       </c>
       <c r="J3" t="s">
         <v>260</v>
@@ -3273,6 +3537,40 @@
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="32" t="s">
         <v>299</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>344</v>
+      </c>
+      <c r="C5" s="27" t="s">
+        <v>261</v>
+      </c>
+      <c r="D5" t="str">
+        <f>createAccount!$S$2</f>
+        <v>Anchorage</v>
+      </c>
+      <c r="E5" t="str">
+        <f>createAccount!$W$2</f>
+        <v>Home</v>
+      </c>
+      <c r="F5" t="s">
+        <v>198</v>
+      </c>
+      <c r="G5" s="23">
+        <f ca="1">CommercialAutoLine!$E$2</f>
+        <v>44657</v>
+      </c>
+      <c r="H5" s="23">
+        <f ca="1">CommercialAutoLine!$F$2</f>
+        <v>45022</v>
+      </c>
+      <c r="I5" s="23">
+        <f ca="1">CommercialAutoLine!$E$2</f>
+        <v>44657</v>
+      </c>
+      <c r="J5" t="s">
+        <v>260</v>
       </c>
     </row>
   </sheetData>
@@ -4304,10 +4602,10 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FF1A5D0-5ECC-4081-B88A-7E558A8CF5D0}">
-  <dimension ref="A1:Z5"/>
+  <dimension ref="A1:Z6"/>
   <sheetViews>
-    <sheetView topLeftCell="S1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4439,6 +4737,25 @@
       </c>
       <c r="I5" s="18" t="s">
         <v>343</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>344</v>
+      </c>
+      <c r="B6" s="27" t="s">
+        <v>261</v>
+      </c>
+      <c r="C6" t="str">
+        <f>createAccount!$S$2</f>
+        <v>Anchorage</v>
+      </c>
+      <c r="D6" t="str">
+        <f>createAccount!$W$2</f>
+        <v>Home</v>
+      </c>
+      <c r="E6" t="s">
+        <v>260</v>
       </c>
     </row>
   </sheetData>
@@ -4494,7 +4811,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33CC7F2C-C52A-4744-844D-D7C80D306EA8}">
   <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
@@ -4605,10 +4922,10 @@
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D17E820-FB58-4872-8A91-12947C87C96F}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4616,7 +4933,8 @@
     <col min="1" max="1" width="72.7109375" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="26.7109375" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="25" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="32" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="18.140625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="18.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -4629,8 +4947,12 @@
       <c r="C1" s="10" t="s">
         <v>332</v>
       </c>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
+      <c r="D1" s="10" t="s">
+        <v>345</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -4641,6 +4963,17 @@
       </c>
       <c r="C2" t="s">
         <v>334</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>344</v>
+      </c>
+      <c r="D3" t="s">
+        <v>346</v>
+      </c>
+      <c r="E3" t="s">
+        <v>347</v>
       </c>
     </row>
   </sheetData>
@@ -4701,10 +5034,10 @@
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13BE2706-B698-46E7-9B67-C3E7867EA9B5}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:E1"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4748,6 +5081,17 @@
         <v>298</v>
       </c>
       <c r="C3" s="28">
+        <v>44693</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="B4" t="s">
+        <v>298</v>
+      </c>
+      <c r="C4" s="28">
         <v>44693</v>
       </c>
     </row>
@@ -4853,10 +5197,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5169,6 +5513,26 @@
         <v>92</v>
       </c>
     </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>92</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5177,11 +5541,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB3520C8-D792-4977-99E0-C45876A8E20A}">
-  <dimension ref="A1:AF3"/>
+  <dimension ref="A1:AF4"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F13" sqref="F13"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5478,6 +5842,88 @@
       <c r="AD3" s="16"/>
       <c r="AE3" s="16"/>
     </row>
+    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>344</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>165</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>165</v>
+      </c>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14">
+        <v>2015551002</v>
+      </c>
+      <c r="I4" s="14">
+        <v>2015551003</v>
+      </c>
+      <c r="J4" s="14">
+        <v>2015551004</v>
+      </c>
+      <c r="K4" s="14">
+        <v>2015551005</v>
+      </c>
+      <c r="L4" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="M4" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="N4" s="6"/>
+      <c r="O4" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="P4" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q4" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="R4" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="S4" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="T4" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="U4" s="6">
+        <v>99501</v>
+      </c>
+      <c r="V4" s="6" t="str">
+        <f>searchValues!$L$2</f>
+        <v>Alaska</v>
+      </c>
+      <c r="W4" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="X4" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="Y4" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="Z4" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="AA4" s="15"/>
+      <c r="AB4" s="15"/>
+      <c r="AC4" s="16"/>
+      <c r="AD4" s="16"/>
+      <c r="AE4" s="16"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5549,7 +5995,7 @@
   <dimension ref="A1:V4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5675,7 +6121,30 @@
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A4" s="4"/>
+      <c r="A4" s="4" t="s">
+        <v>344</v>
+      </c>
+      <c r="B4" t="s">
+        <v>243</v>
+      </c>
+      <c r="C4" t="s">
+        <v>242</v>
+      </c>
+      <c r="D4" t="s">
+        <v>86</v>
+      </c>
+      <c r="F4" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="L4" t="s">
+        <v>92</v>
+      </c>
+      <c r="N4" s="4" t="s">
+        <v>92</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5738,7 +6207,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64F3B2E2-2F68-4C3E-A134-F693D27BE640}">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
@@ -5791,9 +6260,11 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{663DF9C3-5C9B-4F94-B024-5FECECDF92BA}">
-  <dimension ref="A1:V3"/>
+  <dimension ref="A1:V4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -5860,6 +6331,14 @@
         <v>106</v>
       </c>
     </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>344</v>
+      </c>
+      <c r="G4" t="s">
+        <v>106</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/testdata/CommercialAuto.xlsx
+++ b/testdata/CommercialAuto.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CIG\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B504A467-ADAC-48B4-A669-566CA17F839C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FEFDC00-B01A-4C28-B84D-282FF447528A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19800" windowHeight="11760" firstSheet="19" activeTab="22" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19800" windowHeight="11760" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="searchValues" sheetId="18" r:id="rId1"/>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="867" uniqueCount="348">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1737" uniqueCount="353">
   <si>
     <t>su</t>
   </si>
@@ -991,9 +991,6 @@
     <t>Office</t>
   </si>
   <si>
-    <t>Office Anchorage, AK 99501</t>
-  </si>
-  <si>
     <t>AUT_CA_PC_ApplyEndorsementWhenNonRenewing</t>
   </si>
   <si>
@@ -1009,10 +1006,6 @@
     <t>loss</t>
   </si>
   <si>
-    <t>Office
-Anchorage, AK 99501</t>
-  </si>
-  <si>
     <t>AUT_CA_PC_RenewalWorkflow90Days</t>
   </si>
   <si>
@@ -1064,12 +1057,6 @@
     <t>PS_PremiumCost</t>
   </si>
   <si>
-    <t>Reinstatement</t>
-  </si>
-  <si>
-    <t>$3,366.00</t>
-  </si>
-  <si>
     <t>AUT_CA_PC_CommercialAuto_Reinstatement</t>
   </si>
   <si>
@@ -1082,21 +1069,9 @@
     <t>QU_TotalCost</t>
   </si>
   <si>
-    <t>$4,243.00</t>
-  </si>
-  <si>
-    <t>$233.00</t>
-  </si>
-  <si>
-    <t>$4,476.00</t>
-  </si>
-  <si>
     <t>QU_ChangeInCost</t>
   </si>
   <si>
-    <t>$3,355.00</t>
-  </si>
-  <si>
     <t>AUT_CA_PC_ApplyEndorsementTORenewal</t>
   </si>
   <si>
@@ -1107,6 +1082,45 @@
   </si>
   <si>
     <t>Quoted</t>
+  </si>
+  <si>
+    <t>Common ownership</t>
+  </si>
+  <si>
+    <t>Submission</t>
+  </si>
+  <si>
+    <t>$2,457.00</t>
+  </si>
+  <si>
+    <t>$2,329.00</t>
+  </si>
+  <si>
+    <t>$128.00</t>
+  </si>
+  <si>
+    <t>$1,998.00</t>
+  </si>
+  <si>
+    <t>AUT_CA_PC_ApplyEndorsementTORenewalAndIssuePolicy</t>
+  </si>
+  <si>
+    <t>YNsbjSfFh Automation</t>
+  </si>
+  <si>
+    <t>0244874694</t>
+  </si>
+  <si>
+    <t>Individual</t>
+  </si>
+  <si>
+    <t>company business</t>
+  </si>
+  <si>
+    <t>ufhzhByLO</t>
+  </si>
+  <si>
+    <t>0251944892</t>
   </si>
 </sst>
 </file>
@@ -1117,7 +1131,7 @@
     <numFmt numFmtId="164" formatCode="mm\/dd\/yyyy"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yyyy"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1186,8 +1200,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1230,8 +1250,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -1291,11 +1317,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFD1D1D1"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFD1D1D1"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFD1D1D1"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFD1D1D1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1336,10 +1377,6 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -1362,12 +1399,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1378,6 +1409,13 @@
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1658,15 +1696,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C434C20-6A4B-456B-8D43-C8E066AF420F}">
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:L13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="57.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="63.28515625" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="20" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="13.7109375" customWidth="1" collapsed="1"/>
     <col min="4" max="4" width="16.42578125" bestFit="1" customWidth="1" collapsed="1"/>
@@ -1699,16 +1737,16 @@
       <c r="F1" s="9" t="s">
         <v>191</v>
       </c>
-      <c r="G1" s="19" t="s">
+      <c r="G1" s="17" t="s">
         <v>192</v>
       </c>
-      <c r="H1" s="19" t="s">
+      <c r="H1" s="17" t="s">
         <v>193</v>
       </c>
-      <c r="I1" s="19" t="s">
+      <c r="I1" s="17" t="s">
         <v>194</v>
       </c>
-      <c r="J1" s="19" t="s">
+      <c r="J1" s="17" t="s">
         <v>195</v>
       </c>
       <c r="K1" s="9" t="s">
@@ -1728,9 +1766,9 @@
       <c r="D2" t="s">
         <v>198</v>
       </c>
-      <c r="E2" s="20">
-        <f ca="1">TODAY()</f>
-        <v>44657</v>
+      <c r="E2" s="18">
+        <f t="shared" ref="E2:E9" ca="1" si="0">TODAY()</f>
+        <v>44659</v>
       </c>
       <c r="L2" t="s">
         <v>93</v>
@@ -1738,7 +1776,7 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="B3" t="s">
         <v>197</v>
@@ -1746,12 +1784,192 @@
       <c r="D3" t="s">
         <v>198</v>
       </c>
-      <c r="E3" s="20">
-        <f ca="1">TODAY()</f>
-        <v>44657</v>
+      <c r="E3" s="18">
+        <f t="shared" ca="1" si="0"/>
+        <v>44659</v>
       </c>
       <c r="L3" t="s">
         <v>93</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>346</v>
+      </c>
+      <c r="B4" t="s">
+        <v>197</v>
+      </c>
+      <c r="D4" t="s">
+        <v>198</v>
+      </c>
+      <c r="E4" s="18">
+        <f t="shared" ca="1" si="0"/>
+        <v>44659</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>315</v>
+      </c>
+      <c r="B5" t="s">
+        <v>197</v>
+      </c>
+      <c r="D5" t="s">
+        <v>198</v>
+      </c>
+      <c r="E5" s="18">
+        <f t="shared" ca="1" si="0"/>
+        <v>44659</v>
+      </c>
+      <c r="L5" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>320</v>
+      </c>
+      <c r="B6" t="s">
+        <v>197</v>
+      </c>
+      <c r="D6" t="s">
+        <v>198</v>
+      </c>
+      <c r="E6" s="18">
+        <f t="shared" ca="1" si="0"/>
+        <v>44659</v>
+      </c>
+      <c r="L6" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>331</v>
+      </c>
+      <c r="B7" t="s">
+        <v>197</v>
+      </c>
+      <c r="D7" t="s">
+        <v>198</v>
+      </c>
+      <c r="E7" s="18">
+        <f t="shared" ca="1" si="0"/>
+        <v>44659</v>
+      </c>
+      <c r="F7" t="s">
+        <v>351</v>
+      </c>
+      <c r="G7">
+        <v>5023480352</v>
+      </c>
+      <c r="H7" t="s">
+        <v>352</v>
+      </c>
+      <c r="I7">
+        <v>57253111</v>
+      </c>
+      <c r="L7" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>314</v>
+      </c>
+      <c r="B8" t="s">
+        <v>197</v>
+      </c>
+      <c r="D8" t="s">
+        <v>198</v>
+      </c>
+      <c r="E8" s="18">
+        <f t="shared" ca="1" si="0"/>
+        <v>44659</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>299</v>
+      </c>
+      <c r="B9" t="s">
+        <v>197</v>
+      </c>
+      <c r="D9" t="s">
+        <v>198</v>
+      </c>
+      <c r="E9" s="18">
+        <f t="shared" ca="1" si="0"/>
+        <v>44659</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>309</v>
+      </c>
+      <c r="B10" t="s">
+        <v>197</v>
+      </c>
+      <c r="D10" t="s">
+        <v>198</v>
+      </c>
+      <c r="E10" s="18">
+        <f t="shared" ref="E10:E13" ca="1" si="1">TODAY()</f>
+        <v>44659</v>
+      </c>
+      <c r="F10" t="s">
+        <v>347</v>
+      </c>
+      <c r="G10">
+        <v>7285584110</v>
+      </c>
+      <c r="H10" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>267</v>
+      </c>
+      <c r="B11" t="s">
+        <v>197</v>
+      </c>
+      <c r="D11" t="s">
+        <v>198</v>
+      </c>
+      <c r="E11" s="18">
+        <f t="shared" ca="1" si="1"/>
+        <v>44659</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>275</v>
+      </c>
+      <c r="B12" t="s">
+        <v>197</v>
+      </c>
+      <c r="D12" t="s">
+        <v>198</v>
+      </c>
+      <c r="E12" s="18">
+        <f t="shared" ca="1" si="1"/>
+        <v>44659</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>278</v>
+      </c>
+      <c r="B13" t="s">
+        <v>197</v>
+      </c>
+      <c r="D13" t="s">
+        <v>198</v>
+      </c>
+      <c r="E13" s="18">
+        <f t="shared" ca="1" si="1"/>
+        <v>44659</v>
       </c>
     </row>
   </sheetData>
@@ -1762,17 +1980,17 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E1DC793-B854-43BE-BD2A-91D9F044E2A1}">
-  <dimension ref="A1:V4"/>
+  <dimension ref="A1:V14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="55.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="21.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="29.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="32.28515625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="35.85546875" customWidth="1" collapsed="1"/>
     <col min="4" max="4" width="30.42578125" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="5" max="5" width="18.140625" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="6" max="6" width="23.7109375" bestFit="1" customWidth="1" collapsed="1"/>
@@ -1780,42 +1998,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="19" t="s">
         <v>168</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="C1" s="20" t="s">
         <v>169</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="D1" s="20" t="s">
         <v>101</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="E1" s="20" t="s">
         <v>102</v>
       </c>
-      <c r="F1" s="22" t="s">
+      <c r="F1" s="20" t="s">
         <v>103</v>
       </c>
-      <c r="G1" s="22" t="s">
+      <c r="G1" s="20" t="s">
         <v>104</v>
       </c>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
-      <c r="K1" s="22"/>
-      <c r="L1" s="22"/>
-      <c r="M1" s="22"/>
-      <c r="N1" s="22"/>
-      <c r="O1" s="22"/>
-      <c r="P1" s="22"/>
-      <c r="Q1" s="22"/>
-      <c r="R1" s="22"/>
-      <c r="S1" s="22"/>
-      <c r="T1" s="22"/>
-      <c r="U1" s="22"/>
-      <c r="V1" s="22"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="20"/>
+      <c r="L1" s="20"/>
+      <c r="M1" s="20"/>
+      <c r="N1" s="20"/>
+      <c r="O1" s="20"/>
+      <c r="P1" s="20"/>
+      <c r="Q1" s="20"/>
+      <c r="R1" s="20"/>
+      <c r="S1" s="20"/>
+      <c r="T1" s="20"/>
+      <c r="U1" s="20"/>
+      <c r="V1" s="20"/>
     </row>
     <row r="2" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
@@ -1836,9 +2054,9 @@
       <c r="F2" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="G2" s="25">
-        <f ca="1">TODAY()</f>
-        <v>44657</v>
+      <c r="G2" s="23">
+        <f t="shared" ref="G2:G14" ca="1" si="0">TODAY()</f>
+        <v>44659</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
@@ -1860,14 +2078,14 @@
       <c r="F3" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="G3" s="25">
-        <f ca="1">TODAY()</f>
-        <v>44657</v>
+      <c r="G3" s="23">
+        <f t="shared" ca="1" si="0"/>
+        <v>44659</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>243</v>
@@ -1884,9 +2102,9 @@
       <c r="F4" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="G4" s="25">
-        <f ca="1">TODAY()</f>
-        <v>44657</v>
+      <c r="G4" s="23">
+        <f t="shared" ca="1" si="0"/>
+        <v>44659</v>
       </c>
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
@@ -1896,6 +2114,281 @@
       <c r="M4" s="4"/>
       <c r="N4" s="4"/>
     </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="G5" s="23">
+        <f t="shared" ca="1" si="0"/>
+        <v>44659</v>
+      </c>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="36"/>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>315</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="G6" s="23">
+        <f t="shared" ca="1" si="0"/>
+        <v>44659</v>
+      </c>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>320</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="G7" s="23">
+        <f t="shared" ca="1" si="0"/>
+        <v>44659</v>
+      </c>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>331</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="G8" s="23">
+        <f t="shared" ca="1" si="0"/>
+        <v>44659</v>
+      </c>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4"/>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="G9" s="23">
+        <f t="shared" ca="1" si="0"/>
+        <v>44659</v>
+      </c>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>299</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="G10" s="23">
+        <f t="shared" ca="1" si="0"/>
+        <v>44659</v>
+      </c>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>309</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="G11" s="23">
+        <f t="shared" ca="1" si="0"/>
+        <v>44659</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="G12" s="23">
+        <f t="shared" ca="1" si="0"/>
+        <v>44659</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="G13" s="23">
+        <f t="shared" ca="1" si="0"/>
+        <v>44659</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="G14" s="23">
+        <f t="shared" ca="1" si="0"/>
+        <v>44659</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1903,15 +2396,15 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27252891-3B19-4BAC-93AF-75D8B37A68D3}">
-  <dimension ref="A1:V6"/>
+  <dimension ref="A1:V14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="55.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="59.5703125" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="20.140625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
@@ -1961,7 +2454,7 @@
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>299</v>
+        <v>336</v>
       </c>
       <c r="B4" t="s">
         <v>110</v>
@@ -1969,7 +2462,7 @@
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>310</v>
+        <v>346</v>
       </c>
       <c r="B5" t="s">
         <v>110</v>
@@ -1977,9 +2470,73 @@
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>344</v>
+        <v>315</v>
       </c>
       <c r="B6" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>320</v>
+      </c>
+      <c r="B7" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>331</v>
+      </c>
+      <c r="B8" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>314</v>
+      </c>
+      <c r="B9" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>299</v>
+      </c>
+      <c r="B10" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>309</v>
+      </c>
+      <c r="B11" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>267</v>
+      </c>
+      <c r="B12" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>275</v>
+      </c>
+      <c r="B13" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>278</v>
+      </c>
+      <c r="B14" t="s">
         <v>110</v>
       </c>
     </row>
@@ -1990,15 +2547,15 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBF1A7FD-8CFF-426D-86B2-3602E2616FE0}">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="55.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="62.28515625" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="27.5703125" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="33.85546875" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="4" max="4" width="33.5703125" bestFit="1" customWidth="1" collapsed="1"/>
@@ -2098,7 +2655,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="B4" t="s">
         <v>115</v>
@@ -2122,6 +2679,296 @@
         <v>115</v>
       </c>
       <c r="I4" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>346</v>
+      </c>
+      <c r="B5" t="s">
+        <v>115</v>
+      </c>
+      <c r="C5" t="s">
+        <v>115</v>
+      </c>
+      <c r="D5" t="s">
+        <v>115</v>
+      </c>
+      <c r="E5" t="s">
+        <v>115</v>
+      </c>
+      <c r="F5" t="s">
+        <v>117</v>
+      </c>
+      <c r="G5" t="s">
+        <v>119</v>
+      </c>
+      <c r="H5" t="s">
+        <v>115</v>
+      </c>
+      <c r="I5" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>315</v>
+      </c>
+      <c r="B6" t="s">
+        <v>115</v>
+      </c>
+      <c r="C6" t="s">
+        <v>115</v>
+      </c>
+      <c r="D6" t="s">
+        <v>115</v>
+      </c>
+      <c r="E6" t="s">
+        <v>115</v>
+      </c>
+      <c r="F6" t="s">
+        <v>117</v>
+      </c>
+      <c r="G6" t="s">
+        <v>119</v>
+      </c>
+      <c r="H6" t="s">
+        <v>115</v>
+      </c>
+      <c r="I6" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>320</v>
+      </c>
+      <c r="B7" t="s">
+        <v>115</v>
+      </c>
+      <c r="C7" t="s">
+        <v>115</v>
+      </c>
+      <c r="D7" t="s">
+        <v>115</v>
+      </c>
+      <c r="E7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F7" t="s">
+        <v>117</v>
+      </c>
+      <c r="G7" t="s">
+        <v>119</v>
+      </c>
+      <c r="H7" t="s">
+        <v>115</v>
+      </c>
+      <c r="I7" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>331</v>
+      </c>
+      <c r="B8" t="s">
+        <v>115</v>
+      </c>
+      <c r="C8" t="s">
+        <v>115</v>
+      </c>
+      <c r="D8" t="s">
+        <v>115</v>
+      </c>
+      <c r="E8" t="s">
+        <v>115</v>
+      </c>
+      <c r="F8" t="s">
+        <v>117</v>
+      </c>
+      <c r="G8" t="s">
+        <v>119</v>
+      </c>
+      <c r="H8" t="s">
+        <v>115</v>
+      </c>
+      <c r="I8" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>314</v>
+      </c>
+      <c r="B9" t="s">
+        <v>115</v>
+      </c>
+      <c r="C9" t="s">
+        <v>115</v>
+      </c>
+      <c r="D9" t="s">
+        <v>115</v>
+      </c>
+      <c r="E9" t="s">
+        <v>115</v>
+      </c>
+      <c r="F9" t="s">
+        <v>117</v>
+      </c>
+      <c r="G9" t="s">
+        <v>119</v>
+      </c>
+      <c r="H9" t="s">
+        <v>115</v>
+      </c>
+      <c r="I9" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>299</v>
+      </c>
+      <c r="B10" t="s">
+        <v>115</v>
+      </c>
+      <c r="C10" t="s">
+        <v>115</v>
+      </c>
+      <c r="D10" t="s">
+        <v>115</v>
+      </c>
+      <c r="E10" t="s">
+        <v>115</v>
+      </c>
+      <c r="F10" t="s">
+        <v>117</v>
+      </c>
+      <c r="G10" t="s">
+        <v>119</v>
+      </c>
+      <c r="H10" t="s">
+        <v>115</v>
+      </c>
+      <c r="I10" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>309</v>
+      </c>
+      <c r="B11" t="s">
+        <v>115</v>
+      </c>
+      <c r="C11" t="s">
+        <v>115</v>
+      </c>
+      <c r="D11" t="s">
+        <v>115</v>
+      </c>
+      <c r="E11" t="s">
+        <v>115</v>
+      </c>
+      <c r="F11" t="s">
+        <v>117</v>
+      </c>
+      <c r="G11" t="s">
+        <v>119</v>
+      </c>
+      <c r="H11" t="s">
+        <v>115</v>
+      </c>
+      <c r="I11" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>267</v>
+      </c>
+      <c r="B12" t="s">
+        <v>115</v>
+      </c>
+      <c r="C12" t="s">
+        <v>115</v>
+      </c>
+      <c r="D12" t="s">
+        <v>115</v>
+      </c>
+      <c r="E12" t="s">
+        <v>115</v>
+      </c>
+      <c r="F12" t="s">
+        <v>117</v>
+      </c>
+      <c r="G12" t="s">
+        <v>119</v>
+      </c>
+      <c r="H12" t="s">
+        <v>115</v>
+      </c>
+      <c r="I12" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>275</v>
+      </c>
+      <c r="B13" t="s">
+        <v>115</v>
+      </c>
+      <c r="C13" t="s">
+        <v>115</v>
+      </c>
+      <c r="D13" t="s">
+        <v>115</v>
+      </c>
+      <c r="E13" t="s">
+        <v>115</v>
+      </c>
+      <c r="F13" t="s">
+        <v>117</v>
+      </c>
+      <c r="G13" t="s">
+        <v>119</v>
+      </c>
+      <c r="H13" t="s">
+        <v>115</v>
+      </c>
+      <c r="I13" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>278</v>
+      </c>
+      <c r="B14" t="s">
+        <v>115</v>
+      </c>
+      <c r="C14" t="s">
+        <v>115</v>
+      </c>
+      <c r="D14" t="s">
+        <v>115</v>
+      </c>
+      <c r="E14" t="s">
+        <v>115</v>
+      </c>
+      <c r="F14" t="s">
+        <v>117</v>
+      </c>
+      <c r="G14" t="s">
+        <v>119</v>
+      </c>
+      <c r="H14" t="s">
+        <v>115</v>
+      </c>
+      <c r="I14" t="s">
         <v>115</v>
       </c>
     </row>
@@ -2132,10 +2979,10 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{669B8DAE-FB45-4C9B-9219-B08AC39D45EC}">
-  <dimension ref="A1:AI13"/>
+  <dimension ref="A1:AI14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="Q6" sqref="Q6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2277,7 +3124,7 @@
       <c r="AH1" s="9" t="s">
         <v>305</v>
       </c>
-      <c r="AI1" s="34"/>
+      <c r="AI1" s="30"/>
     </row>
     <row r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
@@ -2286,16 +3133,16 @@
       <c r="B2" s="4" t="s">
         <v>265</v>
       </c>
-      <c r="C2" s="35" t="s">
+      <c r="C2" s="31" t="s">
         <v>261</v>
       </c>
-      <c r="D2" s="35" t="str">
+      <c r="D2" s="31" t="str">
         <f>createAccount!$S$2</f>
         <v>Anchorage</v>
       </c>
-      <c r="E2" s="25">
+      <c r="E2" s="23">
         <f ca="1">TODAY()</f>
-        <v>44657</v>
+        <v>44659</v>
       </c>
       <c r="F2" s="4"/>
       <c r="G2" s="11" t="s">
@@ -2307,17 +3154,17 @@
       <c r="I2" s="4" t="s">
         <v>199</v>
       </c>
-      <c r="J2" s="25">
+      <c r="J2" s="23">
         <f ca="1">searchValues!$E$2</f>
-        <v>44657</v>
-      </c>
-      <c r="K2" s="25">
+        <v>44659</v>
+      </c>
+      <c r="K2" s="23">
         <f ca="1">EDATE(J2,12)</f>
-        <v>45022</v>
-      </c>
-      <c r="L2" s="25">
+        <v>45024</v>
+      </c>
+      <c r="L2" s="23">
         <f ca="1">searchValues!$E$2</f>
-        <v>44657</v>
+        <v>44659</v>
       </c>
       <c r="M2" s="4" t="s">
         <v>200</v>
@@ -2354,6 +3201,7 @@
       <c r="AF2" s="4"/>
       <c r="AG2" s="4"/>
       <c r="AH2" s="4"/>
+      <c r="AI2" s="4"/>
     </row>
     <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
@@ -2362,16 +3210,16 @@
       <c r="B3" s="4" t="s">
         <v>265</v>
       </c>
-      <c r="C3" s="35" t="s">
+      <c r="C3" s="31" t="s">
         <v>261</v>
       </c>
-      <c r="D3" s="35" t="str">
+      <c r="D3" s="31" t="str">
         <f>createAccount!$S$2</f>
         <v>Anchorage</v>
       </c>
-      <c r="E3" s="25">
+      <c r="E3" s="23">
         <f ca="1">TODAY()</f>
-        <v>44657</v>
+        <v>44659</v>
       </c>
       <c r="F3" s="4"/>
       <c r="G3" s="11" t="s">
@@ -2383,17 +3231,17 @@
       <c r="I3" s="4" t="s">
         <v>199</v>
       </c>
-      <c r="J3" s="25">
+      <c r="J3" s="23">
         <f ca="1">searchValues!$E$2</f>
-        <v>44657</v>
-      </c>
-      <c r="K3" s="25">
+        <v>44659</v>
+      </c>
+      <c r="K3" s="23">
         <f ca="1">EDATE(J3,12)</f>
-        <v>45022</v>
-      </c>
-      <c r="L3" s="25">
+        <v>45024</v>
+      </c>
+      <c r="L3" s="23">
         <f ca="1">searchValues!$E$2</f>
-        <v>44657</v>
+        <v>44659</v>
       </c>
       <c r="M3" s="4" t="s">
         <v>200</v>
@@ -2430,28 +3278,64 @@
       <c r="AF3" s="4"/>
       <c r="AG3" s="4"/>
       <c r="AH3" s="4"/>
+      <c r="AI3" s="4"/>
     </row>
     <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
+        <v>309</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="C4" s="31" t="s">
+        <v>261</v>
+      </c>
+      <c r="D4" s="31" t="str">
+        <f>createAccount!$S$2</f>
+        <v>Anchorage</v>
+      </c>
+      <c r="E4" s="23">
+        <f ca="1">TODAY()</f>
+        <v>44659</v>
+      </c>
       <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
-      <c r="M4" s="4"/>
-      <c r="N4" s="4"/>
-      <c r="O4" s="4"/>
-      <c r="P4" s="4"/>
-      <c r="Q4" s="4"/>
-      <c r="R4" s="4"/>
+      <c r="G4" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="J4" s="23">
+        <f ca="1">TODAY()</f>
+        <v>44659</v>
+      </c>
+      <c r="K4" s="23"/>
+      <c r="L4" s="23">
+        <f ca="1">searchValues!$E$2</f>
+        <v>44659</v>
+      </c>
+      <c r="M4" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="N4" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="O4" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="P4" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q4" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="R4" s="4" t="str">
+        <f>searchValues!$L$2</f>
+        <v>Alaska</v>
+      </c>
       <c r="S4" s="4"/>
       <c r="T4" s="4"/>
       <c r="U4" s="4"/>
@@ -2478,34 +3362,64 @@
       <c r="AH4" s="4" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="5" spans="1:35" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="33" t="s">
-        <v>315</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="E5" s="4"/>
+      <c r="AI4" s="4"/>
+    </row>
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="C5" s="31" t="s">
+        <v>261</v>
+      </c>
+      <c r="D5" s="31" t="str">
+        <f>createAccount!$S$2</f>
+        <v>Anchorage</v>
+      </c>
+      <c r="E5" s="23">
+        <f ca="1">TODAY()</f>
+        <v>44659</v>
+      </c>
       <c r="F5" s="4"/>
       <c r="G5" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
-      <c r="N5" s="4"/>
-      <c r="O5" s="4"/>
-      <c r="P5" s="4"/>
-      <c r="Q5" s="4"/>
-      <c r="R5" s="4"/>
+      <c r="H5" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="J5" s="23">
+        <f ca="1">TODAY()</f>
+        <v>44659</v>
+      </c>
+      <c r="K5" s="23"/>
+      <c r="L5" s="23">
+        <f ca="1">searchValues!$E$2</f>
+        <v>44659</v>
+      </c>
+      <c r="M5" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="N5" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="O5" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="P5" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q5" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="R5" s="4" t="str">
+        <f>searchValues!$L$2</f>
+        <v>Alaska</v>
+      </c>
       <c r="S5" s="4"/>
       <c r="T5" s="4"/>
       <c r="U5" s="4"/>
@@ -2517,42 +3431,49 @@
       <c r="AA5" s="4"/>
       <c r="AB5" s="4"/>
       <c r="AC5" s="4"/>
-      <c r="AD5" s="4" t="s">
-        <v>306</v>
-      </c>
-      <c r="AE5" s="4" t="s">
-        <v>307</v>
-      </c>
-      <c r="AF5" s="4" t="s">
-        <v>308</v>
-      </c>
-      <c r="AG5" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="AH5" s="4" t="s">
-        <v>89</v>
-      </c>
+      <c r="AD5" s="4"/>
+      <c r="AE5" s="4"/>
+      <c r="AF5" s="4"/>
+      <c r="AG5" s="4"/>
+      <c r="AH5" s="4"/>
+      <c r="AI5" s="4"/>
     </row>
     <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>316</v>
-      </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="35"/>
-      <c r="D6" s="35"/>
-      <c r="E6" s="25"/>
+        <v>331</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="C6" s="31" t="s">
+        <v>261</v>
+      </c>
+      <c r="D6" s="31" t="str">
+        <f>createAccount!$S$2</f>
+        <v>Anchorage</v>
+      </c>
+      <c r="E6" s="23">
+        <f ca="1">TODAY()</f>
+        <v>44659</v>
+      </c>
       <c r="F6" s="4"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="25">
-        <f ca="1">L6-305</f>
-        <v>44352</v>
-      </c>
-      <c r="K6" s="25"/>
-      <c r="L6" s="25">
+      <c r="G6" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="J6" s="23">
         <f ca="1">TODAY()</f>
-        <v>44657</v>
+        <v>44659</v>
+      </c>
+      <c r="K6" s="23"/>
+      <c r="L6" s="23">
+        <f ca="1">searchValues!$E$2</f>
+        <v>44659</v>
       </c>
       <c r="M6" s="4" t="s">
         <v>200</v>
@@ -2589,22 +3510,45 @@
       <c r="AF6" s="4"/>
       <c r="AG6" s="4"/>
       <c r="AH6" s="4"/>
+      <c r="AI6" s="4"/>
     </row>
     <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>335</v>
-      </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="35"/>
-      <c r="D7" s="35"/>
-      <c r="E7" s="25"/>
+        <v>267</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="C7" s="31" t="s">
+        <v>261</v>
+      </c>
+      <c r="D7" s="31" t="str">
+        <f>createAccount!$S$2</f>
+        <v>Anchorage</v>
+      </c>
+      <c r="E7" s="23">
+        <f t="shared" ref="E7:E9" ca="1" si="0">TODAY()</f>
+        <v>44659</v>
+      </c>
       <c r="F7" s="4"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="25"/>
-      <c r="K7" s="25"/>
-      <c r="L7" s="25"/>
+      <c r="G7" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="J7" s="23">
+        <f t="shared" ref="J7:J9" ca="1" si="1">TODAY()</f>
+        <v>44659</v>
+      </c>
+      <c r="K7" s="23"/>
+      <c r="L7" s="23">
+        <f ca="1">searchValues!$E$2</f>
+        <v>44659</v>
+      </c>
       <c r="M7" s="4" t="s">
         <v>200</v>
       </c>
@@ -2640,22 +3584,45 @@
       <c r="AF7" s="4"/>
       <c r="AG7" s="4"/>
       <c r="AH7" s="4"/>
+      <c r="AI7" s="4"/>
     </row>
     <row r="8" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>267</v>
-      </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="35"/>
-      <c r="D8" s="35"/>
-      <c r="E8" s="25"/>
+        <v>275</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="C8" s="31" t="s">
+        <v>261</v>
+      </c>
+      <c r="D8" s="31" t="str">
+        <f>createAccount!$S$2</f>
+        <v>Anchorage</v>
+      </c>
+      <c r="E8" s="23">
+        <f t="shared" ca="1" si="0"/>
+        <v>44659</v>
+      </c>
       <c r="F8" s="4"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="25"/>
-      <c r="K8" s="25"/>
-      <c r="L8" s="25"/>
+      <c r="G8" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="J8" s="23">
+        <f t="shared" ca="1" si="1"/>
+        <v>44659</v>
+      </c>
+      <c r="K8" s="23"/>
+      <c r="L8" s="23">
+        <f ca="1">searchValues!$E$2</f>
+        <v>44659</v>
+      </c>
       <c r="M8" s="4" t="s">
         <v>200</v>
       </c>
@@ -2676,22 +3643,60 @@
         <v>Alaska</v>
       </c>
       <c r="S8" s="4"/>
+      <c r="T8" s="4"/>
+      <c r="U8" s="4"/>
+      <c r="V8" s="4"/>
+      <c r="W8" s="4"/>
+      <c r="X8" s="4"/>
+      <c r="Y8" s="4"/>
+      <c r="Z8" s="4"/>
+      <c r="AA8" s="4"/>
+      <c r="AB8" s="4"/>
+      <c r="AC8" s="4"/>
+      <c r="AD8" s="4"/>
+      <c r="AE8" s="4"/>
+      <c r="AF8" s="4"/>
+      <c r="AG8" s="4"/>
+      <c r="AH8" s="4"/>
+      <c r="AI8" s="4"/>
     </row>
     <row r="9" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>275</v>
-      </c>
-      <c r="B9" s="4"/>
-      <c r="C9" s="35"/>
-      <c r="D9" s="35"/>
-      <c r="E9" s="25"/>
+        <v>278</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="C9" s="31" t="s">
+        <v>261</v>
+      </c>
+      <c r="D9" s="31" t="str">
+        <f>createAccount!$S$2</f>
+        <v>Anchorage</v>
+      </c>
+      <c r="E9" s="23">
+        <f t="shared" ca="1" si="0"/>
+        <v>44659</v>
+      </c>
       <c r="F9" s="4"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="25"/>
-      <c r="K9" s="25"/>
-      <c r="L9" s="25"/>
+      <c r="G9" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="J9" s="23">
+        <f t="shared" ca="1" si="1"/>
+        <v>44659</v>
+      </c>
+      <c r="K9" s="23"/>
+      <c r="L9" s="23">
+        <f ca="1">searchValues!$E$2</f>
+        <v>44659</v>
+      </c>
       <c r="M9" s="4" t="s">
         <v>200</v>
       </c>
@@ -2712,22 +3717,60 @@
         <v>Alaska</v>
       </c>
       <c r="S9" s="4"/>
+      <c r="T9" s="4"/>
+      <c r="U9" s="4"/>
+      <c r="V9" s="4"/>
+      <c r="W9" s="4"/>
+      <c r="X9" s="4"/>
+      <c r="Y9" s="4"/>
+      <c r="Z9" s="4"/>
+      <c r="AA9" s="4"/>
+      <c r="AB9" s="4"/>
+      <c r="AC9" s="4"/>
+      <c r="AD9" s="4"/>
+      <c r="AE9" s="4"/>
+      <c r="AF9" s="4"/>
+      <c r="AG9" s="4"/>
+      <c r="AH9" s="4"/>
+      <c r="AI9" s="4"/>
     </row>
     <row r="10" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>278</v>
-      </c>
-      <c r="B10" s="4"/>
-      <c r="C10" s="35"/>
-      <c r="D10" s="35"/>
-      <c r="E10" s="25"/>
+        <v>336</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="C10" s="31" t="s">
+        <v>261</v>
+      </c>
+      <c r="D10" s="31" t="str">
+        <f>createAccount!$S$2</f>
+        <v>Anchorage</v>
+      </c>
+      <c r="E10" s="23">
+        <f ca="1">TODAY()</f>
+        <v>44659</v>
+      </c>
       <c r="F10" s="4"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="25"/>
-      <c r="K10" s="25"/>
-      <c r="L10" s="25"/>
+      <c r="G10" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="J10" s="23">
+        <f ca="1">TODAY()</f>
+        <v>44659</v>
+      </c>
+      <c r="K10" s="23"/>
+      <c r="L10" s="23">
+        <f ca="1">searchValues!$E$2</f>
+        <v>44659</v>
+      </c>
       <c r="M10" s="4" t="s">
         <v>200</v>
       </c>
@@ -2748,22 +3791,60 @@
         <v>Alaska</v>
       </c>
       <c r="S10" s="4"/>
+      <c r="T10" s="4"/>
+      <c r="U10" s="4"/>
+      <c r="V10" s="4"/>
+      <c r="W10" s="4"/>
+      <c r="X10" s="4"/>
+      <c r="Y10" s="4"/>
+      <c r="Z10" s="4"/>
+      <c r="AA10" s="4"/>
+      <c r="AB10" s="4"/>
+      <c r="AC10" s="4"/>
+      <c r="AD10" s="4"/>
+      <c r="AE10" s="4"/>
+      <c r="AF10" s="4"/>
+      <c r="AG10" s="4"/>
+      <c r="AH10" s="4"/>
+      <c r="AI10" s="4"/>
     </row>
     <row r="11" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>317</v>
-      </c>
-      <c r="B11" s="4"/>
-      <c r="C11" s="35"/>
-      <c r="D11" s="35"/>
-      <c r="E11" s="25"/>
+        <v>346</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="C11" s="31" t="s">
+        <v>261</v>
+      </c>
+      <c r="D11" s="31" t="str">
+        <f>createAccount!$S$2</f>
+        <v>Anchorage</v>
+      </c>
+      <c r="E11" s="23">
+        <f ca="1">TODAY()</f>
+        <v>44659</v>
+      </c>
       <c r="F11" s="4"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="25"/>
-      <c r="K11" s="25"/>
-      <c r="L11" s="25"/>
+      <c r="G11" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="J11" s="23">
+        <f ca="1">TODAY()</f>
+        <v>44659</v>
+      </c>
+      <c r="K11" s="23"/>
+      <c r="L11" s="23">
+        <f ca="1">searchValues!$E$2</f>
+        <v>44659</v>
+      </c>
       <c r="M11" s="4" t="s">
         <v>200</v>
       </c>
@@ -2784,22 +3865,60 @@
         <v>Alaska</v>
       </c>
       <c r="S11" s="4"/>
+      <c r="T11" s="4"/>
+      <c r="U11" s="4"/>
+      <c r="V11" s="4"/>
+      <c r="W11" s="4"/>
+      <c r="X11" s="4"/>
+      <c r="Y11" s="4"/>
+      <c r="Z11" s="4"/>
+      <c r="AA11" s="4"/>
+      <c r="AB11" s="4"/>
+      <c r="AC11" s="4"/>
+      <c r="AD11" s="4"/>
+      <c r="AE11" s="4"/>
+      <c r="AF11" s="4"/>
+      <c r="AG11" s="4"/>
+      <c r="AH11" s="4"/>
+      <c r="AI11" s="4"/>
     </row>
     <row r="12" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>322</v>
-      </c>
-      <c r="B12" s="4"/>
-      <c r="C12" s="35"/>
-      <c r="D12" s="35"/>
-      <c r="E12" s="25"/>
+        <v>315</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="C12" s="31" t="s">
+        <v>261</v>
+      </c>
+      <c r="D12" s="31" t="str">
+        <f>createAccount!$S$2</f>
+        <v>Anchorage</v>
+      </c>
+      <c r="E12" s="23">
+        <f ca="1">TODAY()</f>
+        <v>44659</v>
+      </c>
       <c r="F12" s="4"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="25"/>
-      <c r="K12" s="25"/>
-      <c r="L12" s="25"/>
+      <c r="G12" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="J12" s="23">
+        <f ca="1">TODAY()</f>
+        <v>44659</v>
+      </c>
+      <c r="K12" s="23"/>
+      <c r="L12" s="23">
+        <f ca="1">searchValues!$E$2</f>
+        <v>44659</v>
+      </c>
       <c r="M12" s="4" t="s">
         <v>200</v>
       </c>
@@ -2820,24 +3939,40 @@
         <v>Alaska</v>
       </c>
       <c r="S12" s="4"/>
+      <c r="T12" s="4"/>
+      <c r="U12" s="4"/>
+      <c r="V12" s="4"/>
+      <c r="W12" s="4"/>
+      <c r="X12" s="4"/>
+      <c r="Y12" s="4"/>
+      <c r="Z12" s="4"/>
+      <c r="AA12" s="4"/>
+      <c r="AB12" s="4"/>
+      <c r="AC12" s="4"/>
+      <c r="AD12" s="4"/>
+      <c r="AE12" s="4"/>
+      <c r="AF12" s="4"/>
+      <c r="AG12" s="4"/>
+      <c r="AH12" s="4"/>
+      <c r="AI12" s="4"/>
     </row>
     <row r="13" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>344</v>
+        <v>320</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>265</v>
       </c>
-      <c r="C13" s="35" t="s">
+      <c r="C13" s="31" t="s">
         <v>261</v>
       </c>
-      <c r="D13" s="35" t="str">
+      <c r="D13" s="31" t="str">
         <f>createAccount!$S$2</f>
         <v>Anchorage</v>
       </c>
-      <c r="E13" s="25">
+      <c r="E13" s="23">
         <f ca="1">TODAY()</f>
-        <v>44657</v>
+        <v>44659</v>
       </c>
       <c r="F13" s="4"/>
       <c r="G13" s="11" t="s">
@@ -2849,17 +3984,14 @@
       <c r="I13" s="4" t="s">
         <v>199</v>
       </c>
-      <c r="J13" s="25">
+      <c r="J13" s="23">
+        <f ca="1">TODAY()</f>
+        <v>44659</v>
+      </c>
+      <c r="K13" s="23"/>
+      <c r="L13" s="23">
         <f ca="1">searchValues!$E$2</f>
-        <v>44657</v>
-      </c>
-      <c r="K13" s="25">
-        <f ca="1">EDATE(J13,12)</f>
-        <v>45022</v>
-      </c>
-      <c r="L13" s="25">
-        <f ca="1">searchValues!$E$2</f>
-        <v>44657</v>
+        <v>44659</v>
       </c>
       <c r="M13" s="4" t="s">
         <v>200</v>
@@ -2896,6 +4028,91 @@
       <c r="AF13" s="4"/>
       <c r="AG13" s="4"/>
       <c r="AH13" s="4"/>
+      <c r="AI13" s="4"/>
+    </row>
+    <row r="14" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A14" s="37" t="s">
+        <v>299</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="C14" s="31" t="s">
+        <v>261</v>
+      </c>
+      <c r="D14" s="31" t="str">
+        <f>createAccount!$S$2</f>
+        <v>Anchorage</v>
+      </c>
+      <c r="E14" s="23">
+        <f ca="1">TODAY()</f>
+        <v>44659</v>
+      </c>
+      <c r="F14" s="4"/>
+      <c r="G14" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="J14" s="23">
+        <f ca="1">TODAY()</f>
+        <v>44659</v>
+      </c>
+      <c r="K14" s="23"/>
+      <c r="L14" s="23">
+        <f ca="1">searchValues!$E$2</f>
+        <v>44659</v>
+      </c>
+      <c r="M14" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="N14" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="O14" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="P14" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q14" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="R14" s="4" t="str">
+        <f>searchValues!$L$2</f>
+        <v>Alaska</v>
+      </c>
+      <c r="S14" s="4"/>
+      <c r="T14" s="4"/>
+      <c r="U14" s="4"/>
+      <c r="V14" s="4"/>
+      <c r="W14" s="4"/>
+      <c r="X14" s="4"/>
+      <c r="Y14" s="4"/>
+      <c r="Z14" s="4"/>
+      <c r="AA14" s="4"/>
+      <c r="AB14" s="4"/>
+      <c r="AC14" s="4"/>
+      <c r="AD14" s="4" t="s">
+        <v>306</v>
+      </c>
+      <c r="AE14" s="4" t="s">
+        <v>307</v>
+      </c>
+      <c r="AF14" s="4" t="s">
+        <v>308</v>
+      </c>
+      <c r="AG14" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="AH14" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="AI14" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2905,17 +4122,17 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB0DD098-A800-41FF-9A1F-DEB129534991}">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="55.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="13.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="18.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="61.85546875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="14.85546875" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="21.5703125" customWidth="1" collapsed="1"/>
     <col min="4" max="4" width="13.7109375" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="5" max="5" width="22" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="6" max="6" width="21" bestFit="1" customWidth="1" collapsed="1"/>
@@ -2954,13 +4171,13 @@
       <c r="D2">
         <v>1000</v>
       </c>
-      <c r="E2" s="23">
-        <f ca="1">TODAY()</f>
-        <v>44657</v>
-      </c>
-      <c r="F2" s="23">
-        <f ca="1">EDATE(E2,12)</f>
-        <v>45022</v>
+      <c r="E2" s="21">
+        <f t="shared" ref="E2:E14" ca="1" si="0">TODAY()</f>
+        <v>44659</v>
+      </c>
+      <c r="F2" s="21">
+        <f t="shared" ref="F2:F14" ca="1" si="1">EDATE(E2,12)</f>
+        <v>45024</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -2976,18 +4193,18 @@
       <c r="D3">
         <v>1000</v>
       </c>
-      <c r="E3" s="23">
-        <f ca="1">TODAY()</f>
-        <v>44657</v>
-      </c>
-      <c r="F3" s="23">
-        <f ca="1">EDATE(E3,12)</f>
-        <v>45022</v>
+      <c r="E3" s="21">
+        <f t="shared" ca="1" si="0"/>
+        <v>44659</v>
+      </c>
+      <c r="F3" s="21">
+        <f t="shared" ca="1" si="1"/>
+        <v>45024</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="B4" t="s">
         <v>202</v>
@@ -2998,13 +4215,233 @@
       <c r="D4">
         <v>1000</v>
       </c>
-      <c r="E4" s="23">
-        <f ca="1">TODAY()</f>
-        <v>44657</v>
-      </c>
-      <c r="F4" s="23">
-        <f ca="1">EDATE(E4,12)</f>
-        <v>45022</v>
+      <c r="E4" s="21">
+        <f t="shared" ca="1" si="0"/>
+        <v>44659</v>
+      </c>
+      <c r="F4" s="21">
+        <f t="shared" ca="1" si="1"/>
+        <v>45024</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>346</v>
+      </c>
+      <c r="B5" t="s">
+        <v>202</v>
+      </c>
+      <c r="C5" t="s">
+        <v>204</v>
+      </c>
+      <c r="D5">
+        <v>1000</v>
+      </c>
+      <c r="E5" s="21">
+        <f t="shared" ca="1" si="0"/>
+        <v>44659</v>
+      </c>
+      <c r="F5" s="21">
+        <f t="shared" ca="1" si="1"/>
+        <v>45024</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>315</v>
+      </c>
+      <c r="B6" t="s">
+        <v>202</v>
+      </c>
+      <c r="C6" t="s">
+        <v>204</v>
+      </c>
+      <c r="D6">
+        <v>1000</v>
+      </c>
+      <c r="E6" s="21">
+        <f t="shared" ca="1" si="0"/>
+        <v>44659</v>
+      </c>
+      <c r="F6" s="21">
+        <f t="shared" ca="1" si="1"/>
+        <v>45024</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>320</v>
+      </c>
+      <c r="B7" t="s">
+        <v>202</v>
+      </c>
+      <c r="C7" t="s">
+        <v>204</v>
+      </c>
+      <c r="D7">
+        <v>1000</v>
+      </c>
+      <c r="E7" s="21">
+        <f t="shared" ca="1" si="0"/>
+        <v>44659</v>
+      </c>
+      <c r="F7" s="21">
+        <f t="shared" ca="1" si="1"/>
+        <v>45024</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>331</v>
+      </c>
+      <c r="B8" t="s">
+        <v>202</v>
+      </c>
+      <c r="C8" t="s">
+        <v>204</v>
+      </c>
+      <c r="D8">
+        <v>1000</v>
+      </c>
+      <c r="E8" s="21">
+        <f t="shared" ca="1" si="0"/>
+        <v>44659</v>
+      </c>
+      <c r="F8" s="21">
+        <f t="shared" ca="1" si="1"/>
+        <v>45024</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>314</v>
+      </c>
+      <c r="B9" t="s">
+        <v>202</v>
+      </c>
+      <c r="C9" t="s">
+        <v>204</v>
+      </c>
+      <c r="D9">
+        <v>1000</v>
+      </c>
+      <c r="E9" s="21">
+        <f t="shared" ca="1" si="0"/>
+        <v>44659</v>
+      </c>
+      <c r="F9" s="21">
+        <f t="shared" ca="1" si="1"/>
+        <v>45024</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>299</v>
+      </c>
+      <c r="B10" t="s">
+        <v>202</v>
+      </c>
+      <c r="C10" t="s">
+        <v>204</v>
+      </c>
+      <c r="D10">
+        <v>1000</v>
+      </c>
+      <c r="E10" s="21">
+        <f t="shared" ca="1" si="0"/>
+        <v>44659</v>
+      </c>
+      <c r="F10" s="21">
+        <f t="shared" ca="1" si="1"/>
+        <v>45024</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>309</v>
+      </c>
+      <c r="B11" t="s">
+        <v>202</v>
+      </c>
+      <c r="C11" t="s">
+        <v>204</v>
+      </c>
+      <c r="D11">
+        <v>1000</v>
+      </c>
+      <c r="E11" s="21">
+        <f t="shared" ca="1" si="0"/>
+        <v>44659</v>
+      </c>
+      <c r="F11" s="21">
+        <f t="shared" ca="1" si="1"/>
+        <v>45024</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>267</v>
+      </c>
+      <c r="B12" t="s">
+        <v>202</v>
+      </c>
+      <c r="C12" t="s">
+        <v>204</v>
+      </c>
+      <c r="D12">
+        <v>1000</v>
+      </c>
+      <c r="E12" s="21">
+        <f t="shared" ca="1" si="0"/>
+        <v>44659</v>
+      </c>
+      <c r="F12" s="21">
+        <f t="shared" ca="1" si="1"/>
+        <v>45024</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>275</v>
+      </c>
+      <c r="B13" t="s">
+        <v>202</v>
+      </c>
+      <c r="C13" t="s">
+        <v>204</v>
+      </c>
+      <c r="D13">
+        <v>1000</v>
+      </c>
+      <c r="E13" s="21">
+        <f t="shared" ca="1" si="0"/>
+        <v>44659</v>
+      </c>
+      <c r="F13" s="21">
+        <f t="shared" ca="1" si="1"/>
+        <v>45024</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>278</v>
+      </c>
+      <c r="B14" t="s">
+        <v>202</v>
+      </c>
+      <c r="C14" t="s">
+        <v>204</v>
+      </c>
+      <c r="D14">
+        <v>1000</v>
+      </c>
+      <c r="E14" s="21">
+        <f t="shared" ca="1" si="0"/>
+        <v>44659</v>
+      </c>
+      <c r="F14" s="21">
+        <f t="shared" ca="1" si="1"/>
+        <v>45024</v>
       </c>
     </row>
   </sheetData>
@@ -3014,24 +4451,24 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61F68CBA-0482-47BB-872C-CF08A849DFDE}">
-  <dimension ref="A1:M4"/>
+  <dimension ref="A1:M14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="55.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="64.140625" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="23.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="13.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="16" customWidth="1" collapsed="1"/>
     <col min="4" max="6" width="13.42578125" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="7" max="7" width="8.5703125" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="8" max="8" width="11.42578125" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="9" max="9" width="9.7109375" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="10" max="10" width="12.42578125" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="11" max="11" width="10.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="10.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="11" customWidth="1" collapsed="1"/>
     <col min="13" max="13" width="14" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
@@ -3080,13 +4517,13 @@
       <c r="A2" t="s">
         <v>125</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="16" t="s">
         <v>115</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="C2" s="16" t="s">
         <v>86</v>
       </c>
-      <c r="I2" s="18" t="s">
+      <c r="I2" s="16" t="s">
         <v>93</v>
       </c>
     </row>
@@ -3094,27 +4531,167 @@
       <c r="A3" t="s">
         <v>291</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="16" t="s">
         <v>115</v>
       </c>
-      <c r="C3" s="18" t="s">
+      <c r="C3" s="16" t="s">
         <v>86</v>
       </c>
-      <c r="I3" s="18" t="s">
+      <c r="I3" s="16" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>344</v>
-      </c>
-      <c r="B4" s="18" t="s">
+        <v>336</v>
+      </c>
+      <c r="B4" s="16" t="s">
         <v>115</v>
       </c>
-      <c r="C4" s="18" t="s">
+      <c r="C4" s="16" t="s">
         <v>86</v>
       </c>
-      <c r="I4" s="18" t="s">
+      <c r="I4" s="16" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>346</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>115</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="I5" s="16" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>315</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>115</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="I6" s="16" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>320</v>
+      </c>
+      <c r="B7" s="16" t="s">
+        <v>115</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="I7" s="16" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>331</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>115</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="I8" s="16" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>314</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>115</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="I9" s="16" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>299</v>
+      </c>
+      <c r="B10" s="16" t="s">
+        <v>115</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="I10" s="16" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>309</v>
+      </c>
+      <c r="B11" s="16" t="s">
+        <v>115</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="I11" s="16" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>267</v>
+      </c>
+      <c r="B12" s="16" t="s">
+        <v>115</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="I12" s="16" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>275</v>
+      </c>
+      <c r="B13" s="16" t="s">
+        <v>115</v>
+      </c>
+      <c r="C13" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="I13" s="16" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>278</v>
+      </c>
+      <c r="B14" s="16" t="s">
+        <v>115</v>
+      </c>
+      <c r="C14" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="I14" s="16" t="s">
         <v>93</v>
       </c>
     </row>
@@ -3125,15 +4702,15 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B38ACE15-3903-47FD-A871-433D6469AD12}">
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="55.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="66" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="13.85546875" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="21.7109375" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="4" max="4" width="19.7109375" bestFit="1" customWidth="1" collapsed="1"/>
@@ -3186,10 +4763,10 @@
       <c r="D2" t="s">
         <v>248</v>
       </c>
-      <c r="E2" s="24">
+      <c r="E2" s="22">
         <v>15000</v>
       </c>
-      <c r="F2" s="26" t="s">
+      <c r="F2" s="24" t="s">
         <v>249</v>
       </c>
       <c r="H2">
@@ -3212,10 +4789,10 @@
       <c r="D3" t="s">
         <v>248</v>
       </c>
-      <c r="E3" s="24">
+      <c r="E3" s="22">
         <v>15000</v>
       </c>
-      <c r="F3" s="26" t="s">
+      <c r="F3" s="24" t="s">
         <v>249</v>
       </c>
       <c r="H3">
@@ -3230,7 +4807,7 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="C4" t="s">
         <v>247</v>
@@ -3238,10 +4815,10 @@
       <c r="D4" t="s">
         <v>248</v>
       </c>
-      <c r="E4" s="24">
+      <c r="E4" s="22">
         <v>15000</v>
       </c>
-      <c r="F4" s="26" t="s">
+      <c r="F4" s="24" t="s">
         <v>249</v>
       </c>
       <c r="H4">
@@ -3251,6 +4828,266 @@
         <v>250</v>
       </c>
       <c r="J4" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>346</v>
+      </c>
+      <c r="C5" t="s">
+        <v>247</v>
+      </c>
+      <c r="D5" t="s">
+        <v>248</v>
+      </c>
+      <c r="E5" s="22">
+        <v>15000</v>
+      </c>
+      <c r="F5" s="24" t="s">
+        <v>249</v>
+      </c>
+      <c r="H5">
+        <v>2004</v>
+      </c>
+      <c r="I5" t="s">
+        <v>250</v>
+      </c>
+      <c r="J5" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>315</v>
+      </c>
+      <c r="C6" t="s">
+        <v>247</v>
+      </c>
+      <c r="D6" t="s">
+        <v>248</v>
+      </c>
+      <c r="E6" s="22">
+        <v>15000</v>
+      </c>
+      <c r="F6" s="24" t="s">
+        <v>249</v>
+      </c>
+      <c r="H6">
+        <v>2004</v>
+      </c>
+      <c r="I6" t="s">
+        <v>250</v>
+      </c>
+      <c r="J6" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>320</v>
+      </c>
+      <c r="C7" t="s">
+        <v>247</v>
+      </c>
+      <c r="D7" t="s">
+        <v>248</v>
+      </c>
+      <c r="E7" s="22">
+        <v>15000</v>
+      </c>
+      <c r="F7" s="24" t="s">
+        <v>249</v>
+      </c>
+      <c r="H7">
+        <v>2004</v>
+      </c>
+      <c r="I7" t="s">
+        <v>250</v>
+      </c>
+      <c r="J7" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>331</v>
+      </c>
+      <c r="C8" t="s">
+        <v>247</v>
+      </c>
+      <c r="D8" t="s">
+        <v>248</v>
+      </c>
+      <c r="E8" s="22">
+        <v>15000</v>
+      </c>
+      <c r="F8" s="24" t="s">
+        <v>249</v>
+      </c>
+      <c r="H8">
+        <v>2004</v>
+      </c>
+      <c r="I8" t="s">
+        <v>250</v>
+      </c>
+      <c r="J8" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>314</v>
+      </c>
+      <c r="C9" t="s">
+        <v>247</v>
+      </c>
+      <c r="D9" t="s">
+        <v>248</v>
+      </c>
+      <c r="E9" s="22">
+        <v>15000</v>
+      </c>
+      <c r="F9" s="24" t="s">
+        <v>249</v>
+      </c>
+      <c r="H9">
+        <v>2004</v>
+      </c>
+      <c r="I9" t="s">
+        <v>250</v>
+      </c>
+      <c r="J9" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>299</v>
+      </c>
+      <c r="C10" t="s">
+        <v>247</v>
+      </c>
+      <c r="D10" t="s">
+        <v>248</v>
+      </c>
+      <c r="E10" s="22">
+        <v>15000</v>
+      </c>
+      <c r="F10" s="24" t="s">
+        <v>249</v>
+      </c>
+      <c r="H10">
+        <v>2004</v>
+      </c>
+      <c r="I10" t="s">
+        <v>250</v>
+      </c>
+      <c r="J10" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>309</v>
+      </c>
+      <c r="C11" t="s">
+        <v>247</v>
+      </c>
+      <c r="D11" t="s">
+        <v>248</v>
+      </c>
+      <c r="E11" s="22">
+        <v>15000</v>
+      </c>
+      <c r="F11" s="24" t="s">
+        <v>249</v>
+      </c>
+      <c r="H11">
+        <v>2004</v>
+      </c>
+      <c r="I11" t="s">
+        <v>250</v>
+      </c>
+      <c r="J11" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>267</v>
+      </c>
+      <c r="C12" t="s">
+        <v>247</v>
+      </c>
+      <c r="D12" t="s">
+        <v>248</v>
+      </c>
+      <c r="E12" s="22">
+        <v>15000</v>
+      </c>
+      <c r="F12" s="24" t="s">
+        <v>249</v>
+      </c>
+      <c r="H12">
+        <v>2004</v>
+      </c>
+      <c r="I12" t="s">
+        <v>250</v>
+      </c>
+      <c r="J12" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>275</v>
+      </c>
+      <c r="C13" t="s">
+        <v>247</v>
+      </c>
+      <c r="D13" t="s">
+        <v>248</v>
+      </c>
+      <c r="E13" s="22">
+        <v>15000</v>
+      </c>
+      <c r="F13" s="24" t="s">
+        <v>249</v>
+      </c>
+      <c r="H13">
+        <v>2004</v>
+      </c>
+      <c r="I13" t="s">
+        <v>250</v>
+      </c>
+      <c r="J13" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>278</v>
+      </c>
+      <c r="C14" t="s">
+        <v>247</v>
+      </c>
+      <c r="D14" t="s">
+        <v>248</v>
+      </c>
+      <c r="E14" s="22">
+        <v>15000</v>
+      </c>
+      <c r="F14" s="24" t="s">
+        <v>249</v>
+      </c>
+      <c r="H14">
+        <v>2004</v>
+      </c>
+      <c r="I14" t="s">
+        <v>250</v>
+      </c>
+      <c r="J14" t="s">
         <v>251</v>
       </c>
     </row>
@@ -3261,15 +5098,15 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B574B5B2-B32E-4B4E-B177-C78C0E6DAD01}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="55.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="60.140625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -3298,9 +5135,89 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="B4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>346</v>
+      </c>
+      <c r="B5" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>315</v>
+      </c>
+      <c r="B6" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>320</v>
+      </c>
+      <c r="B7" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>331</v>
+      </c>
+      <c r="B8" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>314</v>
+      </c>
+      <c r="B9" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>299</v>
+      </c>
+      <c r="B10" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>309</v>
+      </c>
+      <c r="B11" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>267</v>
+      </c>
+      <c r="B12" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>275</v>
+      </c>
+      <c r="B13" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>278</v>
+      </c>
+      <c r="B14" t="s">
         <v>93</v>
       </c>
     </row>
@@ -3311,15 +5228,15 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A00E2BA-236D-4894-B471-B31CF1AB681B}">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="55.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="60.7109375" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="19.28515625" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="18.85546875" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="4" max="4" width="20.7109375" bestFit="1" customWidth="1" collapsed="1"/>
@@ -3357,13 +5274,13 @@
       <c r="C2" t="s">
         <v>84</v>
       </c>
-      <c r="D2" s="23">
+      <c r="D2" s="21">
         <v>33001</v>
       </c>
       <c r="E2" t="s">
         <v>235</v>
       </c>
-      <c r="F2" s="18" t="s">
+      <c r="F2" s="16" t="s">
         <v>93</v>
       </c>
     </row>
@@ -3377,19 +5294,19 @@
       <c r="C3" t="s">
         <v>84</v>
       </c>
-      <c r="D3" s="23">
+      <c r="D3" s="21">
         <v>33001</v>
       </c>
       <c r="E3" t="s">
         <v>235</v>
       </c>
-      <c r="F3" s="18" t="s">
+      <c r="F3" s="16" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="B4" t="s">
         <v>252</v>
@@ -3397,13 +5314,213 @@
       <c r="C4" t="s">
         <v>84</v>
       </c>
-      <c r="D4" s="23">
+      <c r="D4" s="21">
         <v>33001</v>
       </c>
       <c r="E4" t="s">
         <v>235</v>
       </c>
-      <c r="F4" s="18" t="s">
+      <c r="F4" s="16" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>346</v>
+      </c>
+      <c r="B5" t="s">
+        <v>252</v>
+      </c>
+      <c r="C5" t="s">
+        <v>84</v>
+      </c>
+      <c r="D5" s="21">
+        <v>33001</v>
+      </c>
+      <c r="E5" t="s">
+        <v>235</v>
+      </c>
+      <c r="F5" s="16" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>315</v>
+      </c>
+      <c r="B6" t="s">
+        <v>252</v>
+      </c>
+      <c r="C6" t="s">
+        <v>84</v>
+      </c>
+      <c r="D6" s="21">
+        <v>33001</v>
+      </c>
+      <c r="E6" t="s">
+        <v>235</v>
+      </c>
+      <c r="F6" s="16" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>320</v>
+      </c>
+      <c r="B7" t="s">
+        <v>252</v>
+      </c>
+      <c r="C7" t="s">
+        <v>84</v>
+      </c>
+      <c r="D7" s="21">
+        <v>33001</v>
+      </c>
+      <c r="E7" t="s">
+        <v>235</v>
+      </c>
+      <c r="F7" s="16" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>331</v>
+      </c>
+      <c r="B8" t="s">
+        <v>252</v>
+      </c>
+      <c r="C8" t="s">
+        <v>84</v>
+      </c>
+      <c r="D8" s="21">
+        <v>33001</v>
+      </c>
+      <c r="E8" t="s">
+        <v>235</v>
+      </c>
+      <c r="F8" s="16" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>314</v>
+      </c>
+      <c r="B9" t="s">
+        <v>252</v>
+      </c>
+      <c r="C9" t="s">
+        <v>84</v>
+      </c>
+      <c r="D9" s="21">
+        <v>33001</v>
+      </c>
+      <c r="E9" t="s">
+        <v>235</v>
+      </c>
+      <c r="F9" s="16" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>299</v>
+      </c>
+      <c r="B10" t="s">
+        <v>252</v>
+      </c>
+      <c r="C10" t="s">
+        <v>84</v>
+      </c>
+      <c r="D10" s="21">
+        <v>33001</v>
+      </c>
+      <c r="E10" t="s">
+        <v>235</v>
+      </c>
+      <c r="F10" s="16" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>309</v>
+      </c>
+      <c r="B11" t="s">
+        <v>252</v>
+      </c>
+      <c r="C11" t="s">
+        <v>84</v>
+      </c>
+      <c r="D11" s="21">
+        <v>33001</v>
+      </c>
+      <c r="E11" t="s">
+        <v>235</v>
+      </c>
+      <c r="F11" s="16" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>267</v>
+      </c>
+      <c r="B12" t="s">
+        <v>252</v>
+      </c>
+      <c r="C12" t="s">
+        <v>84</v>
+      </c>
+      <c r="D12" s="21">
+        <v>33001</v>
+      </c>
+      <c r="E12" t="s">
+        <v>235</v>
+      </c>
+      <c r="F12" s="16" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>275</v>
+      </c>
+      <c r="B13" t="s">
+        <v>252</v>
+      </c>
+      <c r="C13" t="s">
+        <v>84</v>
+      </c>
+      <c r="D13" s="21">
+        <v>33001</v>
+      </c>
+      <c r="E13" t="s">
+        <v>235</v>
+      </c>
+      <c r="F13" s="16" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>278</v>
+      </c>
+      <c r="B14" t="s">
+        <v>252</v>
+      </c>
+      <c r="C14" t="s">
+        <v>84</v>
+      </c>
+      <c r="D14" s="21">
+        <v>33001</v>
+      </c>
+      <c r="E14" t="s">
+        <v>235</v>
+      </c>
+      <c r="F14" s="16" t="s">
         <v>93</v>
       </c>
     </row>
@@ -3414,15 +5531,15 @@
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89CC1748-4521-4A05-9CD5-139E4433B998}">
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="55.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="62.42578125" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="24.85546875" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="45.140625" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="4" max="4" width="11.5703125" customWidth="1" collapsed="1"/>
@@ -3470,7 +5587,7 @@
       <c r="A2" t="s">
         <v>125</v>
       </c>
-      <c r="C2" s="27" t="s">
+      <c r="C2" s="25" t="s">
         <v>261</v>
       </c>
       <c r="D2" t="str">
@@ -3484,17 +5601,17 @@
       <c r="F2" t="s">
         <v>198</v>
       </c>
-      <c r="G2" s="23">
+      <c r="G2" s="21">
         <f ca="1">CommercialAutoLine!$E$2</f>
-        <v>44657</v>
-      </c>
-      <c r="H2" s="23">
+        <v>44659</v>
+      </c>
+      <c r="H2" s="21">
         <f ca="1">CommercialAutoLine!$F$2</f>
-        <v>45022</v>
-      </c>
-      <c r="I2" s="23">
+        <v>45024</v>
+      </c>
+      <c r="I2" s="21">
         <f ca="1">CommercialAutoLine!$E$2</f>
-        <v>44657</v>
+        <v>44659</v>
       </c>
       <c r="J2" t="s">
         <v>260</v>
@@ -3504,7 +5621,7 @@
       <c r="A3" t="s">
         <v>291</v>
       </c>
-      <c r="C3" s="27" t="s">
+      <c r="C3" s="25" t="s">
         <v>261</v>
       </c>
       <c r="D3" t="str">
@@ -3518,32 +5635,61 @@
       <c r="F3" t="s">
         <v>198</v>
       </c>
-      <c r="G3" s="23">
+      <c r="G3" s="21">
         <f ca="1">CommercialAutoLine!$E$2</f>
-        <v>44657</v>
-      </c>
-      <c r="H3" s="23">
+        <v>44659</v>
+      </c>
+      <c r="H3" s="21">
         <f ca="1">CommercialAutoLine!$F$2</f>
-        <v>45022</v>
-      </c>
-      <c r="I3" s="23">
+        <v>45024</v>
+      </c>
+      <c r="I3" s="21">
         <f ca="1">CommercialAutoLine!$E$2</f>
-        <v>44657</v>
+        <v>44659</v>
       </c>
       <c r="J3" t="s">
         <v>260</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="32" t="s">
-        <v>299</v>
+      <c r="A4" t="s">
+        <v>336</v>
+      </c>
+      <c r="C4" s="25" t="s">
+        <v>261</v>
+      </c>
+      <c r="D4" t="str">
+        <f>createAccount!$S$2</f>
+        <v>Anchorage</v>
+      </c>
+      <c r="E4" t="str">
+        <f>createAccount!$W$2</f>
+        <v>Home</v>
+      </c>
+      <c r="F4" t="s">
+        <v>198</v>
+      </c>
+      <c r="G4" s="21">
+        <f ca="1">CommercialAutoLine!$E$2</f>
+        <v>44659</v>
+      </c>
+      <c r="H4" s="21">
+        <f ca="1">CommercialAutoLine!$F$2</f>
+        <v>45024</v>
+      </c>
+      <c r="I4" s="21">
+        <f ca="1">CommercialAutoLine!$E$2</f>
+        <v>44659</v>
+      </c>
+      <c r="J4" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>344</v>
-      </c>
-      <c r="C5" s="27" t="s">
+        <v>346</v>
+      </c>
+      <c r="C5" s="25" t="s">
         <v>261</v>
       </c>
       <c r="D5" t="str">
@@ -3557,19 +5703,325 @@
       <c r="F5" t="s">
         <v>198</v>
       </c>
-      <c r="G5" s="23">
+      <c r="G5" s="21">
         <f ca="1">CommercialAutoLine!$E$2</f>
-        <v>44657</v>
-      </c>
-      <c r="H5" s="23">
+        <v>44659</v>
+      </c>
+      <c r="H5" s="21">
         <f ca="1">CommercialAutoLine!$F$2</f>
-        <v>45022</v>
-      </c>
-      <c r="I5" s="23">
+        <v>45024</v>
+      </c>
+      <c r="I5" s="21">
         <f ca="1">CommercialAutoLine!$E$2</f>
-        <v>44657</v>
+        <v>44659</v>
       </c>
       <c r="J5" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>315</v>
+      </c>
+      <c r="C6" s="25" t="s">
+        <v>261</v>
+      </c>
+      <c r="D6" t="str">
+        <f>createAccount!$S$2</f>
+        <v>Anchorage</v>
+      </c>
+      <c r="E6" t="str">
+        <f>createAccount!$W$2</f>
+        <v>Home</v>
+      </c>
+      <c r="F6" t="s">
+        <v>198</v>
+      </c>
+      <c r="G6" s="21">
+        <f ca="1">CommercialAutoLine!$E$2</f>
+        <v>44659</v>
+      </c>
+      <c r="H6" s="21">
+        <f ca="1">CommercialAutoLine!$F$2</f>
+        <v>45024</v>
+      </c>
+      <c r="I6" s="21">
+        <f ca="1">CommercialAutoLine!$E$2</f>
+        <v>44659</v>
+      </c>
+      <c r="J6" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>320</v>
+      </c>
+      <c r="C7" s="25" t="s">
+        <v>261</v>
+      </c>
+      <c r="D7" t="str">
+        <f>createAccount!$S$2</f>
+        <v>Anchorage</v>
+      </c>
+      <c r="E7" t="str">
+        <f>createAccount!$W$2</f>
+        <v>Home</v>
+      </c>
+      <c r="F7" t="s">
+        <v>198</v>
+      </c>
+      <c r="G7" s="21">
+        <f ca="1">CommercialAutoLine!$E$2</f>
+        <v>44659</v>
+      </c>
+      <c r="H7" s="21">
+        <f ca="1">CommercialAutoLine!$F$2</f>
+        <v>45024</v>
+      </c>
+      <c r="I7" s="21">
+        <f ca="1">CommercialAutoLine!$E$2</f>
+        <v>44659</v>
+      </c>
+      <c r="J7" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>331</v>
+      </c>
+      <c r="C8" s="25" t="s">
+        <v>261</v>
+      </c>
+      <c r="D8" t="str">
+        <f>createAccount!$S$2</f>
+        <v>Anchorage</v>
+      </c>
+      <c r="E8" t="str">
+        <f>createAccount!$W$2</f>
+        <v>Home</v>
+      </c>
+      <c r="F8" t="s">
+        <v>198</v>
+      </c>
+      <c r="G8" s="21">
+        <f ca="1">CommercialAutoLine!$E$2</f>
+        <v>44659</v>
+      </c>
+      <c r="H8" s="21">
+        <f ca="1">CommercialAutoLine!$F$2</f>
+        <v>45024</v>
+      </c>
+      <c r="I8" s="21">
+        <f ca="1">CommercialAutoLine!$E$2</f>
+        <v>44659</v>
+      </c>
+      <c r="J8" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>314</v>
+      </c>
+      <c r="C9" s="25" t="s">
+        <v>261</v>
+      </c>
+      <c r="D9" t="str">
+        <f>createAccount!$S$2</f>
+        <v>Anchorage</v>
+      </c>
+      <c r="E9" t="str">
+        <f>createAccount!$W$2</f>
+        <v>Home</v>
+      </c>
+      <c r="F9" t="s">
+        <v>198</v>
+      </c>
+      <c r="G9" s="21">
+        <f ca="1">CommercialAutoLine!$E$2</f>
+        <v>44659</v>
+      </c>
+      <c r="H9" s="21">
+        <f ca="1">CommercialAutoLine!$F$2</f>
+        <v>45024</v>
+      </c>
+      <c r="I9" s="21">
+        <f ca="1">CommercialAutoLine!$E$2</f>
+        <v>44659</v>
+      </c>
+      <c r="J9" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>299</v>
+      </c>
+      <c r="C10" s="25" t="s">
+        <v>261</v>
+      </c>
+      <c r="D10" t="str">
+        <f>createAccount!$S$2</f>
+        <v>Anchorage</v>
+      </c>
+      <c r="E10" t="str">
+        <f>createAccount!$W$2</f>
+        <v>Home</v>
+      </c>
+      <c r="F10" t="s">
+        <v>198</v>
+      </c>
+      <c r="G10" s="21">
+        <f ca="1">CommercialAutoLine!$E$2</f>
+        <v>44659</v>
+      </c>
+      <c r="H10" s="21">
+        <f ca="1">CommercialAutoLine!$F$2</f>
+        <v>45024</v>
+      </c>
+      <c r="I10" s="21">
+        <f ca="1">CommercialAutoLine!$E$2</f>
+        <v>44659</v>
+      </c>
+      <c r="J10" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>309</v>
+      </c>
+      <c r="C11" s="25" t="s">
+        <v>261</v>
+      </c>
+      <c r="D11" t="str">
+        <f>createAccount!$S$2</f>
+        <v>Anchorage</v>
+      </c>
+      <c r="E11" t="str">
+        <f>createAccount!$W$2</f>
+        <v>Home</v>
+      </c>
+      <c r="F11" t="s">
+        <v>198</v>
+      </c>
+      <c r="G11" s="21">
+        <f ca="1">CommercialAutoLine!$E$2</f>
+        <v>44659</v>
+      </c>
+      <c r="H11" s="21">
+        <f ca="1">CommercialAutoLine!$F$2</f>
+        <v>45024</v>
+      </c>
+      <c r="I11" s="21">
+        <f ca="1">CommercialAutoLine!$E$2</f>
+        <v>44659</v>
+      </c>
+      <c r="J11" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>267</v>
+      </c>
+      <c r="C12" s="25" t="s">
+        <v>261</v>
+      </c>
+      <c r="D12" t="str">
+        <f>createAccount!$S$2</f>
+        <v>Anchorage</v>
+      </c>
+      <c r="E12" t="str">
+        <f>createAccount!$W$2</f>
+        <v>Home</v>
+      </c>
+      <c r="F12" t="s">
+        <v>198</v>
+      </c>
+      <c r="G12" s="21">
+        <f ca="1">CommercialAutoLine!$E$2</f>
+        <v>44659</v>
+      </c>
+      <c r="H12" s="21">
+        <f ca="1">CommercialAutoLine!$F$2</f>
+        <v>45024</v>
+      </c>
+      <c r="I12" s="21">
+        <f ca="1">CommercialAutoLine!$E$2</f>
+        <v>44659</v>
+      </c>
+      <c r="J12" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>275</v>
+      </c>
+      <c r="C13" s="25" t="s">
+        <v>261</v>
+      </c>
+      <c r="D13" t="str">
+        <f>createAccount!$S$2</f>
+        <v>Anchorage</v>
+      </c>
+      <c r="E13" t="str">
+        <f>createAccount!$W$2</f>
+        <v>Home</v>
+      </c>
+      <c r="F13" t="s">
+        <v>198</v>
+      </c>
+      <c r="G13" s="21">
+        <f ca="1">CommercialAutoLine!$E$2</f>
+        <v>44659</v>
+      </c>
+      <c r="H13" s="21">
+        <f ca="1">CommercialAutoLine!$F$2</f>
+        <v>45024</v>
+      </c>
+      <c r="I13" s="21">
+        <f ca="1">CommercialAutoLine!$E$2</f>
+        <v>44659</v>
+      </c>
+      <c r="J13" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>278</v>
+      </c>
+      <c r="C14" s="25" t="s">
+        <v>261</v>
+      </c>
+      <c r="D14" t="str">
+        <f>createAccount!$S$2</f>
+        <v>Anchorage</v>
+      </c>
+      <c r="E14" t="str">
+        <f>createAccount!$W$2</f>
+        <v>Home</v>
+      </c>
+      <c r="F14" t="s">
+        <v>198</v>
+      </c>
+      <c r="G14" s="21">
+        <f ca="1">CommercialAutoLine!$E$2</f>
+        <v>44659</v>
+      </c>
+      <c r="H14" s="21">
+        <f ca="1">CommercialAutoLine!$F$2</f>
+        <v>45024</v>
+      </c>
+      <c r="I14" s="21">
+        <f ca="1">CommercialAutoLine!$E$2</f>
+        <v>44659</v>
+      </c>
+      <c r="J14" t="s">
         <v>260</v>
       </c>
     </row>
@@ -4602,15 +7054,15 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FF1A5D0-5ECC-4081-B88A-7E558A8CF5D0}">
-  <dimension ref="A1:Z6"/>
+  <dimension ref="A1:Z14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="55.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="59.85546875" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="45.140625" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="11" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="4" max="4" width="16.28515625" bestFit="1" customWidth="1" collapsed="1"/>
@@ -4639,16 +7091,16 @@
         <v>258</v>
       </c>
       <c r="F1" s="9" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="G1" s="9" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="H1" s="9" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="I1" s="9" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="J1" s="9"/>
       <c r="K1" s="9"/>
@@ -4672,7 +7124,7 @@
       <c r="A2" t="s">
         <v>125</v>
       </c>
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="25" t="s">
         <v>261</v>
       </c>
       <c r="C2" t="str">
@@ -4691,7 +7143,7 @@
       <c r="A3" t="s">
         <v>291</v>
       </c>
-      <c r="B3" s="27" t="s">
+      <c r="B3" s="25" t="s">
         <v>261</v>
       </c>
       <c r="C3" t="str">
@@ -4708,10 +7160,10 @@
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>299</v>
-      </c>
-      <c r="B4" s="27" t="s">
-        <v>309</v>
+        <v>331</v>
+      </c>
+      <c r="B4" s="25" t="s">
+        <v>261</v>
       </c>
       <c r="C4" t="str">
         <f>createAccount!$S$2</f>
@@ -4721,29 +7173,46 @@
         <f>createAccount!$W$2</f>
         <v>Home</v>
       </c>
+      <c r="E4" t="s">
+        <v>260</v>
+      </c>
+      <c r="F4" t="s">
+        <v>343</v>
+      </c>
+      <c r="G4" t="s">
+        <v>344</v>
+      </c>
+      <c r="H4" t="s">
+        <v>342</v>
+      </c>
+      <c r="I4" s="16" t="s">
+        <v>345</v>
+      </c>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>335</v>
-      </c>
-      <c r="F5" t="s">
-        <v>339</v>
-      </c>
-      <c r="G5" t="s">
-        <v>340</v>
-      </c>
-      <c r="H5" t="s">
-        <v>341</v>
-      </c>
-      <c r="I5" s="18" t="s">
-        <v>343</v>
+        <v>336</v>
+      </c>
+      <c r="B5" s="25" t="s">
+        <v>261</v>
+      </c>
+      <c r="C5" t="str">
+        <f>createAccount!$S$2</f>
+        <v>Anchorage</v>
+      </c>
+      <c r="D5" t="str">
+        <f>createAccount!$W$2</f>
+        <v>Home</v>
+      </c>
+      <c r="E5" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>344</v>
-      </c>
-      <c r="B6" s="27" t="s">
+        <v>346</v>
+      </c>
+      <c r="B6" s="25" t="s">
         <v>261</v>
       </c>
       <c r="C6" t="str">
@@ -4755,6 +7224,158 @@
         <v>Home</v>
       </c>
       <c r="E6" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>315</v>
+      </c>
+      <c r="B7" s="25" t="s">
+        <v>261</v>
+      </c>
+      <c r="C7" t="str">
+        <f>createAccount!$S$2</f>
+        <v>Anchorage</v>
+      </c>
+      <c r="D7" t="str">
+        <f>createAccount!$W$2</f>
+        <v>Home</v>
+      </c>
+      <c r="E7" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>320</v>
+      </c>
+      <c r="B8" s="25" t="s">
+        <v>261</v>
+      </c>
+      <c r="C8" t="str">
+        <f>createAccount!$S$2</f>
+        <v>Anchorage</v>
+      </c>
+      <c r="D8" t="str">
+        <f>createAccount!$W$2</f>
+        <v>Home</v>
+      </c>
+      <c r="E8" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>314</v>
+      </c>
+      <c r="B9" s="25" t="s">
+        <v>261</v>
+      </c>
+      <c r="C9" t="str">
+        <f>createAccount!$S$2</f>
+        <v>Anchorage</v>
+      </c>
+      <c r="D9" t="str">
+        <f>createAccount!$W$2</f>
+        <v>Home</v>
+      </c>
+      <c r="E9" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>299</v>
+      </c>
+      <c r="B10" s="25" t="s">
+        <v>261</v>
+      </c>
+      <c r="C10" t="str">
+        <f>createAccount!$S$2</f>
+        <v>Anchorage</v>
+      </c>
+      <c r="D10" t="str">
+        <f>createAccount!$W$2</f>
+        <v>Home</v>
+      </c>
+      <c r="E10" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>309</v>
+      </c>
+      <c r="B11" s="25" t="s">
+        <v>261</v>
+      </c>
+      <c r="C11" t="str">
+        <f>createAccount!$S$2</f>
+        <v>Anchorage</v>
+      </c>
+      <c r="D11" t="str">
+        <f>createAccount!$W$2</f>
+        <v>Home</v>
+      </c>
+      <c r="E11" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>267</v>
+      </c>
+      <c r="B12" s="25" t="s">
+        <v>261</v>
+      </c>
+      <c r="C12" t="str">
+        <f>createAccount!$S$2</f>
+        <v>Anchorage</v>
+      </c>
+      <c r="D12" t="str">
+        <f>createAccount!$W$2</f>
+        <v>Home</v>
+      </c>
+      <c r="E12" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>275</v>
+      </c>
+      <c r="B13" s="25" t="s">
+        <v>261</v>
+      </c>
+      <c r="C13" t="str">
+        <f>createAccount!$S$2</f>
+        <v>Anchorage</v>
+      </c>
+      <c r="D13" t="str">
+        <f>createAccount!$W$2</f>
+        <v>Home</v>
+      </c>
+      <c r="E13" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>278</v>
+      </c>
+      <c r="B14" s="25" t="s">
+        <v>261</v>
+      </c>
+      <c r="C14" t="str">
+        <f>createAccount!$S$2</f>
+        <v>Anchorage</v>
+      </c>
+      <c r="D14" t="str">
+        <f>createAccount!$W$2</f>
+        <v>Home</v>
+      </c>
+      <c r="E14" t="s">
         <v>260</v>
       </c>
     </row>
@@ -4769,7 +7390,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4783,10 +7404,10 @@
       <c r="A1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="39" t="s">
+      <c r="B1" s="35" t="s">
         <v>292</v>
       </c>
-      <c r="C1" s="30" t="s">
+      <c r="C1" s="28" t="s">
         <v>293</v>
       </c>
     </row>
@@ -4794,7 +7415,7 @@
       <c r="A2" t="s">
         <v>291</v>
       </c>
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="29" t="s">
         <v>294</v>
       </c>
       <c r="C2" t="s">
@@ -4866,7 +7487,7 @@
       <c r="D2" t="s">
         <v>274</v>
       </c>
-      <c r="F2" s="28"/>
+      <c r="F2" s="26"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -4881,8 +7502,8 @@
       <c r="D3" t="s">
         <v>274</v>
       </c>
-      <c r="F3" s="28" t="s">
-        <v>330</v>
+      <c r="F3" s="26" t="s">
+        <v>328</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -4898,11 +7519,11 @@
       <c r="D4" t="s">
         <v>274</v>
       </c>
-      <c r="F4" s="28"/>
+      <c r="F4" s="26"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="B5" t="s">
         <v>279</v>
@@ -4913,7 +7534,7 @@
       <c r="D5" t="s">
         <v>274</v>
       </c>
-      <c r="F5" s="28"/>
+      <c r="F5" s="26"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4924,8 +7545,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D17E820-FB58-4872-8A91-12947C87C96F}">
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4934,7 +7555,7 @@
     <col min="2" max="2" width="26.7109375" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="25" customWidth="1" collapsed="1"/>
     <col min="4" max="4" width="18.140625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="18.28515625" customWidth="1"/>
+    <col min="5" max="5" width="18.28515625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -4942,13 +7563,13 @@
         <v>2</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>345</v>
+        <v>337</v>
       </c>
       <c r="E1" s="10" t="s">
         <v>12</v>
@@ -4956,24 +7577,24 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="B2" t="s">
-        <v>333</v>
+        <v>341</v>
       </c>
       <c r="C2" t="s">
-        <v>334</v>
+        <v>342</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="D3" t="s">
-        <v>346</v>
+        <v>338</v>
       </c>
       <c r="E3" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
     </row>
   </sheetData>
@@ -4986,7 +7607,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5054,10 +7675,10 @@
         <v>2</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="D1" s="10"/>
       <c r="E1" s="10"/>
@@ -5069,29 +7690,29 @@
       <c r="B2" t="s">
         <v>298</v>
       </c>
-      <c r="C2" s="28">
+      <c r="C2" s="26">
         <v>44693</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B3" t="s">
         <v>298</v>
       </c>
-      <c r="C3" s="28">
+      <c r="C3" s="26">
         <v>44693</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="B4" t="s">
         <v>298</v>
       </c>
-      <c r="C4" s="28">
+      <c r="C4" s="26">
         <v>44693</v>
       </c>
     </row>
@@ -5105,7 +7726,7 @@
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5136,13 +7757,13 @@
       <c r="E1" s="9" t="s">
         <v>285</v>
       </c>
-      <c r="F1" s="29" t="s">
+      <c r="F1" s="27" t="s">
         <v>286</v>
       </c>
-      <c r="G1" s="29" t="s">
+      <c r="G1" s="27" t="s">
         <v>287</v>
       </c>
-      <c r="H1" s="29" t="s">
+      <c r="H1" s="27" t="s">
         <v>288</v>
       </c>
     </row>
@@ -5181,7 +7802,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="G5" t="s">
         <v>290</v>
@@ -5197,10 +7818,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5415,7 +8036,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>0</v>
@@ -5435,7 +8056,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>0</v>
@@ -5455,7 +8076,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>0</v>
@@ -5475,7 +8096,7 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>0</v>
@@ -5495,7 +8116,7 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>0</v>
@@ -5515,7 +8136,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>0</v>
@@ -5532,6 +8153,34 @@
       <c r="F16" s="4" t="s">
         <v>92</v>
       </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="1"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -5541,16 +8190,16 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB3520C8-D792-4977-99E0-C45876A8E20A}">
-  <dimension ref="A1:AF4"/>
+  <dimension ref="A1:AF14"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="N1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomLeft" activeCell="X5" sqref="X5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="55.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="61.140625" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="13.5703125" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="4" max="4" width="13.140625" bestFit="1" customWidth="1" collapsed="1"/>
@@ -5564,9 +8213,10 @@
     <col min="12" max="12" width="17.28515625" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="13" max="13" width="16.28515625" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="14" max="14" width="18.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="12.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="18.140625" customWidth="1" collapsed="1"/>
     <col min="16" max="16" width="13.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="18" width="12.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="25" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="12.5703125" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="19" max="19" width="11.42578125" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="20" max="20" width="10.42578125" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="21" max="21" width="12.42578125" bestFit="1" customWidth="1" collapsed="1"/>
@@ -5582,7 +8232,7 @@
     <col min="31" max="31" width="24.5703125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32" s="13" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
         <v>2</v>
       </c>
@@ -5677,7 +8327,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="2" spans="1:32" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:32" s="4" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>125</v>
       </c>
@@ -5753,14 +8403,24 @@
       <c r="Z2" s="6" t="s">
         <v>244</v>
       </c>
-      <c r="AA2" s="15"/>
-      <c r="AB2" s="15"/>
-      <c r="AC2" s="16"/>
-      <c r="AD2" s="16"/>
-      <c r="AE2" s="16"/>
+      <c r="AA2" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="AB2" s="15">
+        <v>2015551002</v>
+      </c>
+      <c r="AC2" s="38" t="s">
+        <v>200</v>
+      </c>
+      <c r="AD2" s="38" t="s">
+        <v>349</v>
+      </c>
+      <c r="AE2" s="38" t="s">
+        <v>350</v>
+      </c>
       <c r="AF2"/>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>291</v>
       </c>
@@ -5836,15 +8496,25 @@
       <c r="Z3" s="6" t="s">
         <v>244</v>
       </c>
-      <c r="AA3" s="15"/>
-      <c r="AB3" s="15"/>
-      <c r="AC3" s="16"/>
-      <c r="AD3" s="16"/>
-      <c r="AE3" s="16"/>
-    </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AA3" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="AB3" s="15">
+        <v>2015551002</v>
+      </c>
+      <c r="AC3" s="38" t="s">
+        <v>200</v>
+      </c>
+      <c r="AD3" s="38" t="s">
+        <v>349</v>
+      </c>
+      <c r="AE3" s="38" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="4" spans="1:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>156</v>
@@ -5918,11 +8588,941 @@
       <c r="Z4" s="6" t="s">
         <v>244</v>
       </c>
-      <c r="AA4" s="15"/>
-      <c r="AB4" s="15"/>
-      <c r="AC4" s="16"/>
-      <c r="AD4" s="16"/>
-      <c r="AE4" s="16"/>
+      <c r="AA4" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="AB4" s="15">
+        <v>2015551002</v>
+      </c>
+      <c r="AC4" s="38" t="s">
+        <v>200</v>
+      </c>
+      <c r="AD4" s="38" t="s">
+        <v>349</v>
+      </c>
+      <c r="AE4" s="38" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="5" spans="1:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>165</v>
+      </c>
+      <c r="F5" s="14" t="s">
+        <v>165</v>
+      </c>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14">
+        <v>2015551002</v>
+      </c>
+      <c r="I5" s="14">
+        <v>2015551003</v>
+      </c>
+      <c r="J5" s="14">
+        <v>2015551004</v>
+      </c>
+      <c r="K5" s="14">
+        <v>2015551005</v>
+      </c>
+      <c r="L5" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="M5" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="N5" s="6"/>
+      <c r="O5" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="P5" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q5" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="R5" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="S5" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="T5" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="U5" s="6">
+        <v>99501</v>
+      </c>
+      <c r="V5" s="6" t="str">
+        <f>searchValues!$L$2</f>
+        <v>Alaska</v>
+      </c>
+      <c r="W5" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="X5" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="Y5" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="Z5" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="AA5" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="AB5" s="15">
+        <v>2015551002</v>
+      </c>
+      <c r="AC5" s="38" t="s">
+        <v>200</v>
+      </c>
+      <c r="AD5" s="38" t="s">
+        <v>349</v>
+      </c>
+      <c r="AE5" s="38" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="6" spans="1:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
+        <v>315</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>165</v>
+      </c>
+      <c r="F6" s="14" t="s">
+        <v>165</v>
+      </c>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14">
+        <v>2015551002</v>
+      </c>
+      <c r="I6" s="14">
+        <v>2015551003</v>
+      </c>
+      <c r="J6" s="14">
+        <v>2015551004</v>
+      </c>
+      <c r="K6" s="14">
+        <v>2015551005</v>
+      </c>
+      <c r="L6" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="M6" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="N6" s="6"/>
+      <c r="O6" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="P6" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q6" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="R6" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="S6" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="T6" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="U6" s="6">
+        <v>99501</v>
+      </c>
+      <c r="V6" s="6" t="str">
+        <f>searchValues!$L$2</f>
+        <v>Alaska</v>
+      </c>
+      <c r="W6" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="X6" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="Y6" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="Z6" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="AA6" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="AB6" s="15">
+        <v>2015551002</v>
+      </c>
+      <c r="AC6" s="38" t="s">
+        <v>200</v>
+      </c>
+      <c r="AD6" s="38" t="s">
+        <v>349</v>
+      </c>
+      <c r="AE6" s="38" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="7" spans="1:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
+        <v>320</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>165</v>
+      </c>
+      <c r="F7" s="14" t="s">
+        <v>165</v>
+      </c>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14">
+        <v>2015551002</v>
+      </c>
+      <c r="I7" s="14">
+        <v>2015551003</v>
+      </c>
+      <c r="J7" s="14">
+        <v>2015551004</v>
+      </c>
+      <c r="K7" s="14">
+        <v>2015551005</v>
+      </c>
+      <c r="L7" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="M7" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="N7" s="6"/>
+      <c r="O7" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="P7" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q7" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="R7" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="S7" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="T7" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="U7" s="6">
+        <v>99501</v>
+      </c>
+      <c r="V7" s="6" t="str">
+        <f>searchValues!$L$2</f>
+        <v>Alaska</v>
+      </c>
+      <c r="W7" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="X7" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="Y7" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="Z7" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="AA7" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="AB7" s="15">
+        <v>2015551002</v>
+      </c>
+      <c r="AC7" s="38" t="s">
+        <v>200</v>
+      </c>
+      <c r="AD7" s="38" t="s">
+        <v>349</v>
+      </c>
+      <c r="AE7" s="38" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="8" spans="1:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
+        <v>331</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>165</v>
+      </c>
+      <c r="F8" s="14" t="s">
+        <v>165</v>
+      </c>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14">
+        <v>2015551002</v>
+      </c>
+      <c r="I8" s="14">
+        <v>2015551003</v>
+      </c>
+      <c r="J8" s="14">
+        <v>2015551004</v>
+      </c>
+      <c r="K8" s="14">
+        <v>2015551005</v>
+      </c>
+      <c r="L8" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="M8" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="N8" s="6"/>
+      <c r="O8" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="P8" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q8" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="R8" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="S8" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="T8" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="U8" s="6">
+        <v>99501</v>
+      </c>
+      <c r="V8" s="6" t="str">
+        <f>searchValues!$L$2</f>
+        <v>Alaska</v>
+      </c>
+      <c r="W8" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="X8" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="Y8" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="Z8" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="AA8" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="AB8" s="15">
+        <v>2015551002</v>
+      </c>
+      <c r="AC8" s="38" t="s">
+        <v>200</v>
+      </c>
+      <c r="AD8" s="38" t="s">
+        <v>349</v>
+      </c>
+      <c r="AE8" s="38" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="9" spans="1:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>165</v>
+      </c>
+      <c r="F9" s="14" t="s">
+        <v>165</v>
+      </c>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14">
+        <v>2015551002</v>
+      </c>
+      <c r="I9" s="14">
+        <v>2015551003</v>
+      </c>
+      <c r="J9" s="14">
+        <v>2015551004</v>
+      </c>
+      <c r="K9" s="14">
+        <v>2015551005</v>
+      </c>
+      <c r="L9" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="M9" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="N9" s="6"/>
+      <c r="O9" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="P9" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q9" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="R9" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="S9" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="T9" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="U9" s="6">
+        <v>99501</v>
+      </c>
+      <c r="V9" s="6" t="str">
+        <f>searchValues!$L$2</f>
+        <v>Alaska</v>
+      </c>
+      <c r="W9" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="X9" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="Y9" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="Z9" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="AA9" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="AB9" s="15">
+        <v>2015551002</v>
+      </c>
+      <c r="AC9" s="38" t="s">
+        <v>200</v>
+      </c>
+      <c r="AD9" s="38" t="s">
+        <v>349</v>
+      </c>
+      <c r="AE9" s="38" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="10" spans="1:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="4" t="s">
+        <v>299</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>165</v>
+      </c>
+      <c r="F10" s="14" t="s">
+        <v>165</v>
+      </c>
+      <c r="G10" s="14"/>
+      <c r="H10" s="14">
+        <v>2015551002</v>
+      </c>
+      <c r="I10" s="14">
+        <v>2015551003</v>
+      </c>
+      <c r="J10" s="14">
+        <v>2015551004</v>
+      </c>
+      <c r="K10" s="14">
+        <v>2015551005</v>
+      </c>
+      <c r="L10" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="M10" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="N10" s="6"/>
+      <c r="O10" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="P10" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q10" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="R10" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="S10" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="T10" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="U10" s="6">
+        <v>99501</v>
+      </c>
+      <c r="V10" s="6" t="str">
+        <f>searchValues!$L$2</f>
+        <v>Alaska</v>
+      </c>
+      <c r="W10" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="X10" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="Y10" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="Z10" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="AA10" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="AB10" s="15">
+        <v>2015551002</v>
+      </c>
+      <c r="AC10" s="38" t="s">
+        <v>200</v>
+      </c>
+      <c r="AD10" s="38" t="s">
+        <v>349</v>
+      </c>
+      <c r="AE10" s="38" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="11" spans="1:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="4" t="s">
+        <v>309</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="E11" s="14" t="s">
+        <v>165</v>
+      </c>
+      <c r="F11" s="14" t="s">
+        <v>165</v>
+      </c>
+      <c r="G11" s="14"/>
+      <c r="H11" s="14">
+        <v>2015551002</v>
+      </c>
+      <c r="I11" s="14">
+        <v>2015551003</v>
+      </c>
+      <c r="J11" s="14">
+        <v>2015551004</v>
+      </c>
+      <c r="K11" s="14">
+        <v>2015551005</v>
+      </c>
+      <c r="L11" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="M11" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="N11" s="6"/>
+      <c r="O11" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="P11" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q11" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="R11" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="S11" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="T11" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="U11" s="6">
+        <v>99501</v>
+      </c>
+      <c r="V11" s="6" t="str">
+        <f>searchValues!$L$2</f>
+        <v>Alaska</v>
+      </c>
+      <c r="W11" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="X11" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="Y11" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="Z11" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="AA11" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="AB11" s="15">
+        <v>2015551002</v>
+      </c>
+      <c r="AC11" s="38" t="s">
+        <v>200</v>
+      </c>
+      <c r="AD11" s="38" t="s">
+        <v>349</v>
+      </c>
+      <c r="AE11" s="38" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="12" spans="1:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="E12" s="14" t="s">
+        <v>165</v>
+      </c>
+      <c r="F12" s="14" t="s">
+        <v>165</v>
+      </c>
+      <c r="G12" s="14"/>
+      <c r="H12" s="14">
+        <v>2015551002</v>
+      </c>
+      <c r="I12" s="14">
+        <v>2015551003</v>
+      </c>
+      <c r="J12" s="14">
+        <v>2015551004</v>
+      </c>
+      <c r="K12" s="14">
+        <v>2015551005</v>
+      </c>
+      <c r="L12" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="M12" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="N12" s="6"/>
+      <c r="O12" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="P12" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q12" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="R12" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="S12" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="T12" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="U12" s="6">
+        <v>99501</v>
+      </c>
+      <c r="V12" s="6" t="str">
+        <f>searchValues!$L$2</f>
+        <v>Alaska</v>
+      </c>
+      <c r="W12" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="X12" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="Y12" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="Z12" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="AA12" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="AB12" s="15">
+        <v>2015551002</v>
+      </c>
+      <c r="AC12" s="38" t="s">
+        <v>200</v>
+      </c>
+      <c r="AD12" s="38" t="s">
+        <v>349</v>
+      </c>
+      <c r="AE12" s="38" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="13" spans="1:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="E13" s="14" t="s">
+        <v>165</v>
+      </c>
+      <c r="F13" s="14" t="s">
+        <v>165</v>
+      </c>
+      <c r="G13" s="14"/>
+      <c r="H13" s="14">
+        <v>2015551002</v>
+      </c>
+      <c r="I13" s="14">
+        <v>2015551003</v>
+      </c>
+      <c r="J13" s="14">
+        <v>2015551004</v>
+      </c>
+      <c r="K13" s="14">
+        <v>2015551005</v>
+      </c>
+      <c r="L13" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="M13" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="N13" s="6"/>
+      <c r="O13" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="P13" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q13" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="R13" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="S13" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="T13" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="U13" s="6">
+        <v>99501</v>
+      </c>
+      <c r="V13" s="6" t="str">
+        <f>searchValues!$L$2</f>
+        <v>Alaska</v>
+      </c>
+      <c r="W13" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="X13" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="Y13" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="Z13" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="AA13" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="AB13" s="15">
+        <v>2015551002</v>
+      </c>
+      <c r="AC13" s="38" t="s">
+        <v>200</v>
+      </c>
+      <c r="AD13" s="38" t="s">
+        <v>349</v>
+      </c>
+      <c r="AE13" s="38" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="E14" s="14" t="s">
+        <v>165</v>
+      </c>
+      <c r="F14" s="14" t="s">
+        <v>165</v>
+      </c>
+      <c r="G14" s="14"/>
+      <c r="H14" s="14">
+        <v>2015551002</v>
+      </c>
+      <c r="I14" s="14">
+        <v>2015551003</v>
+      </c>
+      <c r="J14" s="14">
+        <v>2015551004</v>
+      </c>
+      <c r="K14" s="14">
+        <v>2015551005</v>
+      </c>
+      <c r="L14" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="M14" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="N14" s="6"/>
+      <c r="O14" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="P14" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q14" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="R14" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="S14" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="T14" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="U14" s="6">
+        <v>99501</v>
+      </c>
+      <c r="V14" s="6" t="str">
+        <f>searchValues!$L$2</f>
+        <v>Alaska</v>
+      </c>
+      <c r="W14" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="X14" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="Y14" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="Z14" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="AA14" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="AB14" s="15">
+        <v>2015551002</v>
+      </c>
+      <c r="AC14" s="38" t="s">
+        <v>200</v>
+      </c>
+      <c r="AD14" s="38" t="s">
+        <v>349</v>
+      </c>
+      <c r="AE14" s="38" t="s">
+        <v>350</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -5954,10 +9554,10 @@
         <v>2</v>
       </c>
       <c r="B1" s="9" t="s">
+        <v>310</v>
+      </c>
+      <c r="C1" s="10" t="s">
         <v>311</v>
-      </c>
-      <c r="C1" s="10" t="s">
-        <v>312</v>
       </c>
       <c r="D1" s="10"/>
       <c r="E1" s="10"/>
@@ -5965,24 +9565,24 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B2" t="s">
+        <v>312</v>
+      </c>
+      <c r="C2" t="s">
         <v>313</v>
-      </c>
-      <c r="C2" t="s">
-        <v>314</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B3" t="s">
+        <v>312</v>
+      </c>
+      <c r="C3" t="s">
         <v>313</v>
-      </c>
-      <c r="C3" t="s">
-        <v>314</v>
       </c>
     </row>
   </sheetData>
@@ -5992,31 +9592,32 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9CB62B0-3E14-40DE-9CB1-C3C158CCA48E}">
-  <dimension ref="A1:V4"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="55.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="22.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="20.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="12.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="8.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="9.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="8.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="16" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="29.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="6.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="8.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="14" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="13.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="13.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="60.7109375" style="4" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="22.28515625" style="4" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="20.28515625" style="4" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="12.85546875" style="4" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="8.5703125" style="4" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="9.7109375" style="4" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="17.42578125" style="4" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="21.28515625" style="4" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="29.85546875" style="4" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="22.140625" style="4" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="19.5703125" style="4" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="20.28515625" style="4" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="21.5703125" style="4" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="13.5703125" style="4" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>2</v>
       </c>
@@ -6059,26 +9660,18 @@
       <c r="N1" s="10" t="s">
         <v>164</v>
       </c>
-      <c r="O1" s="10"/>
-      <c r="P1" s="10"/>
-      <c r="Q1" s="10"/>
-      <c r="R1" s="10"/>
-      <c r="S1" s="10"/>
-      <c r="T1" s="10"/>
-      <c r="U1" s="10"/>
-      <c r="V1" s="10"/>
-    </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="4" t="s">
         <v>242</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="4" t="s">
         <v>86</v>
       </c>
       <c r="F2" s="15" t="s">
@@ -6087,24 +9680,24 @@
       <c r="I2" s="6" t="s">
         <v>241</v>
       </c>
-      <c r="L2" t="s">
+      <c r="L2" s="4" t="s">
         <v>92</v>
       </c>
       <c r="N2" s="4" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>291</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="4" t="s">
         <v>242</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="4" t="s">
         <v>86</v>
       </c>
       <c r="F3" s="15" t="s">
@@ -6113,24 +9706,24 @@
       <c r="I3" s="6" t="s">
         <v>241</v>
       </c>
-      <c r="L3" t="s">
+      <c r="L3" s="4" t="s">
         <v>92</v>
       </c>
       <c r="N3" s="4" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>344</v>
-      </c>
-      <c r="B4" t="s">
+        <v>336</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="4" t="s">
         <v>242</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="4" t="s">
         <v>86</v>
       </c>
       <c r="F4" s="15" t="s">
@@ -6139,10 +9732,270 @@
       <c r="I4" s="6" t="s">
         <v>241</v>
       </c>
-      <c r="L4" t="s">
+      <c r="L4" s="4" t="s">
         <v>92</v>
       </c>
       <c r="N4" s="4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="F5" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="N5" s="4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>315</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="F6" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="L6" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="N6" s="4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>320</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="F7" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="L7" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="N7" s="4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>331</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="F8" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="L8" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="N8" s="4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="F9" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="I9" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="L9" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="N9" s="4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>299</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="F10" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="I10" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="L10" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="N10" s="4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>309</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="F11" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="I11" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="L11" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="N11" s="4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="F12" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="I12" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="L12" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="N12" s="4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="F13" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="I13" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="L13" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="N13" s="4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="F14" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="I14" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="L14" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="N14" s="4" t="s">
         <v>92</v>
       </c>
     </row>
@@ -6167,34 +10020,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="38" t="s">
-        <v>318</v>
-      </c>
-      <c r="C1" s="38" t="s">
-        <v>319</v>
-      </c>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
-      <c r="H1" s="37"/>
-      <c r="I1" s="37"/>
-      <c r="J1" s="37"/>
-      <c r="K1" s="37"/>
-      <c r="L1" s="37"/>
+      <c r="B1" s="34" t="s">
+        <v>316</v>
+      </c>
+      <c r="C1" s="34" t="s">
+        <v>317</v>
+      </c>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
+      <c r="J1" s="33"/>
+      <c r="K1" s="33"/>
+      <c r="L1" s="33"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B2" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="C2" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
   </sheetData>
@@ -6220,36 +10073,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="38" t="s">
+      <c r="B1" s="34" t="s">
+        <v>321</v>
+      </c>
+      <c r="C1" s="34" t="s">
+        <v>322</v>
+      </c>
+      <c r="D1" s="34" t="s">
         <v>323</v>
       </c>
-      <c r="C1" s="38" t="s">
-        <v>324</v>
-      </c>
-      <c r="D1" s="38" t="s">
-        <v>325</v>
-      </c>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
-      <c r="H1" s="37"/>
-      <c r="I1" s="37"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B2" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D2" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
   </sheetData>
@@ -6260,24 +10113,25 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{663DF9C3-5C9B-4F94-B024-5FECECDF92BA}">
-  <dimension ref="A1:V4"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="55.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="16.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="17.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="17" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="14" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="19.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="12" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="63" style="4" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="16.85546875" style="4" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="17.42578125" style="4" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="17" style="4" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="14" style="4" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="19.28515625" style="4" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="12" style="4" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>2</v>
       </c>
@@ -6299,43 +10153,108 @@
       <c r="G1" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="H1" s="17"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
-      <c r="L1" s="10"/>
-      <c r="M1" s="10"/>
-      <c r="N1" s="10"/>
-      <c r="O1" s="10"/>
-      <c r="P1" s="10"/>
-      <c r="Q1" s="10"/>
-      <c r="R1" s="10"/>
-      <c r="S1" s="10"/>
-      <c r="T1" s="10"/>
-      <c r="U1" s="10"/>
-      <c r="V1" s="10"/>
-    </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="4" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
         <v>291</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="4" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>344</v>
-      </c>
-      <c r="G4" t="s">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>336</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>315</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>320</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>331</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>299</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>309</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="G14" s="4" t="s">
         <v>106</v>
       </c>
     </row>

--- a/testdata/CommercialAuto.xlsx
+++ b/testdata/CommercialAuto.xlsx
@@ -3,14 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CIG\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FEFDC00-B01A-4C28-B84D-282FF447528A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E720DD5-1F51-4CD3-972E-1FC83852966B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19800" windowHeight="11760" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19800" windowHeight="11760" firstSheet="18" activeTab="22" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="searchValues" sheetId="18" r:id="rId1"/>
@@ -39,10 +39,11 @@
     <sheet name="AccountFileContacts" sheetId="29" r:id="rId24"/>
     <sheet name="ChangePolicy" sheetId="30" r:id="rId25"/>
     <sheet name="StartReinstatement" sheetId="27" r:id="rId26"/>
+    <sheet name="RenewalDataEntry" sheetId="36" r:id="rId27"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -60,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1737" uniqueCount="353">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2077" uniqueCount="394">
   <si>
     <t>su</t>
   </si>
@@ -859,268 +860,391 @@
     <t>PrimaryNI_Phone</t>
   </si>
   <si>
+    <t>PI_PD_BaseState</t>
+  </si>
+  <si>
+    <t>AUT_CA_PC_CommercialAuto_CancellationByCarrier</t>
+  </si>
+  <si>
+    <t>Insurer</t>
+  </si>
+  <si>
+    <t>Non-payment</t>
+  </si>
+  <si>
+    <t>CP_Cancellation _Effective_ Date</t>
+  </si>
+  <si>
+    <t>CP_Reason _Description</t>
+  </si>
+  <si>
+    <t>CP_Reason</t>
+  </si>
+  <si>
+    <t>CP_Source</t>
+  </si>
+  <si>
+    <t>Policy</t>
+  </si>
+  <si>
+    <t>AUT_CA_PC_CommercialAuto_CancellationByCarrierWithLaterDate</t>
+  </si>
+  <si>
+    <t>CP_Refund_Method_prorate</t>
+  </si>
+  <si>
+    <t>CP_Refund_Method_flatrate</t>
+  </si>
+  <si>
+    <t>AUT_CA_PC_CommercialAuto_CancellationByInsured</t>
+  </si>
+  <si>
+    <t>Insured</t>
+  </si>
+  <si>
+    <t>Insured's request - N.O.C</t>
+  </si>
+  <si>
+    <t>CP_Refund_Method_shortrate</t>
+  </si>
+  <si>
+    <t>SRFP_TermType</t>
+  </si>
+  <si>
+    <t>SRFP_EffectiveDate</t>
+  </si>
+  <si>
+    <t>SRFP_ExpirationDate</t>
+  </si>
+  <si>
+    <t>SRFP_WrittenDate</t>
+  </si>
+  <si>
+    <t>SRFP_EffectiveDateReinstatement</t>
+  </si>
+  <si>
+    <t>SRFP_Reason</t>
+  </si>
+  <si>
+    <t>SRFP_ReasonDescription</t>
+  </si>
+  <si>
+    <t>policy</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>AUT_CA_PC_DeclinedNewBusinessSubmission</t>
+  </si>
+  <si>
+    <t>SD_ReasonCode</t>
+  </si>
+  <si>
+    <t>SD_ReasonDescription</t>
+  </si>
+  <si>
+    <t>Products characteristics</t>
+  </si>
+  <si>
+    <t>subimission</t>
+  </si>
+  <si>
+    <t>AUT_CA_PC_AmendNamedInsured</t>
+  </si>
+  <si>
+    <t>Blackcomb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">change </t>
+  </si>
+  <si>
+    <t>AUT_CA_PC_AmendNamedInsuredChangePolicy</t>
+  </si>
+  <si>
+    <t>PC_NewPerson</t>
+  </si>
+  <si>
+    <t>PI_FirstName</t>
+  </si>
+  <si>
+    <t>PI_LastName</t>
+  </si>
+  <si>
+    <t>PI_Address_1</t>
+  </si>
+  <si>
+    <t>PI_StateName</t>
+  </si>
+  <si>
+    <t>PI_AddressType</t>
+  </si>
+  <si>
+    <t>Black</t>
+  </si>
+  <si>
+    <t>Comb</t>
+  </si>
+  <si>
+    <t>Office</t>
+  </si>
+  <si>
+    <t>AUT_CA_PC_ApplyEndorsementWhenNonRenewing</t>
+  </si>
+  <si>
+    <t>Non-Renew Reason</t>
+  </si>
+  <si>
+    <t>Non-Renew Additional Text</t>
+  </si>
+  <si>
+    <t>Non-Renew - losses</t>
+  </si>
+  <si>
+    <t>loss</t>
+  </si>
+  <si>
+    <t>AUT_CA_PC_RenewalWorkflow90Days</t>
+  </si>
+  <si>
+    <t>AUT_CA_PC_NonRenewalWithRenewalTransaction</t>
+  </si>
+  <si>
+    <t>NewNote_Topic</t>
+  </si>
+  <si>
+    <t>NewNote_Text</t>
+  </si>
+  <si>
+    <t>Pre-renewal direction</t>
+  </si>
+  <si>
+    <t>Set policy to non-renew</t>
+  </si>
+  <si>
+    <t>AUT_CA_PC_NonRenewalWithoutRenewalTransaction</t>
+  </si>
+  <si>
+    <t>DirectionDetails</t>
+  </si>
+  <si>
+    <t>NonRenewal Reason</t>
+  </si>
+  <si>
+    <t>NoteText</t>
+  </si>
+  <si>
+    <t>Non-Renew</t>
+  </si>
+  <si>
+    <t>Non Renewal</t>
+  </si>
+  <si>
+    <t>Effective Date</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>05/25/2022</t>
+  </si>
+  <si>
+    <t>PS_PremiumCost</t>
+  </si>
+  <si>
+    <t>AUT_CA_PC_CommercialAuto_Reinstatement</t>
+  </si>
+  <si>
+    <t>QU_TotalPremium</t>
+  </si>
+  <si>
+    <t>QU_Taxes</t>
+  </si>
+  <si>
+    <t>QU_TotalCost</t>
+  </si>
+  <si>
+    <t>QU_ChangeInCost</t>
+  </si>
+  <si>
+    <t>AUT_CA_PC_ApplyEndorsementTORenewal</t>
+  </si>
+  <si>
+    <t>Renewal</t>
+  </si>
+  <si>
+    <t>Quoted</t>
+  </si>
+  <si>
+    <t>Common ownership</t>
+  </si>
+  <si>
+    <t>Submission</t>
+  </si>
+  <si>
+    <t>$2,457.00</t>
+  </si>
+  <si>
+    <t>$2,329.00</t>
+  </si>
+  <si>
+    <t>$128.00</t>
+  </si>
+  <si>
+    <t>$1,998.00</t>
+  </si>
+  <si>
+    <t>AUT_CA_PC_ApplyEndorsementTORenewalAndIssuePolicy</t>
+  </si>
+  <si>
+    <t>Individual</t>
+  </si>
+  <si>
+    <t>company business</t>
+  </si>
+  <si>
+    <t>Anchorage, AK 99501</t>
+  </si>
+  <si>
+    <t>Renewal Code</t>
+  </si>
+  <si>
+    <t>Renew - good risk</t>
+  </si>
+  <si>
+    <t>Renewing</t>
+  </si>
+  <si>
+    <t>PolicyChange_PastDate</t>
+  </si>
+  <si>
+    <t>AUT_CA_PC_OutOfSequenceAndPreemptionRules</t>
+  </si>
+  <si>
+    <t>0294340314</t>
+  </si>
+  <si>
+    <t>Policy Change (Bound)</t>
+  </si>
+  <si>
+    <t>Random Automation</t>
+  </si>
+  <si>
+    <t>201-555</t>
+  </si>
+  <si>
+    <t>KAOUxdPLw</t>
+  </si>
+  <si>
+    <t>0295044124</t>
+  </si>
+  <si>
+    <t>oDhVXqyxo</t>
+  </si>
+  <si>
+    <t>0295278879</t>
+  </si>
+  <si>
+    <t>qnoPWxcLW</t>
+  </si>
+  <si>
+    <t>0098488630</t>
+  </si>
+  <si>
+    <t>0295643240</t>
+  </si>
+  <si>
+    <t>Non-renewing</t>
+  </si>
+  <si>
+    <t>PI_WorkPhone</t>
+  </si>
+  <si>
     <t>201-555-1003</t>
   </si>
   <si>
-    <t>PI_PD_BaseState</t>
-  </si>
-  <si>
-    <t>AUT_CA_PC_CommercialAuto_CancellationByCarrier</t>
-  </si>
-  <si>
-    <t>Insurer</t>
-  </si>
-  <si>
-    <t>Non-payment</t>
-  </si>
-  <si>
-    <t>CP_Cancellation _Effective_ Date</t>
-  </si>
-  <si>
-    <t>CP_Reason _Description</t>
-  </si>
-  <si>
-    <t>CP_Reason</t>
-  </si>
-  <si>
-    <t>CP_Source</t>
-  </si>
-  <si>
-    <t>Policy</t>
-  </si>
-  <si>
-    <t>AUT_CA_PC_CommercialAuto_CancellationByCarrierWithLaterDate</t>
-  </si>
-  <si>
-    <t>CP_Refund_Method_prorate</t>
-  </si>
-  <si>
-    <t>CP_Refund_Method_flatrate</t>
-  </si>
-  <si>
-    <t>AUT_CA_PC_CommercialAuto_CancellationByInsured</t>
-  </si>
-  <si>
-    <t>Insured</t>
-  </si>
-  <si>
-    <t>Insured's request - N.O.C</t>
-  </si>
-  <si>
-    <t>CP_Refund_Method_shortrate</t>
-  </si>
-  <si>
-    <t>SRFP_TermType</t>
-  </si>
-  <si>
-    <t>SRFP_EffectiveDate</t>
-  </si>
-  <si>
-    <t>SRFP_ExpirationDate</t>
-  </si>
-  <si>
-    <t>SRFP_WrittenDate</t>
-  </si>
-  <si>
-    <t>SRFP_EffectiveDateReinstatement</t>
-  </si>
-  <si>
-    <t>SRFP_Reason</t>
-  </si>
-  <si>
-    <t>SRFP_ReasonDescription</t>
-  </si>
-  <si>
-    <t>policy</t>
-  </si>
-  <si>
-    <t>Other</t>
-  </si>
-  <si>
-    <t>AUT_CA_PC_DeclinedNewBusinessSubmission</t>
-  </si>
-  <si>
-    <t>SD_ReasonCode</t>
-  </si>
-  <si>
-    <t>SD_ReasonDescription</t>
-  </si>
-  <si>
-    <t>Products characteristics</t>
-  </si>
-  <si>
-    <t>subimission</t>
-  </si>
-  <si>
-    <t>AUT_CA_PC_AmendNamedInsured</t>
-  </si>
-  <si>
-    <t>Blackcomb</t>
-  </si>
-  <si>
-    <t xml:space="preserve">change </t>
-  </si>
-  <si>
-    <t>AUT_CA_PC_AmendNamedInsuredChangePolicy</t>
-  </si>
-  <si>
-    <t>PC_NewPerson</t>
-  </si>
-  <si>
-    <t>PI_FirstName</t>
-  </si>
-  <si>
-    <t>PI_LastName</t>
-  </si>
-  <si>
-    <t>PI_Address_1</t>
-  </si>
-  <si>
-    <t>PI_StateName</t>
-  </si>
-  <si>
-    <t>PI_AddressType</t>
-  </si>
-  <si>
-    <t>Black</t>
-  </si>
-  <si>
-    <t>Comb</t>
-  </si>
-  <si>
-    <t>Office</t>
-  </si>
-  <si>
-    <t>AUT_CA_PC_ApplyEndorsementWhenNonRenewing</t>
-  </si>
-  <si>
-    <t>Non-Renew Reason</t>
-  </si>
-  <si>
-    <t>Non-Renew Additional Text</t>
-  </si>
-  <si>
-    <t>Non-Renew - losses</t>
-  </si>
-  <si>
-    <t>loss</t>
-  </si>
-  <si>
-    <t>AUT_CA_PC_RenewalWorkflow90Days</t>
-  </si>
-  <si>
-    <t>AUT_CA_PC_NonRenewalWithRenewalTransaction</t>
-  </si>
-  <si>
-    <t>NewNote_Topic</t>
-  </si>
-  <si>
-    <t>NewNote_Text</t>
-  </si>
-  <si>
-    <t>Pre-renewal direction</t>
-  </si>
-  <si>
-    <t>Set policy to non-renew</t>
-  </si>
-  <si>
-    <t>AUT_CA_PC_NonRenewalWithoutRenewalTransaction</t>
-  </si>
-  <si>
-    <t>DirectionDetails</t>
-  </si>
-  <si>
-    <t>NonRenewal Reason</t>
-  </si>
-  <si>
-    <t>NoteText</t>
-  </si>
-  <si>
-    <t>Non-Renew</t>
-  </si>
-  <si>
-    <t>Non Renewal</t>
-  </si>
-  <si>
-    <t>Effective Date</t>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>05/25/2022</t>
-  </si>
-  <si>
-    <t>PS_TransactionsType</t>
-  </si>
-  <si>
-    <t>PS_PremiumCost</t>
-  </si>
-  <si>
-    <t>AUT_CA_PC_CommercialAuto_Reinstatement</t>
-  </si>
-  <si>
-    <t>QU_TotalPremium</t>
-  </si>
-  <si>
-    <t>QU_Taxes</t>
-  </si>
-  <si>
-    <t>QU_TotalCost</t>
-  </si>
-  <si>
-    <t>QU_ChangeInCost</t>
-  </si>
-  <si>
-    <t>AUT_CA_PC_ApplyEndorsementTORenewal</t>
+    <t>Renewal (Non-renewing)</t>
+  </si>
+  <si>
+    <t>AUT_CA_PC_VerifyingAddressWithAccountScenario</t>
+  </si>
+  <si>
+    <t>Address1</t>
+  </si>
+  <si>
+    <t>BlackComb</t>
+  </si>
+  <si>
+    <t>CGwVVUbOZ</t>
+  </si>
+  <si>
+    <t>0303234911</t>
+  </si>
+  <si>
+    <t>XPyNcROKv</t>
+  </si>
+  <si>
+    <t>0305269242</t>
+  </si>
+  <si>
+    <t>0162971969</t>
+  </si>
+  <si>
+    <t>AUT_CA_PC_VerifyAddressWithPolicyScenario</t>
+  </si>
+  <si>
+    <t>0305619578</t>
+  </si>
+  <si>
+    <t>0519888749</t>
+  </si>
+  <si>
+    <t>fEwKZKUZp</t>
+  </si>
+  <si>
+    <t>DjmPtwvTc</t>
+  </si>
+  <si>
+    <t>0053806427</t>
+  </si>
+  <si>
+    <t>0307821008</t>
+  </si>
+  <si>
+    <t>OTUikjlmL</t>
+  </si>
+  <si>
+    <t>0308251368</t>
   </si>
   <si>
     <t>Type</t>
   </si>
   <si>
-    <t>Renewal</t>
-  </si>
-  <si>
-    <t>Quoted</t>
-  </si>
-  <si>
-    <t>Common ownership</t>
-  </si>
-  <si>
-    <t>Submission</t>
-  </si>
-  <si>
-    <t>$2,457.00</t>
-  </si>
-  <si>
-    <t>$2,329.00</t>
-  </si>
-  <si>
-    <t>$128.00</t>
-  </si>
-  <si>
-    <t>$1,998.00</t>
-  </si>
-  <si>
-    <t>AUT_CA_PC_ApplyEndorsementTORenewalAndIssuePolicy</t>
-  </si>
-  <si>
-    <t>YNsbjSfFh Automation</t>
-  </si>
-  <si>
-    <t>0244874694</t>
-  </si>
-  <si>
-    <t>Individual</t>
-  </si>
-  <si>
-    <t>company business</t>
-  </si>
-  <si>
-    <t>ufhzhByLO</t>
-  </si>
-  <si>
-    <t>0251944892</t>
+    <t>PhSinmsFw</t>
+  </si>
+  <si>
+    <t>0308732428</t>
+  </si>
+  <si>
+    <t>BcCOdJUjh</t>
+  </si>
+  <si>
+    <t>0309161069</t>
+  </si>
+  <si>
+    <t>YnyAflkiT</t>
+  </si>
+  <si>
+    <t>0309638055</t>
+  </si>
+  <si>
+    <t>XBQOKKCVJ</t>
+  </si>
+  <si>
+    <t>ueQjQShqN</t>
+  </si>
+  <si>
+    <t>0310518309</t>
   </si>
 </sst>
 </file>
@@ -1257,7 +1381,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -1317,26 +1441,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFD1D1D1"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFD1D1D1"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFD1D1D1"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFD1D1D1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1413,7 +1522,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1696,26 +1809,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C434C20-6A4B-456B-8D43-C8E066AF420F}">
-  <dimension ref="A1:L13"/>
+  <dimension ref="A1:L15"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="63.28515625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="20" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="13.7109375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="16.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="16.28515625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="21.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="19.28515625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="20.42578125" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="12.140625" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="9.85546875" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="7.42578125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="63.28515625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="20.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="13.7109375" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="16.42578125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="16.28515625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="21.7109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="19.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="20.42578125" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="13.7109375" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="12.140625" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="9.85546875" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="7.42578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -1763,213 +1876,437 @@
       <c r="B2" t="s">
         <v>197</v>
       </c>
+      <c r="C2"/>
       <c r="D2" t="s">
         <v>198</v>
       </c>
-      <c r="E2" s="18">
+      <c r="E2" s="18" t="n">
         <f t="shared" ref="E2:E9" ca="1" si="0">TODAY()</f>
-        <v>44659</v>
-      </c>
+        <v>44664.0</v>
+      </c>
+      <c r="F2"/>
+      <c r="G2"/>
+      <c r="H2"/>
+      <c r="I2"/>
+      <c r="J2"/>
+      <c r="K2"/>
       <c r="L2" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="B3" t="s">
-        <v>197</v>
-      </c>
+        <v>353</v>
+      </c>
+      <c r="C3"/>
       <c r="D3" t="s">
         <v>198</v>
       </c>
-      <c r="E3" s="18">
+      <c r="E3" s="18" t="n">
         <f t="shared" ca="1" si="0"/>
-        <v>44659</v>
-      </c>
+        <v>44664.0</v>
+      </c>
+      <c r="F3" t="s">
+        <v>354</v>
+      </c>
+      <c r="G3" t="n">
+        <v>8.48271201E9</v>
+      </c>
+      <c r="H3" t="s">
+        <v>388</v>
+      </c>
+      <c r="I3" t="n">
+        <v>6.633971504E9</v>
+      </c>
+      <c r="J3"/>
+      <c r="K3"/>
       <c r="L3" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="B4" t="s">
         <v>197</v>
       </c>
+      <c r="C4"/>
       <c r="D4" t="s">
         <v>198</v>
       </c>
-      <c r="E4" s="18">
+      <c r="E4" s="18" t="n">
         <f t="shared" ca="1" si="0"/>
-        <v>44659</v>
-      </c>
+        <v>44664.0</v>
+      </c>
+      <c r="F4" t="s">
+        <v>389</v>
+      </c>
+      <c r="G4" t="n">
+        <v>3.143087813E9</v>
+      </c>
+      <c r="H4" t="s">
+        <v>390</v>
+      </c>
+      <c r="I4" t="n">
+        <v>5.546493807E9</v>
+      </c>
+      <c r="J4"/>
+      <c r="K4"/>
+      <c r="L4"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B5" t="s">
-        <v>197</v>
-      </c>
+        <v>366</v>
+      </c>
+      <c r="C5"/>
       <c r="D5" t="s">
         <v>198</v>
       </c>
-      <c r="E5" s="18">
+      <c r="E5" s="18" t="n">
         <f t="shared" ca="1" si="0"/>
-        <v>44659</v>
-      </c>
+        <v>44664.0</v>
+      </c>
+      <c r="F5" t="s">
+        <v>391</v>
+      </c>
+      <c r="G5" t="n">
+        <v>5.98452592E9</v>
+      </c>
+      <c r="H5" t="n">
+        <v>3.10073723E8</v>
+      </c>
+      <c r="I5" t="n">
+        <v>4.651171576E9</v>
+      </c>
+      <c r="J5"/>
+      <c r="K5"/>
       <c r="L5" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B6" t="s">
         <v>197</v>
       </c>
+      <c r="C6"/>
       <c r="D6" t="s">
         <v>198</v>
       </c>
-      <c r="E6" s="18">
+      <c r="E6" s="18" t="n">
         <f t="shared" ca="1" si="0"/>
-        <v>44659</v>
-      </c>
+        <v>44664.0</v>
+      </c>
+      <c r="F6" t="s">
+        <v>392</v>
+      </c>
+      <c r="G6" t="n">
+        <v>1.004025925E9</v>
+      </c>
+      <c r="H6" t="s">
+        <v>393</v>
+      </c>
+      <c r="I6" t="n">
+        <v>8.744394778E9</v>
+      </c>
+      <c r="J6"/>
+      <c r="K6"/>
       <c r="L6" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="B7" t="s">
         <v>197</v>
       </c>
+      <c r="C7"/>
       <c r="D7" t="s">
         <v>198</v>
       </c>
-      <c r="E7" s="18">
+      <c r="E7" s="18" t="n">
         <f t="shared" ca="1" si="0"/>
-        <v>44659</v>
+        <v>44664.0</v>
       </c>
       <c r="F7" t="s">
-        <v>351</v>
+        <v>378</v>
       </c>
       <c r="G7">
-        <v>5023480352</v>
-      </c>
-      <c r="H7" t="s">
-        <v>352</v>
+        <v>7919360836</v>
+      </c>
+      <c r="H7">
+        <v>307534020</v>
       </c>
       <c r="I7">
-        <v>57253111</v>
-      </c>
+        <v>1374454608</v>
+      </c>
+      <c r="J7"/>
+      <c r="K7"/>
       <c r="L7" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B8" t="s">
         <v>197</v>
       </c>
+      <c r="C8"/>
       <c r="D8" t="s">
         <v>198</v>
       </c>
-      <c r="E8" s="18">
+      <c r="E8" s="18" t="n">
         <f t="shared" ca="1" si="0"/>
-        <v>44659</v>
-      </c>
+        <v>44664.0</v>
+      </c>
+      <c r="F8" t="s">
+        <v>379</v>
+      </c>
+      <c r="G8" t="s">
+        <v>380</v>
+      </c>
+      <c r="H8" t="s">
+        <v>381</v>
+      </c>
+      <c r="I8">
+        <v>9885242407</v>
+      </c>
+      <c r="J8"/>
+      <c r="K8"/>
+      <c r="L8"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B9" t="s">
-        <v>197</v>
-      </c>
+        <v>353</v>
+      </c>
+      <c r="C9"/>
       <c r="D9" t="s">
         <v>198</v>
       </c>
-      <c r="E9" s="18">
+      <c r="E9" s="18" t="n">
         <f t="shared" ca="1" si="0"/>
-        <v>44659</v>
-      </c>
+        <v>44664.0</v>
+      </c>
+      <c r="F9" t="s">
+        <v>354</v>
+      </c>
+      <c r="G9">
+        <v>3821893805</v>
+      </c>
+      <c r="H9" t="s">
+        <v>352</v>
+      </c>
+      <c r="I9">
+        <v>7184032146</v>
+      </c>
+      <c r="J9"/>
+      <c r="K9"/>
+      <c r="L9"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B10" t="s">
-        <v>197</v>
-      </c>
+        <v>366</v>
+      </c>
+      <c r="C10"/>
       <c r="D10" t="s">
         <v>198</v>
       </c>
-      <c r="E10" s="18">
-        <f t="shared" ref="E10:E13" ca="1" si="1">TODAY()</f>
-        <v>44659</v>
+      <c r="E10" s="18" t="n">
+        <f t="shared" ref="E10:E15" ca="1" si="1">TODAY()</f>
+        <v>44664.0</v>
       </c>
       <c r="F10" t="s">
-        <v>347</v>
+        <v>370</v>
       </c>
       <c r="G10">
-        <v>7285584110</v>
+        <v>7805630986</v>
       </c>
       <c r="H10" t="s">
-        <v>348</v>
-      </c>
+        <v>371</v>
+      </c>
+      <c r="I10">
+        <v>3573912849</v>
+      </c>
+      <c r="J10"/>
+      <c r="K10"/>
+      <c r="L10"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B11" t="s">
         <v>197</v>
       </c>
+      <c r="C11"/>
       <c r="D11" t="s">
         <v>198</v>
       </c>
-      <c r="E11" s="18">
+      <c r="E11" s="18" t="n">
         <f t="shared" ca="1" si="1"/>
-        <v>44659</v>
-      </c>
+        <v>44664.0</v>
+      </c>
+      <c r="F11" t="s">
+        <v>356</v>
+      </c>
+      <c r="G11">
+        <v>7625511867</v>
+      </c>
+      <c r="H11" t="s">
+        <v>357</v>
+      </c>
+      <c r="I11">
+        <v>8762161011</v>
+      </c>
+      <c r="J11"/>
+      <c r="K11"/>
+      <c r="L11"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B12" t="s">
         <v>197</v>
       </c>
+      <c r="C12"/>
       <c r="D12" t="s">
         <v>198</v>
       </c>
-      <c r="E12" s="18">
+      <c r="E12" s="18" t="n">
         <f t="shared" ca="1" si="1"/>
-        <v>44659</v>
-      </c>
+        <v>44664.0</v>
+      </c>
+      <c r="F12" t="s">
+        <v>358</v>
+      </c>
+      <c r="G12">
+        <v>9203375227</v>
+      </c>
+      <c r="H12" t="s">
+        <v>359</v>
+      </c>
+      <c r="I12">
+        <v>5586129818</v>
+      </c>
+      <c r="J12"/>
+      <c r="K12"/>
+      <c r="L12"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B13" t="s">
         <v>197</v>
       </c>
+      <c r="C13"/>
       <c r="D13" t="s">
         <v>198</v>
       </c>
-      <c r="E13" s="18">
+      <c r="E13" s="18" t="n">
         <f t="shared" ca="1" si="1"/>
-        <v>44659</v>
+        <v>44664.0</v>
+      </c>
+      <c r="F13" t="s">
+        <v>360</v>
+      </c>
+      <c r="G13" t="s">
+        <v>361</v>
+      </c>
+      <c r="H13" t="s">
+        <v>362</v>
+      </c>
+      <c r="I13">
+        <v>8168642307</v>
+      </c>
+      <c r="J13"/>
+      <c r="K13"/>
+      <c r="L13"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>351</v>
+      </c>
+      <c r="B14" t="s">
+        <v>197</v>
+      </c>
+      <c r="C14"/>
+      <c r="D14" t="s">
+        <v>198</v>
+      </c>
+      <c r="E14" s="18" t="n">
+        <f t="shared" ca="1" si="1"/>
+        <v>44664.0</v>
+      </c>
+      <c r="F14" t="s">
+        <v>372</v>
+      </c>
+      <c r="G14">
+        <v>2393551329</v>
+      </c>
+      <c r="H14" t="s">
+        <v>373</v>
+      </c>
+      <c r="I14" t="s">
+        <v>374</v>
+      </c>
+      <c r="J14"/>
+      <c r="K14"/>
+      <c r="L14" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>375</v>
+      </c>
+      <c r="B15" t="s">
+        <v>353</v>
+      </c>
+      <c r="C15"/>
+      <c r="D15" t="s">
+        <v>198</v>
+      </c>
+      <c r="E15" s="18" t="n">
+        <f t="shared" ca="1" si="1"/>
+        <v>44664.0</v>
+      </c>
+      <c r="F15" t="s">
+        <v>354</v>
+      </c>
+      <c r="G15">
+        <v>4862531881</v>
+      </c>
+      <c r="H15" t="s">
+        <v>376</v>
+      </c>
+      <c r="I15" t="s">
+        <v>377</v>
+      </c>
+      <c r="J15"/>
+      <c r="K15"/>
+      <c r="L15" t="s">
+        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -1980,21 +2317,21 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E1DC793-B854-43BE-BD2A-91D9F044E2A1}">
-  <dimension ref="A1:V14"/>
+  <dimension ref="A1:V16"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="55.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="32.28515625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="35.85546875" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="30.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="18.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="23.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="27.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="55.7109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="32.28515625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="35.85546875" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="30.42578125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="18.140625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="23.7109375" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="27.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" s="13" customFormat="1" x14ac:dyDescent="0.25">
@@ -2054,14 +2391,14 @@
       <c r="F2" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="G2" s="23">
-        <f t="shared" ref="G2:G14" ca="1" si="0">TODAY()</f>
-        <v>44659</v>
+      <c r="G2" s="23" t="n">
+        <f t="shared" ref="G2:G16" ca="1" si="0">TODAY()</f>
+        <v>44664.0</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>243</v>
@@ -2078,14 +2415,14 @@
       <c r="F3" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="G3" s="23">
+      <c r="G3" s="23" t="n">
         <f t="shared" ca="1" si="0"/>
-        <v>44659</v>
+        <v>44664.0</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>243</v>
@@ -2102,9 +2439,9 @@
       <c r="F4" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="G4" s="23">
+      <c r="G4" s="23" t="n">
         <f t="shared" ca="1" si="0"/>
-        <v>44659</v>
+        <v>44664.0</v>
       </c>
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
@@ -2116,7 +2453,7 @@
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>243</v>
@@ -2133,9 +2470,9 @@
       <c r="F5" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="G5" s="23">
+      <c r="G5" s="23" t="n">
         <f t="shared" ca="1" si="0"/>
-        <v>44659</v>
+        <v>44664.0</v>
       </c>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
@@ -2147,7 +2484,7 @@
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>243</v>
@@ -2164,9 +2501,9 @@
       <c r="F6" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="G6" s="23">
+      <c r="G6" s="23" t="n">
         <f t="shared" ca="1" si="0"/>
-        <v>44659</v>
+        <v>44664.0</v>
       </c>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
@@ -2177,7 +2514,7 @@
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>243</v>
@@ -2194,9 +2531,9 @@
       <c r="F7" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="G7" s="23">
+      <c r="G7" s="23" t="n">
         <f t="shared" ca="1" si="0"/>
-        <v>44659</v>
+        <v>44664.0</v>
       </c>
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
@@ -2207,7 +2544,7 @@
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>243</v>
@@ -2224,9 +2561,9 @@
       <c r="F8" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="G8" s="23">
+      <c r="G8" s="23" t="n">
         <f t="shared" ca="1" si="0"/>
-        <v>44659</v>
+        <v>44664.0</v>
       </c>
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
@@ -2237,7 +2574,7 @@
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>243</v>
@@ -2254,9 +2591,9 @@
       <c r="F9" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="G9" s="23">
+      <c r="G9" s="23" t="n">
         <f t="shared" ca="1" si="0"/>
-        <v>44659</v>
+        <v>44664.0</v>
       </c>
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
@@ -2267,7 +2604,7 @@
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>243</v>
@@ -2284,9 +2621,9 @@
       <c r="F10" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="G10" s="23">
+      <c r="G10" s="23" t="n">
         <f t="shared" ca="1" si="0"/>
-        <v>44659</v>
+        <v>44664.0</v>
       </c>
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
@@ -2295,7 +2632,7 @@
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>243</v>
@@ -2312,14 +2649,14 @@
       <c r="F11" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="G11" s="23">
+      <c r="G11" s="23" t="n">
         <f t="shared" ca="1" si="0"/>
-        <v>44659</v>
+        <v>44664.0</v>
       </c>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>243</v>
@@ -2336,14 +2673,14 @@
       <c r="F12" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="G12" s="23">
+      <c r="G12" s="23" t="n">
         <f t="shared" ca="1" si="0"/>
-        <v>44659</v>
+        <v>44664.0</v>
       </c>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>243</v>
@@ -2360,14 +2697,14 @@
       <c r="F13" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="G13" s="23">
+      <c r="G13" s="23" t="n">
         <f t="shared" ca="1" si="0"/>
-        <v>44659</v>
+        <v>44664.0</v>
       </c>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>243</v>
@@ -2384,9 +2721,57 @@
       <c r="F14" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="G14" s="23">
+      <c r="G14" s="23" t="n">
         <f t="shared" ca="1" si="0"/>
-        <v>44659</v>
+        <v>44664.0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="G15" s="23" t="n">
+        <f t="shared" ca="1" si="0"/>
+        <v>44664.0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>375</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="G16" s="23" t="n">
+        <f t="shared" ca="1" si="0"/>
+        <v>44664.0</v>
       </c>
     </row>
   </sheetData>
@@ -2396,16 +2781,16 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27252891-3B19-4BAC-93AF-75D8B37A68D3}">
-  <dimension ref="A1:V14"/>
+  <dimension ref="A1:V16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="59.5703125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="20.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="59.5703125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="20.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" s="13" customFormat="1" x14ac:dyDescent="0.25">
@@ -2446,7 +2831,7 @@
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B3" t="s">
         <v>110</v>
@@ -2454,7 +2839,7 @@
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="B4" t="s">
         <v>110</v>
@@ -2462,7 +2847,7 @@
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="B5" t="s">
         <v>110</v>
@@ -2470,7 +2855,7 @@
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B6" t="s">
         <v>110</v>
@@ -2478,7 +2863,7 @@
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B7" t="s">
         <v>110</v>
@@ -2486,7 +2871,7 @@
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="B8" t="s">
         <v>110</v>
@@ -2494,7 +2879,7 @@
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B9" t="s">
         <v>110</v>
@@ -2502,7 +2887,7 @@
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B10" t="s">
         <v>110</v>
@@ -2510,7 +2895,7 @@
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B11" t="s">
         <v>110</v>
@@ -2518,7 +2903,7 @@
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B12" t="s">
         <v>110</v>
@@ -2526,7 +2911,7 @@
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B13" t="s">
         <v>110</v>
@@ -2534,9 +2919,25 @@
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B14" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>351</v>
+      </c>
+      <c r="B15" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>375</v>
+      </c>
+      <c r="B16" t="s">
         <v>110</v>
       </c>
     </row>
@@ -2547,23 +2948,23 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBF1A7FD-8CFF-426D-86B2-3602E2616FE0}">
-  <dimension ref="A1:I14"/>
+  <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="62.28515625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="27.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="33.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="33.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="38.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="42.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="29.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="33" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="26.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="62.28515625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="27.5703125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="33.85546875" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="33.5703125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="38.28515625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="42.28515625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="29.85546875" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="33.0" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="26.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -2626,7 +3027,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B3" t="s">
         <v>115</v>
@@ -2655,7 +3056,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="B4" t="s">
         <v>115</v>
@@ -2684,7 +3085,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="B5" t="s">
         <v>115</v>
@@ -2713,7 +3114,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B6" t="s">
         <v>115</v>
@@ -2742,7 +3143,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B7" t="s">
         <v>115</v>
@@ -2771,7 +3172,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="B8" t="s">
         <v>115</v>
@@ -2800,7 +3201,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B9" t="s">
         <v>115</v>
@@ -2829,7 +3230,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B10" t="s">
         <v>115</v>
@@ -2858,7 +3259,7 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B11" t="s">
         <v>115</v>
@@ -2887,7 +3288,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B12" t="s">
         <v>115</v>
@@ -2916,7 +3317,7 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B13" t="s">
         <v>115</v>
@@ -2945,7 +3346,7 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B14" t="s">
         <v>115</v>
@@ -2969,6 +3370,64 @@
         <v>115</v>
       </c>
       <c r="I14" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>351</v>
+      </c>
+      <c r="B15" t="s">
+        <v>115</v>
+      </c>
+      <c r="C15" t="s">
+        <v>115</v>
+      </c>
+      <c r="D15" t="s">
+        <v>115</v>
+      </c>
+      <c r="E15" t="s">
+        <v>115</v>
+      </c>
+      <c r="F15" t="s">
+        <v>117</v>
+      </c>
+      <c r="G15" t="s">
+        <v>119</v>
+      </c>
+      <c r="H15" t="s">
+        <v>115</v>
+      </c>
+      <c r="I15" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>375</v>
+      </c>
+      <c r="B16" t="s">
+        <v>115</v>
+      </c>
+      <c r="C16" t="s">
+        <v>115</v>
+      </c>
+      <c r="D16" t="s">
+        <v>115</v>
+      </c>
+      <c r="E16" t="s">
+        <v>115</v>
+      </c>
+      <c r="F16" t="s">
+        <v>117</v>
+      </c>
+      <c r="G16" t="s">
+        <v>119</v>
+      </c>
+      <c r="H16" t="s">
+        <v>115</v>
+      </c>
+      <c r="I16" t="s">
         <v>115</v>
       </c>
     </row>
@@ -2979,46 +3438,47 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{669B8DAE-FB45-4C9B-9219-B08AC39D45EC}">
-  <dimension ref="A1:AI14"/>
+  <dimension ref="A1:AI16"/>
   <sheetViews>
-    <sheetView topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="Q6" sqref="Q6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="66.28515625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="55.7109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="45.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="20" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="20.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="22.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="19.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="16.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="19.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="20.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="18.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="24.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="32.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="17.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="22.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="28.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="28.7109375" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="14.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="22.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="18.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="22.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="18.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="19.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="19.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="12.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="18.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="12.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="29" max="30" width="18.28515625" customWidth="1" collapsed="1"/>
-    <col min="31" max="31" width="18.42578125" customWidth="1" collapsed="1"/>
-    <col min="32" max="33" width="18.28515625" customWidth="1" collapsed="1"/>
-    <col min="34" max="34" width="18.5703125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="66.28515625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="55.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="27.85546875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="20.0" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="20.85546875" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="22.7109375" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="19.7109375" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="16.140625" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="19.7109375" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="20.5703125" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="18.42578125" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="24.42578125" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="32.7109375" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="17.42578125" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="22.7109375" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="28.7109375" collapsed="true"/>
+    <col min="18" max="18" customWidth="true" width="28.7109375" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="14.42578125" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="22.28515625" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="18.7109375" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="22.42578125" collapsed="true"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="18.85546875" collapsed="true"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="19.28515625" collapsed="true"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" width="19.85546875" collapsed="true"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" width="12.5703125" collapsed="true"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="18.5703125" collapsed="true"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" width="12.42578125" collapsed="true"/>
+    <col min="29" max="30" customWidth="true" width="18.28515625" collapsed="true"/>
+    <col min="31" max="31" customWidth="true" width="18.42578125" collapsed="true"/>
+    <col min="32" max="33" customWidth="true" width="18.28515625" collapsed="true"/>
+    <col min="34" max="34" customWidth="true" width="18.5703125" collapsed="true"/>
+    <col min="35" max="35" customWidth="true" width="18.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:35" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -3074,7 +3534,7 @@
         <v>259</v>
       </c>
       <c r="R1" s="9" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="S1" s="9" t="s">
         <v>177</v>
@@ -3107,42 +3567,44 @@
         <v>186</v>
       </c>
       <c r="AC1" s="9" t="s">
+        <v>299</v>
+      </c>
+      <c r="AD1" s="9" t="s">
         <v>300</v>
       </c>
-      <c r="AD1" s="9" t="s">
+      <c r="AE1" s="9" t="s">
         <v>301</v>
       </c>
-      <c r="AE1" s="9" t="s">
+      <c r="AF1" s="9" t="s">
         <v>302</v>
       </c>
-      <c r="AF1" s="9" t="s">
+      <c r="AG1" s="9" t="s">
         <v>303</v>
       </c>
-      <c r="AG1" s="9" t="s">
+      <c r="AH1" s="9" t="s">
         <v>304</v>
       </c>
-      <c r="AH1" s="9" t="s">
-        <v>305</v>
-      </c>
-      <c r="AI1" s="30"/>
+      <c r="AI1" s="30" t="s">
+        <v>364</v>
+      </c>
     </row>
     <row r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>125</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>265</v>
-      </c>
-      <c r="C2" s="31" t="s">
-        <v>261</v>
+        <v>355</v>
+      </c>
+      <c r="C2" s="38" t="s">
+        <v>346</v>
       </c>
       <c r="D2" s="31" t="str">
         <f>createAccount!$S$2</f>
         <v>Anchorage</v>
       </c>
-      <c r="E2" s="23">
+      <c r="E2" s="23" t="n">
         <f ca="1">TODAY()</f>
-        <v>44659</v>
+        <v>44664.0</v>
       </c>
       <c r="F2" s="4"/>
       <c r="G2" s="11" t="s">
@@ -3154,17 +3616,17 @@
       <c r="I2" s="4" t="s">
         <v>199</v>
       </c>
-      <c r="J2" s="23">
+      <c r="J2" s="23" t="n">
         <f ca="1">searchValues!$E$2</f>
-        <v>44659</v>
-      </c>
-      <c r="K2" s="23">
+        <v>44664.0</v>
+      </c>
+      <c r="K2" s="23" t="n">
         <f ca="1">EDATE(J2,12)</f>
-        <v>45024</v>
-      </c>
-      <c r="L2" s="23">
+        <v>45029.0</v>
+      </c>
+      <c r="L2" s="23" t="n">
         <f ca="1">searchValues!$E$2</f>
-        <v>44659</v>
+        <v>44664.0</v>
       </c>
       <c r="M2" s="4" t="s">
         <v>200</v>
@@ -3205,21 +3667,21 @@
     </row>
     <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>265</v>
-      </c>
-      <c r="C3" s="31" t="s">
-        <v>261</v>
+        <v>355</v>
+      </c>
+      <c r="C3" s="38" t="s">
+        <v>346</v>
       </c>
       <c r="D3" s="31" t="str">
         <f>createAccount!$S$2</f>
         <v>Anchorage</v>
       </c>
-      <c r="E3" s="23">
+      <c r="E3" s="23" t="n">
         <f ca="1">TODAY()</f>
-        <v>44659</v>
+        <v>44664.0</v>
       </c>
       <c r="F3" s="4"/>
       <c r="G3" s="11" t="s">
@@ -3231,17 +3693,17 @@
       <c r="I3" s="4" t="s">
         <v>199</v>
       </c>
-      <c r="J3" s="23">
+      <c r="J3" s="23" t="n">
         <f ca="1">searchValues!$E$2</f>
-        <v>44659</v>
-      </c>
-      <c r="K3" s="23">
+        <v>44664.0</v>
+      </c>
+      <c r="K3" s="23" t="n">
         <f ca="1">EDATE(J3,12)</f>
-        <v>45024</v>
-      </c>
-      <c r="L3" s="23">
+        <v>45029.0</v>
+      </c>
+      <c r="L3" s="23" t="n">
         <f ca="1">searchValues!$E$2</f>
-        <v>44659</v>
+        <v>44664.0</v>
       </c>
       <c r="M3" s="4" t="s">
         <v>200</v>
@@ -3282,21 +3744,21 @@
     </row>
     <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>265</v>
-      </c>
-      <c r="C4" s="31" t="s">
-        <v>261</v>
+        <v>355</v>
+      </c>
+      <c r="C4" s="38" t="s">
+        <v>346</v>
       </c>
       <c r="D4" s="31" t="str">
         <f>createAccount!$S$2</f>
         <v>Anchorage</v>
       </c>
-      <c r="E4" s="23">
+      <c r="E4" s="23" t="n">
         <f ca="1">TODAY()</f>
-        <v>44659</v>
+        <v>44664.0</v>
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="11" t="s">
@@ -3308,14 +3770,14 @@
       <c r="I4" s="4" t="s">
         <v>199</v>
       </c>
-      <c r="J4" s="23">
+      <c r="J4" s="23" t="n">
         <f ca="1">TODAY()</f>
-        <v>44659</v>
+        <v>44664.0</v>
       </c>
       <c r="K4" s="23"/>
-      <c r="L4" s="23">
+      <c r="L4" s="23" t="n">
         <f ca="1">searchValues!$E$2</f>
-        <v>44659</v>
+        <v>44664.0</v>
       </c>
       <c r="M4" s="4" t="s">
         <v>200</v>
@@ -3348,13 +3810,13 @@
       <c r="AB4" s="4"/>
       <c r="AC4" s="4"/>
       <c r="AD4" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="AE4" s="4" t="s">
         <v>306</v>
       </c>
-      <c r="AE4" s="4" t="s">
+      <c r="AF4" s="4" t="s">
         <v>307</v>
-      </c>
-      <c r="AF4" s="4" t="s">
-        <v>308</v>
       </c>
       <c r="AG4" s="4" t="s">
         <v>93</v>
@@ -3362,25 +3824,27 @@
       <c r="AH4" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="AI4" s="4"/>
+      <c r="AI4" s="4" t="s">
+        <v>365</v>
+      </c>
     </row>
     <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>265</v>
-      </c>
-      <c r="C5" s="31" t="s">
-        <v>261</v>
+        <v>355</v>
+      </c>
+      <c r="C5" s="38" t="s">
+        <v>346</v>
       </c>
       <c r="D5" s="31" t="str">
         <f>createAccount!$S$2</f>
         <v>Anchorage</v>
       </c>
-      <c r="E5" s="23">
+      <c r="E5" s="23" t="n">
         <f ca="1">TODAY()</f>
-        <v>44659</v>
+        <v>44664.0</v>
       </c>
       <c r="F5" s="4"/>
       <c r="G5" s="11" t="s">
@@ -3392,14 +3856,14 @@
       <c r="I5" s="4" t="s">
         <v>199</v>
       </c>
-      <c r="J5" s="23">
+      <c r="J5" s="23" t="n">
         <f ca="1">TODAY()</f>
-        <v>44659</v>
+        <v>44664.0</v>
       </c>
       <c r="K5" s="23"/>
-      <c r="L5" s="23">
+      <c r="L5" s="23" t="n">
         <f ca="1">searchValues!$E$2</f>
-        <v>44659</v>
+        <v>44664.0</v>
       </c>
       <c r="M5" s="4" t="s">
         <v>200</v>
@@ -3440,21 +3904,21 @@
     </row>
     <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>265</v>
-      </c>
-      <c r="C6" s="31" t="s">
-        <v>261</v>
+        <v>355</v>
+      </c>
+      <c r="C6" s="38" t="s">
+        <v>346</v>
       </c>
       <c r="D6" s="31" t="str">
         <f>createAccount!$S$2</f>
         <v>Anchorage</v>
       </c>
-      <c r="E6" s="23">
+      <c r="E6" s="23" t="n">
         <f ca="1">TODAY()</f>
-        <v>44659</v>
+        <v>44664.0</v>
       </c>
       <c r="F6" s="4"/>
       <c r="G6" s="11" t="s">
@@ -3466,14 +3930,14 @@
       <c r="I6" s="4" t="s">
         <v>199</v>
       </c>
-      <c r="J6" s="23">
+      <c r="J6" s="23" t="n">
         <f ca="1">TODAY()</f>
-        <v>44659</v>
+        <v>44664.0</v>
       </c>
       <c r="K6" s="23"/>
-      <c r="L6" s="23">
+      <c r="L6" s="23" t="n">
         <f ca="1">searchValues!$E$2</f>
-        <v>44659</v>
+        <v>44664.0</v>
       </c>
       <c r="M6" s="4" t="s">
         <v>200</v>
@@ -3514,21 +3978,21 @@
     </row>
     <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>265</v>
-      </c>
-      <c r="C7" s="31" t="s">
-        <v>261</v>
+        <v>355</v>
+      </c>
+      <c r="C7" s="38" t="s">
+        <v>346</v>
       </c>
       <c r="D7" s="31" t="str">
         <f>createAccount!$S$2</f>
         <v>Anchorage</v>
       </c>
-      <c r="E7" s="23">
+      <c r="E7" s="23" t="n">
         <f t="shared" ref="E7:E9" ca="1" si="0">TODAY()</f>
-        <v>44659</v>
+        <v>44664.0</v>
       </c>
       <c r="F7" s="4"/>
       <c r="G7" s="11" t="s">
@@ -3540,14 +4004,14 @@
       <c r="I7" s="4" t="s">
         <v>199</v>
       </c>
-      <c r="J7" s="23">
+      <c r="J7" s="23" t="n">
         <f t="shared" ref="J7:J9" ca="1" si="1">TODAY()</f>
-        <v>44659</v>
+        <v>44664.0</v>
       </c>
       <c r="K7" s="23"/>
-      <c r="L7" s="23">
+      <c r="L7" s="23" t="n">
         <f ca="1">searchValues!$E$2</f>
-        <v>44659</v>
+        <v>44664.0</v>
       </c>
       <c r="M7" s="4" t="s">
         <v>200</v>
@@ -3588,21 +4052,21 @@
     </row>
     <row r="8" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>265</v>
-      </c>
-      <c r="C8" s="31" t="s">
-        <v>261</v>
+        <v>355</v>
+      </c>
+      <c r="C8" s="38" t="s">
+        <v>346</v>
       </c>
       <c r="D8" s="31" t="str">
         <f>createAccount!$S$2</f>
         <v>Anchorage</v>
       </c>
-      <c r="E8" s="23">
+      <c r="E8" s="23" t="n">
         <f t="shared" ca="1" si="0"/>
-        <v>44659</v>
+        <v>44664.0</v>
       </c>
       <c r="F8" s="4"/>
       <c r="G8" s="11" t="s">
@@ -3614,14 +4078,14 @@
       <c r="I8" s="4" t="s">
         <v>199</v>
       </c>
-      <c r="J8" s="23">
+      <c r="J8" s="23" t="n">
         <f t="shared" ca="1" si="1"/>
-        <v>44659</v>
+        <v>44664.0</v>
       </c>
       <c r="K8" s="23"/>
-      <c r="L8" s="23">
+      <c r="L8" s="23" t="n">
         <f ca="1">searchValues!$E$2</f>
-        <v>44659</v>
+        <v>44664.0</v>
       </c>
       <c r="M8" s="4" t="s">
         <v>200</v>
@@ -3660,23 +4124,23 @@
       <c r="AH8" s="4"/>
       <c r="AI8" s="4"/>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:35" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>265</v>
-      </c>
-      <c r="C9" s="31" t="s">
-        <v>261</v>
+        <v>355</v>
+      </c>
+      <c r="C9" s="38" t="s">
+        <v>346</v>
       </c>
       <c r="D9" s="31" t="str">
         <f>createAccount!$S$2</f>
         <v>Anchorage</v>
       </c>
-      <c r="E9" s="23">
+      <c r="E9" s="23" t="n">
         <f t="shared" ca="1" si="0"/>
-        <v>44659</v>
+        <v>44664.0</v>
       </c>
       <c r="F9" s="4"/>
       <c r="G9" s="11" t="s">
@@ -3688,14 +4152,14 @@
       <c r="I9" s="4" t="s">
         <v>199</v>
       </c>
-      <c r="J9" s="23">
+      <c r="J9" s="23" t="n">
         <f t="shared" ca="1" si="1"/>
-        <v>44659</v>
+        <v>44664.0</v>
       </c>
       <c r="K9" s="23"/>
-      <c r="L9" s="23">
+      <c r="L9" s="23" t="n">
         <f ca="1">searchValues!$E$2</f>
-        <v>44659</v>
+        <v>44664.0</v>
       </c>
       <c r="M9" s="4" t="s">
         <v>200</v>
@@ -3734,23 +4198,23 @@
       <c r="AH9" s="4"/>
       <c r="AI9" s="4"/>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>265</v>
-      </c>
-      <c r="C10" s="31" t="s">
-        <v>261</v>
+        <v>355</v>
+      </c>
+      <c r="C10" s="38" t="s">
+        <v>346</v>
       </c>
       <c r="D10" s="31" t="str">
         <f>createAccount!$S$2</f>
         <v>Anchorage</v>
       </c>
-      <c r="E10" s="23">
-        <f ca="1">TODAY()</f>
-        <v>44659</v>
+      <c r="E10" s="23" t="n">
+        <f t="shared" ref="E10:E16" ca="1" si="2">TODAY()</f>
+        <v>44664.0</v>
       </c>
       <c r="F10" s="4"/>
       <c r="G10" s="11" t="s">
@@ -3762,14 +4226,14 @@
       <c r="I10" s="4" t="s">
         <v>199</v>
       </c>
-      <c r="J10" s="23">
-        <f ca="1">TODAY()</f>
-        <v>44659</v>
+      <c r="J10" s="23" t="n">
+        <f t="shared" ref="J10:J16" ca="1" si="3">TODAY()</f>
+        <v>44664.0</v>
       </c>
       <c r="K10" s="23"/>
-      <c r="L10" s="23">
+      <c r="L10" s="23" t="n">
         <f ca="1">searchValues!$E$2</f>
-        <v>44659</v>
+        <v>44664.0</v>
       </c>
       <c r="M10" s="4" t="s">
         <v>200</v>
@@ -3801,30 +4265,42 @@
       <c r="AA10" s="4"/>
       <c r="AB10" s="4"/>
       <c r="AC10" s="4"/>
-      <c r="AD10" s="4"/>
-      <c r="AE10" s="4"/>
-      <c r="AF10" s="4"/>
-      <c r="AG10" s="4"/>
-      <c r="AH10" s="4"/>
-      <c r="AI10" s="4"/>
-    </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AD10" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="AE10" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="AF10" s="4" t="s">
+        <v>307</v>
+      </c>
+      <c r="AG10" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="AH10" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="AI10" s="4" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="11" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="C11" s="38" t="s">
         <v>346</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>265</v>
-      </c>
-      <c r="C11" s="31" t="s">
-        <v>261</v>
       </c>
       <c r="D11" s="31" t="str">
         <f>createAccount!$S$2</f>
         <v>Anchorage</v>
       </c>
-      <c r="E11" s="23">
-        <f ca="1">TODAY()</f>
-        <v>44659</v>
+      <c r="E11" s="23" t="n">
+        <f t="shared" ca="1" si="2"/>
+        <v>44664.0</v>
       </c>
       <c r="F11" s="4"/>
       <c r="G11" s="11" t="s">
@@ -3836,14 +4312,14 @@
       <c r="I11" s="4" t="s">
         <v>199</v>
       </c>
-      <c r="J11" s="23">
-        <f ca="1">TODAY()</f>
-        <v>44659</v>
+      <c r="J11" s="23" t="n">
+        <f t="shared" ca="1" si="3"/>
+        <v>44664.0</v>
       </c>
       <c r="K11" s="23"/>
-      <c r="L11" s="23">
+      <c r="L11" s="23" t="n">
         <f ca="1">searchValues!$E$2</f>
-        <v>44659</v>
+        <v>44664.0</v>
       </c>
       <c r="M11" s="4" t="s">
         <v>200</v>
@@ -3875,49 +4351,61 @@
       <c r="AA11" s="4"/>
       <c r="AB11" s="4"/>
       <c r="AC11" s="4"/>
-      <c r="AD11" s="4"/>
-      <c r="AE11" s="4"/>
-      <c r="AF11" s="4"/>
-      <c r="AG11" s="4"/>
-      <c r="AH11" s="4"/>
-      <c r="AI11" s="4"/>
+      <c r="AD11" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="AE11" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="AF11" s="4" t="s">
+        <v>307</v>
+      </c>
+      <c r="AG11" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="AH11" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="AI11" s="4" t="s">
+        <v>365</v>
+      </c>
     </row>
     <row r="12" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>265</v>
-      </c>
-      <c r="C12" s="31" t="s">
-        <v>261</v>
+        <v>355</v>
+      </c>
+      <c r="C12" s="38" t="s">
+        <v>346</v>
       </c>
       <c r="D12" s="31" t="str">
         <f>createAccount!$S$2</f>
         <v>Anchorage</v>
       </c>
-      <c r="E12" s="23">
-        <f ca="1">TODAY()</f>
-        <v>44659</v>
+      <c r="E12" s="23" t="n">
+        <f t="shared" ca="1" si="2"/>
+        <v>44664.0</v>
       </c>
       <c r="F12" s="4"/>
       <c r="G12" s="11" t="s">
         <v>89</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="I12" s="4" t="s">
         <v>199</v>
       </c>
-      <c r="J12" s="23">
-        <f ca="1">TODAY()</f>
-        <v>44659</v>
+      <c r="J12" s="23" t="n">
+        <f t="shared" ca="1" si="3"/>
+        <v>44664.0</v>
       </c>
       <c r="K12" s="23"/>
-      <c r="L12" s="23">
+      <c r="L12" s="23" t="n">
         <f ca="1">searchValues!$E$2</f>
-        <v>44659</v>
+        <v>44664.0</v>
       </c>
       <c r="M12" s="4" t="s">
         <v>200</v>
@@ -3958,21 +4446,21 @@
     </row>
     <row r="13" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>265</v>
-      </c>
-      <c r="C13" s="31" t="s">
-        <v>261</v>
+        <v>355</v>
+      </c>
+      <c r="C13" s="38" t="s">
+        <v>346</v>
       </c>
       <c r="D13" s="31" t="str">
         <f>createAccount!$S$2</f>
         <v>Anchorage</v>
       </c>
-      <c r="E13" s="23">
-        <f ca="1">TODAY()</f>
-        <v>44659</v>
+      <c r="E13" s="23" t="n">
+        <f t="shared" ca="1" si="2"/>
+        <v>44664.0</v>
       </c>
       <c r="F13" s="4"/>
       <c r="G13" s="11" t="s">
@@ -3984,14 +4472,14 @@
       <c r="I13" s="4" t="s">
         <v>199</v>
       </c>
-      <c r="J13" s="23">
-        <f ca="1">TODAY()</f>
-        <v>44659</v>
+      <c r="J13" s="23" t="n">
+        <f t="shared" ca="1" si="3"/>
+        <v>44664.0</v>
       </c>
       <c r="K13" s="23"/>
-      <c r="L13" s="23">
+      <c r="L13" s="23" t="n">
         <f ca="1">searchValues!$E$2</f>
-        <v>44659</v>
+        <v>44664.0</v>
       </c>
       <c r="M13" s="4" t="s">
         <v>200</v>
@@ -4032,21 +4520,21 @@
     </row>
     <row r="14" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A14" s="37" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>265</v>
-      </c>
-      <c r="C14" s="31" t="s">
-        <v>261</v>
+        <v>355</v>
+      </c>
+      <c r="C14" s="38" t="s">
+        <v>346</v>
       </c>
       <c r="D14" s="31" t="str">
         <f>createAccount!$S$2</f>
         <v>Anchorage</v>
       </c>
-      <c r="E14" s="23">
-        <f ca="1">TODAY()</f>
-        <v>44659</v>
+      <c r="E14" s="23" t="n">
+        <f t="shared" ca="1" si="2"/>
+        <v>44664.0</v>
       </c>
       <c r="F14" s="4"/>
       <c r="G14" s="11" t="s">
@@ -4058,14 +4546,14 @@
       <c r="I14" s="4" t="s">
         <v>199</v>
       </c>
-      <c r="J14" s="23">
-        <f ca="1">TODAY()</f>
-        <v>44659</v>
+      <c r="J14" s="23" t="n">
+        <f t="shared" ca="1" si="3"/>
+        <v>44664.0</v>
       </c>
       <c r="K14" s="23"/>
-      <c r="L14" s="23">
+      <c r="L14" s="23" t="n">
         <f ca="1">searchValues!$E$2</f>
-        <v>44659</v>
+        <v>44664.0</v>
       </c>
       <c r="M14" s="4" t="s">
         <v>200</v>
@@ -4098,13 +4586,13 @@
       <c r="AB14" s="4"/>
       <c r="AC14" s="4"/>
       <c r="AD14" s="4" t="s">
-        <v>306</v>
+        <v>83</v>
       </c>
       <c r="AE14" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="AF14" s="4" t="s">
         <v>307</v>
-      </c>
-      <c r="AF14" s="4" t="s">
-        <v>308</v>
       </c>
       <c r="AG14" s="4" t="s">
         <v>93</v>
@@ -4112,7 +4600,181 @@
       <c r="AH14" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="AI14" s="4"/>
+      <c r="AI14" s="4" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="15" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="C15" s="38" t="s">
+        <v>346</v>
+      </c>
+      <c r="D15" s="31" t="str">
+        <f>createAccount!$S$2</f>
+        <v>Anchorage</v>
+      </c>
+      <c r="E15" s="23" t="n">
+        <f t="shared" ca="1" si="2"/>
+        <v>44664.0</v>
+      </c>
+      <c r="F15" s="4"/>
+      <c r="G15" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="I15" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="J15" s="23" t="n">
+        <f t="shared" ca="1" si="3"/>
+        <v>44664.0</v>
+      </c>
+      <c r="K15" s="23"/>
+      <c r="L15" s="23" t="n">
+        <f ca="1">searchValues!$E$2</f>
+        <v>44664.0</v>
+      </c>
+      <c r="M15" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="N15" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="O15" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="P15" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q15" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="R15" s="4" t="str">
+        <f>searchValues!$L$2</f>
+        <v>Alaska</v>
+      </c>
+      <c r="S15" s="4"/>
+      <c r="T15" s="4"/>
+      <c r="U15" s="4"/>
+      <c r="V15" s="4"/>
+      <c r="W15" s="4"/>
+      <c r="X15" s="4"/>
+      <c r="Y15" s="4"/>
+      <c r="Z15" s="4"/>
+      <c r="AA15" s="4"/>
+      <c r="AB15" s="4"/>
+      <c r="AC15" s="4"/>
+      <c r="AD15" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="AE15" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="AF15" s="4" t="s">
+        <v>307</v>
+      </c>
+      <c r="AG15" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="AH15" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="AI15" s="4" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="16" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>375</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="C16" s="38" t="s">
+        <v>346</v>
+      </c>
+      <c r="D16" s="31" t="str">
+        <f>createAccount!$S$2</f>
+        <v>Anchorage</v>
+      </c>
+      <c r="E16" s="23" t="n">
+        <f t="shared" ca="1" si="2"/>
+        <v>44664.0</v>
+      </c>
+      <c r="F16" s="4"/>
+      <c r="G16" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="I16" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="J16" s="23" t="n">
+        <f t="shared" ca="1" si="3"/>
+        <v>44664.0</v>
+      </c>
+      <c r="K16" s="23"/>
+      <c r="L16" s="23" t="n">
+        <f ca="1">searchValues!$E$2</f>
+        <v>44664.0</v>
+      </c>
+      <c r="M16" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="N16" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="O16" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="P16" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q16" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="R16" s="4" t="str">
+        <f>searchValues!$L$2</f>
+        <v>Alaska</v>
+      </c>
+      <c r="S16" s="4"/>
+      <c r="T16" s="4"/>
+      <c r="U16" s="4"/>
+      <c r="V16" s="4"/>
+      <c r="W16" s="4"/>
+      <c r="X16" s="4"/>
+      <c r="Y16" s="4"/>
+      <c r="Z16" s="4"/>
+      <c r="AA16" s="4"/>
+      <c r="AB16" s="4"/>
+      <c r="AC16" s="4"/>
+      <c r="AD16" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="AE16" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="AF16" s="4" t="s">
+        <v>307</v>
+      </c>
+      <c r="AG16" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="AH16" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="AI16" s="4" t="s">
+        <v>365</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4122,20 +4784,20 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB0DD098-A800-41FF-9A1F-DEB129534991}">
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="61.85546875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="14.85546875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="21.5703125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="13.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="22" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="21" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="61.85546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="14.85546875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="21.5703125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="13.7109375" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="22.0" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="21.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -4171,18 +4833,18 @@
       <c r="D2">
         <v>1000</v>
       </c>
-      <c r="E2" s="21">
-        <f t="shared" ref="E2:E14" ca="1" si="0">TODAY()</f>
-        <v>44659</v>
-      </c>
-      <c r="F2" s="21">
+      <c r="E2" s="21" t="n">
+        <f t="shared" ref="E2:E16" ca="1" si="0">TODAY()</f>
+        <v>44664.0</v>
+      </c>
+      <c r="F2" s="21" t="n">
         <f t="shared" ref="F2:F14" ca="1" si="1">EDATE(E2,12)</f>
-        <v>45024</v>
+        <v>45029.0</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B3" t="s">
         <v>202</v>
@@ -4193,18 +4855,18 @@
       <c r="D3">
         <v>1000</v>
       </c>
-      <c r="E3" s="21">
+      <c r="E3" s="21" t="n">
         <f t="shared" ca="1" si="0"/>
-        <v>44659</v>
-      </c>
-      <c r="F3" s="21">
+        <v>44664.0</v>
+      </c>
+      <c r="F3" s="21" t="n">
         <f t="shared" ca="1" si="1"/>
-        <v>45024</v>
+        <v>45029.0</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="B4" t="s">
         <v>202</v>
@@ -4215,18 +4877,18 @@
       <c r="D4">
         <v>1000</v>
       </c>
-      <c r="E4" s="21">
+      <c r="E4" s="21" t="n">
         <f t="shared" ca="1" si="0"/>
-        <v>44659</v>
-      </c>
-      <c r="F4" s="21">
+        <v>44664.0</v>
+      </c>
+      <c r="F4" s="21" t="n">
         <f t="shared" ca="1" si="1"/>
-        <v>45024</v>
+        <v>45029.0</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="B5" t="s">
         <v>202</v>
@@ -4237,18 +4899,18 @@
       <c r="D5">
         <v>1000</v>
       </c>
-      <c r="E5" s="21">
+      <c r="E5" s="21" t="n">
         <f t="shared" ca="1" si="0"/>
-        <v>44659</v>
-      </c>
-      <c r="F5" s="21">
+        <v>44664.0</v>
+      </c>
+      <c r="F5" s="21" t="n">
         <f t="shared" ca="1" si="1"/>
-        <v>45024</v>
+        <v>45029.0</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B6" t="s">
         <v>202</v>
@@ -4259,18 +4921,18 @@
       <c r="D6">
         <v>1000</v>
       </c>
-      <c r="E6" s="21">
+      <c r="E6" s="21" t="n">
         <f t="shared" ca="1" si="0"/>
-        <v>44659</v>
-      </c>
-      <c r="F6" s="21">
+        <v>44664.0</v>
+      </c>
+      <c r="F6" s="21" t="n">
         <f t="shared" ca="1" si="1"/>
-        <v>45024</v>
+        <v>45029.0</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B7" t="s">
         <v>202</v>
@@ -4281,18 +4943,18 @@
       <c r="D7">
         <v>1000</v>
       </c>
-      <c r="E7" s="21">
+      <c r="E7" s="21" t="n">
         <f t="shared" ca="1" si="0"/>
-        <v>44659</v>
-      </c>
-      <c r="F7" s="21">
+        <v>44664.0</v>
+      </c>
+      <c r="F7" s="21" t="n">
         <f t="shared" ca="1" si="1"/>
-        <v>45024</v>
+        <v>45029.0</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="B8" t="s">
         <v>202</v>
@@ -4303,18 +4965,18 @@
       <c r="D8">
         <v>1000</v>
       </c>
-      <c r="E8" s="21">
+      <c r="E8" s="21" t="n">
         <f t="shared" ca="1" si="0"/>
-        <v>44659</v>
-      </c>
-      <c r="F8" s="21">
+        <v>44664.0</v>
+      </c>
+      <c r="F8" s="21" t="n">
         <f t="shared" ca="1" si="1"/>
-        <v>45024</v>
+        <v>45029.0</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B9" t="s">
         <v>202</v>
@@ -4325,18 +4987,18 @@
       <c r="D9">
         <v>1000</v>
       </c>
-      <c r="E9" s="21">
+      <c r="E9" s="21" t="n">
         <f t="shared" ca="1" si="0"/>
-        <v>44659</v>
-      </c>
-      <c r="F9" s="21">
+        <v>44664.0</v>
+      </c>
+      <c r="F9" s="21" t="n">
         <f t="shared" ca="1" si="1"/>
-        <v>45024</v>
+        <v>45029.0</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B10" t="s">
         <v>202</v>
@@ -4347,18 +5009,18 @@
       <c r="D10">
         <v>1000</v>
       </c>
-      <c r="E10" s="21">
+      <c r="E10" s="21" t="n">
         <f t="shared" ca="1" si="0"/>
-        <v>44659</v>
-      </c>
-      <c r="F10" s="21">
+        <v>44664.0</v>
+      </c>
+      <c r="F10" s="21" t="n">
         <f t="shared" ca="1" si="1"/>
-        <v>45024</v>
+        <v>45029.0</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B11" t="s">
         <v>202</v>
@@ -4369,18 +5031,18 @@
       <c r="D11">
         <v>1000</v>
       </c>
-      <c r="E11" s="21">
+      <c r="E11" s="21" t="n">
         <f t="shared" ca="1" si="0"/>
-        <v>44659</v>
-      </c>
-      <c r="F11" s="21">
+        <v>44664.0</v>
+      </c>
+      <c r="F11" s="21" t="n">
         <f t="shared" ca="1" si="1"/>
-        <v>45024</v>
+        <v>45029.0</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B12" t="s">
         <v>202</v>
@@ -4391,18 +5053,18 @@
       <c r="D12">
         <v>1000</v>
       </c>
-      <c r="E12" s="21">
+      <c r="E12" s="21" t="n">
         <f t="shared" ca="1" si="0"/>
-        <v>44659</v>
-      </c>
-      <c r="F12" s="21">
+        <v>44664.0</v>
+      </c>
+      <c r="F12" s="21" t="n">
         <f t="shared" ca="1" si="1"/>
-        <v>45024</v>
+        <v>45029.0</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B13" t="s">
         <v>202</v>
@@ -4413,18 +5075,18 @@
       <c r="D13">
         <v>1000</v>
       </c>
-      <c r="E13" s="21">
+      <c r="E13" s="21" t="n">
         <f t="shared" ca="1" si="0"/>
-        <v>44659</v>
-      </c>
-      <c r="F13" s="21">
+        <v>44664.0</v>
+      </c>
+      <c r="F13" s="21" t="n">
         <f t="shared" ca="1" si="1"/>
-        <v>45024</v>
+        <v>45029.0</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B14" t="s">
         <v>202</v>
@@ -4435,41 +5097,86 @@
       <c r="D14">
         <v>1000</v>
       </c>
-      <c r="E14" s="21">
+      <c r="E14" s="21" t="n">
         <f t="shared" ca="1" si="0"/>
-        <v>44659</v>
-      </c>
-      <c r="F14" s="21">
+        <v>44664.0</v>
+      </c>
+      <c r="F14" s="21" t="n">
         <f t="shared" ca="1" si="1"/>
-        <v>45024</v>
+        <v>45029.0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>351</v>
+      </c>
+      <c r="B15" t="s">
+        <v>202</v>
+      </c>
+      <c r="C15" t="s">
+        <v>204</v>
+      </c>
+      <c r="D15">
+        <v>1000</v>
+      </c>
+      <c r="E15" s="21" t="n">
+        <f t="shared" ca="1" si="0"/>
+        <v>44664.0</v>
+      </c>
+      <c r="F15" s="21" t="n">
+        <f t="shared" ref="F15" ca="1" si="2">EDATE(E15,12)</f>
+        <v>45029.0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>375</v>
+      </c>
+      <c r="B16" t="s">
+        <v>202</v>
+      </c>
+      <c r="C16" t="s">
+        <v>204</v>
+      </c>
+      <c r="D16">
+        <v>1000</v>
+      </c>
+      <c r="E16" s="21" t="n">
+        <f t="shared" ca="1" si="0"/>
+        <v>44664.0</v>
+      </c>
+      <c r="F16" s="21" t="n">
+        <f t="shared" ref="F16" ca="1" si="3">EDATE(E16,12)</f>
+        <v>45029.0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61F68CBA-0482-47BB-872C-CF08A849DFDE}">
-  <dimension ref="A1:M14"/>
+  <dimension ref="A1:M16"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="64.140625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="23.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="16" customWidth="1" collapsed="1"/>
-    <col min="4" max="6" width="13.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="8.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="11.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="9.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="12.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="10.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="11" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="14" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="64.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="23.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="16.0" collapsed="true"/>
+    <col min="4" max="6" bestFit="true" customWidth="true" width="13.42578125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="8.5703125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="11.42578125" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="9.7109375" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="12.42578125" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="10.85546875" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
@@ -4529,7 +5236,7 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B3" s="16" t="s">
         <v>115</v>
@@ -4543,7 +5250,7 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="B4" s="16" t="s">
         <v>115</v>
@@ -4557,7 +5264,7 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="B5" s="16" t="s">
         <v>115</v>
@@ -4571,7 +5278,7 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B6" s="16" t="s">
         <v>115</v>
@@ -4585,7 +5292,7 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B7" s="16" t="s">
         <v>115</v>
@@ -4599,7 +5306,7 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="B8" s="16" t="s">
         <v>115</v>
@@ -4613,7 +5320,7 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B9" s="16" t="s">
         <v>115</v>
@@ -4627,7 +5334,7 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B10" s="16" t="s">
         <v>115</v>
@@ -4641,7 +5348,7 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B11" s="16" t="s">
         <v>115</v>
@@ -4655,7 +5362,7 @@
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B12" s="16" t="s">
         <v>115</v>
@@ -4669,7 +5376,7 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B13" s="16" t="s">
         <v>115</v>
@@ -4683,7 +5390,7 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B14" s="16" t="s">
         <v>115</v>
@@ -4692,6 +5399,34 @@
         <v>86</v>
       </c>
       <c r="I14" s="16" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>351</v>
+      </c>
+      <c r="B15" s="16" t="s">
+        <v>115</v>
+      </c>
+      <c r="C15" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="I15" s="16" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>375</v>
+      </c>
+      <c r="B16" s="16" t="s">
+        <v>115</v>
+      </c>
+      <c r="C16" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="I16" s="16" t="s">
         <v>93</v>
       </c>
     </row>
@@ -4702,23 +5437,23 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B38ACE15-3903-47FD-A871-433D6469AD12}">
-  <dimension ref="A1:J14"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="66" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="13.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="21.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="19.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="8.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="23" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="19.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="14.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="15.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="66.0" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="13.85546875" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="21.7109375" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="19.7109375" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="8.85546875" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="23.0" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="19.7109375" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="14.85546875" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="15.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -4781,7 +5516,7 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C3" t="s">
         <v>247</v>
@@ -4807,7 +5542,7 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="C4" t="s">
         <v>247</v>
@@ -4833,7 +5568,7 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="C5" t="s">
         <v>247</v>
@@ -4859,7 +5594,7 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C6" t="s">
         <v>247</v>
@@ -4885,7 +5620,7 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C7" t="s">
         <v>247</v>
@@ -4911,7 +5646,7 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C8" t="s">
         <v>247</v>
@@ -4937,7 +5672,7 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C9" t="s">
         <v>247</v>
@@ -4963,7 +5698,7 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C10" t="s">
         <v>247</v>
@@ -4989,7 +5724,7 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C11" t="s">
         <v>247</v>
@@ -5015,7 +5750,7 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C12" t="s">
         <v>247</v>
@@ -5041,7 +5776,7 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C13" t="s">
         <v>247</v>
@@ -5067,7 +5802,7 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C14" t="s">
         <v>247</v>
@@ -5088,6 +5823,58 @@
         <v>250</v>
       </c>
       <c r="J14" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>351</v>
+      </c>
+      <c r="C15" t="s">
+        <v>247</v>
+      </c>
+      <c r="D15" t="s">
+        <v>248</v>
+      </c>
+      <c r="E15" s="22">
+        <v>15000</v>
+      </c>
+      <c r="F15" s="24" t="s">
+        <v>249</v>
+      </c>
+      <c r="H15">
+        <v>2004</v>
+      </c>
+      <c r="I15" t="s">
+        <v>250</v>
+      </c>
+      <c r="J15" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>375</v>
+      </c>
+      <c r="C16" t="s">
+        <v>247</v>
+      </c>
+      <c r="D16" t="s">
+        <v>248</v>
+      </c>
+      <c r="E16" s="22">
+        <v>15000</v>
+      </c>
+      <c r="F16" s="24" t="s">
+        <v>249</v>
+      </c>
+      <c r="H16">
+        <v>2004</v>
+      </c>
+      <c r="I16" t="s">
+        <v>250</v>
+      </c>
+      <c r="J16" t="s">
         <v>251</v>
       </c>
     </row>
@@ -5098,15 +5885,15 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B574B5B2-B32E-4B4E-B177-C78C0E6DAD01}">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="60.140625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="60.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -5127,7 +5914,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B3" t="s">
         <v>93</v>
@@ -5135,7 +5922,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="B4" t="s">
         <v>93</v>
@@ -5143,7 +5930,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="B5" t="s">
         <v>93</v>
@@ -5151,7 +5938,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B6" t="s">
         <v>93</v>
@@ -5159,7 +5946,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B7" t="s">
         <v>93</v>
@@ -5167,7 +5954,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="B8" t="s">
         <v>93</v>
@@ -5175,7 +5962,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B9" t="s">
         <v>93</v>
@@ -5183,7 +5970,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B10" t="s">
         <v>93</v>
@@ -5191,7 +5978,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B11" t="s">
         <v>93</v>
@@ -5199,7 +5986,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B12" t="s">
         <v>93</v>
@@ -5207,7 +5994,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B13" t="s">
         <v>93</v>
@@ -5215,9 +6002,25 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B14" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>351</v>
+      </c>
+      <c r="B15" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>375</v>
+      </c>
+      <c r="B16" t="s">
         <v>93</v>
       </c>
     </row>
@@ -5228,20 +6031,20 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A00E2BA-236D-4894-B471-B31CF1AB681B}">
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="60.7109375" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="19.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="18.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="20.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="24.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="21.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="60.7109375" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="19.28515625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="18.85546875" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="20.7109375" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="24.140625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="21.42578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -5286,7 +6089,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B3" t="s">
         <v>252</v>
@@ -5306,7 +6109,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="B4" t="s">
         <v>252</v>
@@ -5326,7 +6129,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="B5" t="s">
         <v>252</v>
@@ -5346,7 +6149,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B6" t="s">
         <v>252</v>
@@ -5366,7 +6169,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B7" t="s">
         <v>252</v>
@@ -5386,7 +6189,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="B8" t="s">
         <v>252</v>
@@ -5406,7 +6209,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B9" t="s">
         <v>252</v>
@@ -5426,7 +6229,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B10" t="s">
         <v>252</v>
@@ -5446,7 +6249,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B11" t="s">
         <v>252</v>
@@ -5466,7 +6269,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B12" t="s">
         <v>252</v>
@@ -5486,7 +6289,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B13" t="s">
         <v>252</v>
@@ -5506,7 +6309,7 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B14" t="s">
         <v>252</v>
@@ -5521,6 +6324,46 @@
         <v>235</v>
       </c>
       <c r="F14" s="16" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>351</v>
+      </c>
+      <c r="B15" t="s">
+        <v>252</v>
+      </c>
+      <c r="C15" t="s">
+        <v>84</v>
+      </c>
+      <c r="D15" s="21">
+        <v>33001</v>
+      </c>
+      <c r="E15" t="s">
+        <v>235</v>
+      </c>
+      <c r="F15" s="16" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>375</v>
+      </c>
+      <c r="B16" t="s">
+        <v>252</v>
+      </c>
+      <c r="C16" t="s">
+        <v>84</v>
+      </c>
+      <c r="D16" s="21">
+        <v>33001</v>
+      </c>
+      <c r="E16" t="s">
+        <v>235</v>
+      </c>
+      <c r="F16" s="16" t="s">
         <v>93</v>
       </c>
     </row>
@@ -5531,24 +6374,24 @@
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89CC1748-4521-4A05-9CD5-139E4433B998}">
-  <dimension ref="A1:J14"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="62.42578125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="24.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="45.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11.5703125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="16" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="16.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="16.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="19" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="21.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="22.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="62.42578125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="24.85546875" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="45.140625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="11.5703125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="16.0" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="16.42578125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="16.5703125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="19.0" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="21.7109375" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="22.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -5601,17 +6444,17 @@
       <c r="F2" t="s">
         <v>198</v>
       </c>
-      <c r="G2" s="21">
+      <c r="G2" s="21" t="n">
         <f ca="1">CommercialAutoLine!$E$2</f>
-        <v>44659</v>
-      </c>
-      <c r="H2" s="21">
+        <v>44664.0</v>
+      </c>
+      <c r="H2" s="21" t="n">
         <f ca="1">CommercialAutoLine!$F$2</f>
-        <v>45024</v>
-      </c>
-      <c r="I2" s="21">
+        <v>45029.0</v>
+      </c>
+      <c r="I2" s="21" t="n">
         <f ca="1">CommercialAutoLine!$E$2</f>
-        <v>44659</v>
+        <v>44664.0</v>
       </c>
       <c r="J2" t="s">
         <v>260</v>
@@ -5619,7 +6462,7 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C3" s="25" t="s">
         <v>261</v>
@@ -5635,17 +6478,17 @@
       <c r="F3" t="s">
         <v>198</v>
       </c>
-      <c r="G3" s="21">
+      <c r="G3" s="21" t="n">
         <f ca="1">CommercialAutoLine!$E$2</f>
-        <v>44659</v>
-      </c>
-      <c r="H3" s="21">
+        <v>44664.0</v>
+      </c>
+      <c r="H3" s="21" t="n">
         <f ca="1">CommercialAutoLine!$F$2</f>
-        <v>45024</v>
-      </c>
-      <c r="I3" s="21">
+        <v>45029.0</v>
+      </c>
+      <c r="I3" s="21" t="n">
         <f ca="1">CommercialAutoLine!$E$2</f>
-        <v>44659</v>
+        <v>44664.0</v>
       </c>
       <c r="J3" t="s">
         <v>260</v>
@@ -5653,7 +6496,7 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="C4" s="25" t="s">
         <v>261</v>
@@ -5669,17 +6512,17 @@
       <c r="F4" t="s">
         <v>198</v>
       </c>
-      <c r="G4" s="21">
+      <c r="G4" s="21" t="n">
         <f ca="1">CommercialAutoLine!$E$2</f>
-        <v>44659</v>
-      </c>
-      <c r="H4" s="21">
+        <v>44664.0</v>
+      </c>
+      <c r="H4" s="21" t="n">
         <f ca="1">CommercialAutoLine!$F$2</f>
-        <v>45024</v>
-      </c>
-      <c r="I4" s="21">
+        <v>45029.0</v>
+      </c>
+      <c r="I4" s="21" t="n">
         <f ca="1">CommercialAutoLine!$E$2</f>
-        <v>44659</v>
+        <v>44664.0</v>
       </c>
       <c r="J4" t="s">
         <v>260</v>
@@ -5687,7 +6530,7 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="C5" s="25" t="s">
         <v>261</v>
@@ -5703,17 +6546,17 @@
       <c r="F5" t="s">
         <v>198</v>
       </c>
-      <c r="G5" s="21">
+      <c r="G5" s="21" t="n">
         <f ca="1">CommercialAutoLine!$E$2</f>
-        <v>44659</v>
-      </c>
-      <c r="H5" s="21">
+        <v>44664.0</v>
+      </c>
+      <c r="H5" s="21" t="n">
         <f ca="1">CommercialAutoLine!$F$2</f>
-        <v>45024</v>
-      </c>
-      <c r="I5" s="21">
+        <v>45029.0</v>
+      </c>
+      <c r="I5" s="21" t="n">
         <f ca="1">CommercialAutoLine!$E$2</f>
-        <v>44659</v>
+        <v>44664.0</v>
       </c>
       <c r="J5" t="s">
         <v>260</v>
@@ -5721,7 +6564,7 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C6" s="25" t="s">
         <v>261</v>
@@ -5737,17 +6580,17 @@
       <c r="F6" t="s">
         <v>198</v>
       </c>
-      <c r="G6" s="21">
+      <c r="G6" s="21" t="n">
         <f ca="1">CommercialAutoLine!$E$2</f>
-        <v>44659</v>
-      </c>
-      <c r="H6" s="21">
+        <v>44664.0</v>
+      </c>
+      <c r="H6" s="21" t="n">
         <f ca="1">CommercialAutoLine!$F$2</f>
-        <v>45024</v>
-      </c>
-      <c r="I6" s="21">
+        <v>45029.0</v>
+      </c>
+      <c r="I6" s="21" t="n">
         <f ca="1">CommercialAutoLine!$E$2</f>
-        <v>44659</v>
+        <v>44664.0</v>
       </c>
       <c r="J6" t="s">
         <v>260</v>
@@ -5755,7 +6598,7 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C7" s="25" t="s">
         <v>261</v>
@@ -5771,17 +6614,17 @@
       <c r="F7" t="s">
         <v>198</v>
       </c>
-      <c r="G7" s="21">
+      <c r="G7" s="21" t="n">
         <f ca="1">CommercialAutoLine!$E$2</f>
-        <v>44659</v>
-      </c>
-      <c r="H7" s="21">
+        <v>44664.0</v>
+      </c>
+      <c r="H7" s="21" t="n">
         <f ca="1">CommercialAutoLine!$F$2</f>
-        <v>45024</v>
-      </c>
-      <c r="I7" s="21">
+        <v>45029.0</v>
+      </c>
+      <c r="I7" s="21" t="n">
         <f ca="1">CommercialAutoLine!$E$2</f>
-        <v>44659</v>
+        <v>44664.0</v>
       </c>
       <c r="J7" t="s">
         <v>260</v>
@@ -5789,7 +6632,7 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C8" s="25" t="s">
         <v>261</v>
@@ -5805,17 +6648,17 @@
       <c r="F8" t="s">
         <v>198</v>
       </c>
-      <c r="G8" s="21">
+      <c r="G8" s="21" t="n">
         <f ca="1">CommercialAutoLine!$E$2</f>
-        <v>44659</v>
-      </c>
-      <c r="H8" s="21">
+        <v>44664.0</v>
+      </c>
+      <c r="H8" s="21" t="n">
         <f ca="1">CommercialAutoLine!$F$2</f>
-        <v>45024</v>
-      </c>
-      <c r="I8" s="21">
+        <v>45029.0</v>
+      </c>
+      <c r="I8" s="21" t="n">
         <f ca="1">CommercialAutoLine!$E$2</f>
-        <v>44659</v>
+        <v>44664.0</v>
       </c>
       <c r="J8" t="s">
         <v>260</v>
@@ -5823,7 +6666,7 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C9" s="25" t="s">
         <v>261</v>
@@ -5839,17 +6682,17 @@
       <c r="F9" t="s">
         <v>198</v>
       </c>
-      <c r="G9" s="21">
+      <c r="G9" s="21" t="n">
         <f ca="1">CommercialAutoLine!$E$2</f>
-        <v>44659</v>
-      </c>
-      <c r="H9" s="21">
+        <v>44664.0</v>
+      </c>
+      <c r="H9" s="21" t="n">
         <f ca="1">CommercialAutoLine!$F$2</f>
-        <v>45024</v>
-      </c>
-      <c r="I9" s="21">
+        <v>45029.0</v>
+      </c>
+      <c r="I9" s="21" t="n">
         <f ca="1">CommercialAutoLine!$E$2</f>
-        <v>44659</v>
+        <v>44664.0</v>
       </c>
       <c r="J9" t="s">
         <v>260</v>
@@ -5857,7 +6700,7 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C10" s="25" t="s">
         <v>261</v>
@@ -5873,17 +6716,17 @@
       <c r="F10" t="s">
         <v>198</v>
       </c>
-      <c r="G10" s="21">
+      <c r="G10" s="21" t="n">
         <f ca="1">CommercialAutoLine!$E$2</f>
-        <v>44659</v>
-      </c>
-      <c r="H10" s="21">
+        <v>44664.0</v>
+      </c>
+      <c r="H10" s="21" t="n">
         <f ca="1">CommercialAutoLine!$F$2</f>
-        <v>45024</v>
-      </c>
-      <c r="I10" s="21">
+        <v>45029.0</v>
+      </c>
+      <c r="I10" s="21" t="n">
         <f ca="1">CommercialAutoLine!$E$2</f>
-        <v>44659</v>
+        <v>44664.0</v>
       </c>
       <c r="J10" t="s">
         <v>260</v>
@@ -5891,7 +6734,7 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C11" s="25" t="s">
         <v>261</v>
@@ -5907,17 +6750,17 @@
       <c r="F11" t="s">
         <v>198</v>
       </c>
-      <c r="G11" s="21">
+      <c r="G11" s="21" t="n">
         <f ca="1">CommercialAutoLine!$E$2</f>
-        <v>44659</v>
-      </c>
-      <c r="H11" s="21">
+        <v>44664.0</v>
+      </c>
+      <c r="H11" s="21" t="n">
         <f ca="1">CommercialAutoLine!$F$2</f>
-        <v>45024</v>
-      </c>
-      <c r="I11" s="21">
+        <v>45029.0</v>
+      </c>
+      <c r="I11" s="21" t="n">
         <f ca="1">CommercialAutoLine!$E$2</f>
-        <v>44659</v>
+        <v>44664.0</v>
       </c>
       <c r="J11" t="s">
         <v>260</v>
@@ -5925,7 +6768,7 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C12" s="25" t="s">
         <v>261</v>
@@ -5941,17 +6784,17 @@
       <c r="F12" t="s">
         <v>198</v>
       </c>
-      <c r="G12" s="21">
+      <c r="G12" s="21" t="n">
         <f ca="1">CommercialAutoLine!$E$2</f>
-        <v>44659</v>
-      </c>
-      <c r="H12" s="21">
+        <v>44664.0</v>
+      </c>
+      <c r="H12" s="21" t="n">
         <f ca="1">CommercialAutoLine!$F$2</f>
-        <v>45024</v>
-      </c>
-      <c r="I12" s="21">
+        <v>45029.0</v>
+      </c>
+      <c r="I12" s="21" t="n">
         <f ca="1">CommercialAutoLine!$E$2</f>
-        <v>44659</v>
+        <v>44664.0</v>
       </c>
       <c r="J12" t="s">
         <v>260</v>
@@ -5959,7 +6802,7 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C13" s="25" t="s">
         <v>261</v>
@@ -5975,17 +6818,17 @@
       <c r="F13" t="s">
         <v>198</v>
       </c>
-      <c r="G13" s="21">
+      <c r="G13" s="21" t="n">
         <f ca="1">CommercialAutoLine!$E$2</f>
-        <v>44659</v>
-      </c>
-      <c r="H13" s="21">
+        <v>44664.0</v>
+      </c>
+      <c r="H13" s="21" t="n">
         <f ca="1">CommercialAutoLine!$F$2</f>
-        <v>45024</v>
-      </c>
-      <c r="I13" s="21">
+        <v>45029.0</v>
+      </c>
+      <c r="I13" s="21" t="n">
         <f ca="1">CommercialAutoLine!$E$2</f>
-        <v>44659</v>
+        <v>44664.0</v>
       </c>
       <c r="J13" t="s">
         <v>260</v>
@@ -5993,7 +6836,7 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C14" s="25" t="s">
         <v>261</v>
@@ -6009,19 +6852,87 @@
       <c r="F14" t="s">
         <v>198</v>
       </c>
-      <c r="G14" s="21">
+      <c r="G14" s="21" t="n">
         <f ca="1">CommercialAutoLine!$E$2</f>
-        <v>44659</v>
-      </c>
-      <c r="H14" s="21">
+        <v>44664.0</v>
+      </c>
+      <c r="H14" s="21" t="n">
         <f ca="1">CommercialAutoLine!$F$2</f>
-        <v>45024</v>
-      </c>
-      <c r="I14" s="21">
+        <v>45029.0</v>
+      </c>
+      <c r="I14" s="21" t="n">
         <f ca="1">CommercialAutoLine!$E$2</f>
-        <v>44659</v>
+        <v>44664.0</v>
       </c>
       <c r="J14" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>351</v>
+      </c>
+      <c r="C15" s="25" t="s">
+        <v>261</v>
+      </c>
+      <c r="D15" t="str">
+        <f>createAccount!$S$2</f>
+        <v>Anchorage</v>
+      </c>
+      <c r="E15" t="str">
+        <f>createAccount!$W$2</f>
+        <v>Home</v>
+      </c>
+      <c r="F15" t="s">
+        <v>198</v>
+      </c>
+      <c r="G15" s="21" t="n">
+        <f ca="1">CommercialAutoLine!$E$2</f>
+        <v>44664.0</v>
+      </c>
+      <c r="H15" s="21" t="n">
+        <f ca="1">CommercialAutoLine!$F$2</f>
+        <v>45029.0</v>
+      </c>
+      <c r="I15" s="21" t="n">
+        <f ca="1">CommercialAutoLine!$E$2</f>
+        <v>44664.0</v>
+      </c>
+      <c r="J15" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>375</v>
+      </c>
+      <c r="C16" s="25" t="s">
+        <v>261</v>
+      </c>
+      <c r="D16" t="str">
+        <f>createAccount!$S$2</f>
+        <v>Anchorage</v>
+      </c>
+      <c r="E16" t="str">
+        <f>createAccount!$W$2</f>
+        <v>Home</v>
+      </c>
+      <c r="F16" t="s">
+        <v>198</v>
+      </c>
+      <c r="G16" s="21" t="n">
+        <f ca="1">CommercialAutoLine!$E$2</f>
+        <v>44664.0</v>
+      </c>
+      <c r="H16" s="21" t="n">
+        <f ca="1">CommercialAutoLine!$F$2</f>
+        <v>45029.0</v>
+      </c>
+      <c r="I16" s="21" t="n">
+        <f ca="1">CommercialAutoLine!$E$2</f>
+        <v>44664.0</v>
+      </c>
+      <c r="J16" t="s">
         <v>260</v>
       </c>
     </row>
@@ -6041,14 +6952,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="31.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="34.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="17.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="9.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="16.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="13.42578125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="31.140625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="34.5703125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="10.28515625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="17.42578125" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="9.85546875" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="16.7109375" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="15.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -7054,24 +7965,24 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FF1A5D0-5ECC-4081-B88A-7E558A8CF5D0}">
-  <dimension ref="A1:Z14"/>
+  <dimension ref="A1:Z16"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="59.85546875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="45.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="11" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="16.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="22.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="24.85546875" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="27.42578125" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="28.140625" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="21.28515625" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="21.140625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="59.85546875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="45.140625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="16.28515625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="22.42578125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="24.85546875" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="27.42578125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="28.140625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="21.28515625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="21.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.25">
@@ -7091,16 +8002,16 @@
         <v>258</v>
       </c>
       <c r="F1" s="9" t="s">
+        <v>330</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>331</v>
+      </c>
+      <c r="H1" s="9" t="s">
         <v>332</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="I1" s="9" t="s">
         <v>333</v>
-      </c>
-      <c r="H1" s="9" t="s">
-        <v>334</v>
-      </c>
-      <c r="I1" s="9" t="s">
-        <v>335</v>
       </c>
       <c r="J1" s="9"/>
       <c r="K1" s="9"/>
@@ -7141,7 +8052,7 @@
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B3" s="25" t="s">
         <v>261</v>
@@ -7160,7 +8071,7 @@
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="B4" s="25" t="s">
         <v>261</v>
@@ -7177,21 +8088,21 @@
         <v>260</v>
       </c>
       <c r="F4" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="G4" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="H4" t="s">
+        <v>339</v>
+      </c>
+      <c r="I4" s="16" t="s">
         <v>342</v>
-      </c>
-      <c r="I4" s="16" t="s">
-        <v>345</v>
       </c>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="B5" s="25" t="s">
         <v>261</v>
@@ -7210,7 +8121,7 @@
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="B6" s="25" t="s">
         <v>261</v>
@@ -7229,7 +8140,7 @@
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B7" s="25" t="s">
         <v>261</v>
@@ -7248,7 +8159,7 @@
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B8" s="25" t="s">
         <v>261</v>
@@ -7267,7 +8178,7 @@
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B9" s="25" t="s">
         <v>261</v>
@@ -7286,7 +8197,7 @@
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B10" s="25" t="s">
         <v>261</v>
@@ -7305,7 +8216,7 @@
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B11" s="25" t="s">
         <v>261</v>
@@ -7324,7 +8235,7 @@
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B12" s="25" t="s">
         <v>261</v>
@@ -7343,7 +8254,7 @@
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B13" s="25" t="s">
         <v>261</v>
@@ -7362,7 +8273,7 @@
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B14" s="25" t="s">
         <v>261</v>
@@ -7376,6 +8287,44 @@
         <v>Home</v>
       </c>
       <c r="E14" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>351</v>
+      </c>
+      <c r="B15" s="25" t="s">
+        <v>261</v>
+      </c>
+      <c r="C15" t="str">
+        <f>createAccount!$S$2</f>
+        <v>Anchorage</v>
+      </c>
+      <c r="D15" t="str">
+        <f>createAccount!$W$2</f>
+        <v>Home</v>
+      </c>
+      <c r="E15" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>375</v>
+      </c>
+      <c r="B16" s="25" t="s">
+        <v>261</v>
+      </c>
+      <c r="C16" t="str">
+        <f>createAccount!$S$2</f>
+        <v>Anchorage</v>
+      </c>
+      <c r="D16" t="str">
+        <f>createAccount!$W$2</f>
+        <v>Home</v>
+      </c>
+      <c r="E16" t="s">
         <v>260</v>
       </c>
     </row>
@@ -7395,9 +8344,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="63.85546875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="27" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="55.7109375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="63.85546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="27.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="55.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -7405,21 +8354,21 @@
         <v>2</v>
       </c>
       <c r="B1" s="35" t="s">
+        <v>291</v>
+      </c>
+      <c r="C1" s="28" t="s">
         <v>292</v>
-      </c>
-      <c r="C1" s="28" t="s">
-        <v>293</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B2" s="29" t="s">
+        <v>293</v>
+      </c>
+      <c r="C2" t="s">
         <v>294</v>
-      </c>
-      <c r="C2" t="s">
-        <v>295</v>
       </c>
     </row>
   </sheetData>
@@ -7438,14 +8387,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="61.42578125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="21.85546875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="24" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="25.42578125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="33.5703125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="40.42578125" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="27.42578125" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="36.42578125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="61.42578125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="21.85546875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="24.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="25.42578125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="33.5703125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="40.42578125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="27.42578125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="36.42578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -7453,86 +8402,86 @@
         <v>2</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E1" s="9" t="s">
+        <v>275</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>269</v>
+      </c>
+      <c r="G1" s="9" t="s">
         <v>276</v>
       </c>
-      <c r="F1" s="9" t="s">
-        <v>270</v>
-      </c>
-      <c r="G1" s="9" t="s">
-        <v>277</v>
-      </c>
       <c r="H1" s="9" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>266</v>
+      </c>
+      <c r="B2" t="s">
         <v>267</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>268</v>
       </c>
-      <c r="C2" t="s">
-        <v>269</v>
-      </c>
       <c r="D2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F2" s="26"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B3" t="s">
+        <v>267</v>
+      </c>
+      <c r="C3" t="s">
         <v>268</v>
       </c>
-      <c r="C3" t="s">
-        <v>269</v>
-      </c>
       <c r="D3" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F3" s="26" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>277</v>
+      </c>
+      <c r="B4" t="s">
         <v>278</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>279</v>
       </c>
-      <c r="C4" t="s">
-        <v>280</v>
-      </c>
       <c r="D4" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F4" s="26"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="B5" t="s">
+        <v>278</v>
+      </c>
+      <c r="C5" t="s">
         <v>279</v>
       </c>
-      <c r="C5" t="s">
-        <v>280</v>
-      </c>
       <c r="D5" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F5" s="26"/>
     </row>
@@ -7543,58 +8492,84 @@
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D17E820-FB58-4872-8A91-12947C87C96F}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="72.7109375" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="26.7109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="25" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="18.140625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="18.28515625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="72.7109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="26.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="25.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="22.28515625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>2</v>
       </c>
       <c r="B1" s="9" t="s">
+        <v>384</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>328</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>329</v>
       </c>
-      <c r="C1" s="10" t="s">
-        <v>330</v>
-      </c>
-      <c r="D1" s="10" t="s">
-        <v>337</v>
-      </c>
-      <c r="E1" s="10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>331</v>
-      </c>
       <c r="B2" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="C2" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>334</v>
+      </c>
+      <c r="B3" t="s">
+        <v>335</v>
+      </c>
+      <c r="D3" t="s">
         <v>336</v>
       </c>
-      <c r="D3" t="s">
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>343</v>
+      </c>
+      <c r="B4" t="s">
+        <v>335</v>
+      </c>
+      <c r="D4" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>277</v>
+      </c>
+      <c r="B5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>308</v>
+      </c>
+      <c r="B6" t="s">
         <v>338</v>
       </c>
-      <c r="E3" t="s">
-        <v>339</v>
+      <c r="D6" t="s">
+        <v>363</v>
       </c>
     </row>
   </sheetData>
@@ -7612,11 +8587,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="63.5703125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="27" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="29.28515625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="23.42578125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="26.7109375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="63.5703125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="27.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="29.28515625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="23.42578125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="26.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -7638,10 +8613,10 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>296</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>297</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="4"/>
@@ -7655,19 +8630,19 @@
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13BE2706-B698-46E7-9B67-C3E7867EA9B5}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="63.85546875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="27.42578125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="27.140625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="27.5703125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="22.140625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="63.85546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="27.42578125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="27.140625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="27.5703125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="22.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -7675,45 +8650,84 @@
         <v>2</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>326</v>
-      </c>
-      <c r="D1" s="10"/>
+        <v>325</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>350</v>
+      </c>
       <c r="E1" s="10"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C2" s="26">
-        <v>44693</v>
-      </c>
+        <v>44846</v>
+      </c>
+      <c r="D2" s="26"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B3" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C3" s="26">
-        <v>44693</v>
+        <v>44846</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="B4" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C4" s="26">
-        <v>44693</v>
+        <v>44846</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="B5" t="s">
+        <v>297</v>
+      </c>
+      <c r="C5" s="26">
+        <v>44846</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="B6" t="s">
+        <v>297</v>
+      </c>
+      <c r="C6" s="26">
+        <v>44846</v>
+      </c>
+      <c r="D6" s="26">
+        <v>44718</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="B7" t="s">
+        <v>297</v>
+      </c>
+      <c r="C7" s="26">
+        <v>44846</v>
       </c>
     </row>
   </sheetData>
@@ -7726,19 +8740,19 @@
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="68.85546875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="27.28515625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="32.28515625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="28.7109375" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="30.28515625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="40.7109375" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="38.5703125" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="33.140625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="68.85546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="27.28515625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="32.28515625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="28.7109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="30.28515625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="40.7109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="38.5703125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="33.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -7746,69 +8760,106 @@
         <v>2</v>
       </c>
       <c r="B1" s="9" t="s">
+        <v>281</v>
+      </c>
+      <c r="C1" s="9" t="s">
         <v>282</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="D1" s="9" t="s">
         <v>283</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="E1" s="9" t="s">
         <v>284</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="F1" s="27" t="s">
         <v>285</v>
       </c>
-      <c r="F1" s="27" t="s">
+      <c r="G1" s="27" t="s">
         <v>286</v>
       </c>
-      <c r="G1" s="27" t="s">
+      <c r="H1" s="27" t="s">
         <v>287</v>
-      </c>
-      <c r="H1" s="27" t="s">
-        <v>288</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="G2" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="H2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="G3" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="H3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="G4" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="H4" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="G5" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="H5" t="s">
-        <v>289</v>
+        <v>288</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80FFC817-82F3-457F-A8F8-31F50B8E6259}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" width="63.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="26.42578125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="46.42578125" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>347</v>
+      </c>
+      <c r="C1" s="9"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>343</v>
+      </c>
+      <c r="B2" t="s">
+        <v>348</v>
       </c>
     </row>
   </sheetData>
@@ -7818,20 +8869,20 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="71.140625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="14.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="17" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="16.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="15.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="71.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="14.28515625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="13.7109375" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="17.0" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="16.140625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="15.85546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -7916,7 +8967,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>0</v>
@@ -7936,7 +8987,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>0</v>
@@ -7956,7 +9007,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>0</v>
@@ -7976,7 +9027,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>0</v>
@@ -7996,7 +9047,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>0</v>
@@ -8016,7 +9067,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>0</v>
@@ -8036,7 +9087,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>0</v>
@@ -8056,7 +9107,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>0</v>
@@ -8076,7 +9127,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>0</v>
@@ -8096,7 +9147,7 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>0</v>
@@ -8116,7 +9167,7 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>0</v>
@@ -8136,7 +9187,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>0</v>
@@ -8156,7 +9207,7 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>0</v>
@@ -8175,12 +9226,64 @@
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="1"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
+      <c r="A18" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>92</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -8190,49 +9293,50 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB3520C8-D792-4977-99E0-C45876A8E20A}">
-  <dimension ref="A1:AF14"/>
+  <dimension ref="A1:AL23"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="N1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="X5" sqref="X5"/>
+    <sheetView showGridLines="0" topLeftCell="Y1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AF4" sqref="AF4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="61.140625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="13.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="13.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="28.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="23.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="23.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="15.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="16.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="17.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="16.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="18.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="18.140625" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="13.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="25" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="12.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="11.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="10.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="12.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="9.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="16" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="20.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="12.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="32.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="18.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="15.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="29" max="29" width="21.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="30" max="30" width="20.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="31" max="31" width="24.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="61.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="10.42578125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="13.5703125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="13.140625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="28.42578125" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="23.85546875" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="23.42578125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="15.5703125" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="15.0" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="16.5703125" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="17.28515625" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="16.28515625" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="18.7109375" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="18.140625" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="13.5703125" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" width="25.0" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="12.5703125" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="11.42578125" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="10.42578125" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="12.42578125" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="9.7109375" collapsed="true"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="16.0" collapsed="true"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="20.7109375" collapsed="true"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" width="12.7109375" collapsed="true"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" width="32.7109375" collapsed="true"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="18.28515625" collapsed="true"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" width="15.7109375" collapsed="true"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" width="21.7109375" collapsed="true"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" width="20.28515625" collapsed="true"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" width="24.5703125" collapsed="true"/>
+    <col min="32" max="32" customWidth="true" width="17.5703125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" s="13" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:38" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>2</v>
       </c>
@@ -8326,8 +9430,15 @@
       <c r="AE1" s="10" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="2" spans="1:32" s="4" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AF1" s="10" t="s">
+        <v>368</v>
+      </c>
+      <c r="AG1" s="10"/>
+      <c r="AH1" s="10"/>
+      <c r="AI1" s="10"/>
+      <c r="AJ1" s="10"/>
+    </row>
+    <row r="2" spans="1:38" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>125</v>
       </c>
@@ -8409,20 +9520,20 @@
       <c r="AB2" s="15">
         <v>2015551002</v>
       </c>
-      <c r="AC2" s="38" t="s">
+      <c r="AC2" s="40" t="s">
         <v>200</v>
       </c>
-      <c r="AD2" s="38" t="s">
-        <v>349</v>
-      </c>
-      <c r="AE2" s="38" t="s">
-        <v>350</v>
-      </c>
-      <c r="AF2"/>
-    </row>
-    <row r="3" spans="1:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AD2" s="40" t="s">
+        <v>344</v>
+      </c>
+      <c r="AE2" s="40" t="s">
+        <v>345</v>
+      </c>
+      <c r="AK2" s="39"/>
+    </row>
+    <row r="3" spans="1:38" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>156</v>
@@ -8502,19 +9613,24 @@
       <c r="AB3" s="15">
         <v>2015551002</v>
       </c>
-      <c r="AC3" s="38" t="s">
+      <c r="AC3" s="40" t="s">
         <v>200</v>
       </c>
-      <c r="AD3" s="38" t="s">
-        <v>349</v>
-      </c>
-      <c r="AE3" s="38" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="4" spans="1:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AD3" s="40" t="s">
+        <v>344</v>
+      </c>
+      <c r="AE3" s="40" t="s">
+        <v>345</v>
+      </c>
+      <c r="AF3" s="4"/>
+      <c r="AG3" s="4"/>
+      <c r="AH3" s="4"/>
+      <c r="AI3" s="4"/>
+      <c r="AJ3" s="4"/>
+    </row>
+    <row r="4" spans="1:38" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>156</v>
@@ -8594,19 +9710,24 @@
       <c r="AB4" s="15">
         <v>2015551002</v>
       </c>
-      <c r="AC4" s="38" t="s">
+      <c r="AC4" s="40" t="s">
         <v>200</v>
       </c>
-      <c r="AD4" s="38" t="s">
-        <v>349</v>
-      </c>
-      <c r="AE4" s="38" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="5" spans="1:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AD4" s="40" t="s">
+        <v>344</v>
+      </c>
+      <c r="AE4" s="40" t="s">
+        <v>345</v>
+      </c>
+      <c r="AF4" s="4"/>
+      <c r="AG4" s="4"/>
+      <c r="AH4" s="4"/>
+      <c r="AI4" s="4"/>
+      <c r="AJ4" s="4"/>
+    </row>
+    <row r="5" spans="1:38" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>156</v>
@@ -8686,19 +9807,24 @@
       <c r="AB5" s="15">
         <v>2015551002</v>
       </c>
-      <c r="AC5" s="38" t="s">
+      <c r="AC5" s="40" t="s">
         <v>200</v>
       </c>
-      <c r="AD5" s="38" t="s">
-        <v>349</v>
-      </c>
-      <c r="AE5" s="38" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="6" spans="1:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AD5" s="40" t="s">
+        <v>344</v>
+      </c>
+      <c r="AE5" s="40" t="s">
+        <v>345</v>
+      </c>
+      <c r="AF5" s="4"/>
+      <c r="AG5" s="4"/>
+      <c r="AH5" s="4"/>
+      <c r="AI5" s="4"/>
+      <c r="AJ5" s="4"/>
+    </row>
+    <row r="6" spans="1:38" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>156</v>
@@ -8778,19 +9904,24 @@
       <c r="AB6" s="15">
         <v>2015551002</v>
       </c>
-      <c r="AC6" s="38" t="s">
+      <c r="AC6" s="40" t="s">
         <v>200</v>
       </c>
-      <c r="AD6" s="38" t="s">
-        <v>349</v>
-      </c>
-      <c r="AE6" s="38" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="7" spans="1:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AD6" s="40" t="s">
+        <v>344</v>
+      </c>
+      <c r="AE6" s="40" t="s">
+        <v>345</v>
+      </c>
+      <c r="AF6" s="4"/>
+      <c r="AG6" s="4"/>
+      <c r="AH6" s="4"/>
+      <c r="AI6" s="4"/>
+      <c r="AJ6" s="4"/>
+    </row>
+    <row r="7" spans="1:38" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>156</v>
@@ -8870,19 +10001,24 @@
       <c r="AB7" s="15">
         <v>2015551002</v>
       </c>
-      <c r="AC7" s="38" t="s">
+      <c r="AC7" s="40" t="s">
         <v>200</v>
       </c>
-      <c r="AD7" s="38" t="s">
-        <v>349</v>
-      </c>
-      <c r="AE7" s="38" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="8" spans="1:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AD7" s="40" t="s">
+        <v>344</v>
+      </c>
+      <c r="AE7" s="40" t="s">
+        <v>345</v>
+      </c>
+      <c r="AF7" s="4"/>
+      <c r="AG7" s="4"/>
+      <c r="AH7" s="4"/>
+      <c r="AI7" s="4"/>
+      <c r="AJ7" s="4"/>
+    </row>
+    <row r="8" spans="1:38" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>156</v>
@@ -8962,19 +10098,24 @@
       <c r="AB8" s="15">
         <v>2015551002</v>
       </c>
-      <c r="AC8" s="38" t="s">
+      <c r="AC8" s="40" t="s">
         <v>200</v>
       </c>
-      <c r="AD8" s="38" t="s">
-        <v>349</v>
-      </c>
-      <c r="AE8" s="38" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="9" spans="1:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AD8" s="40" t="s">
+        <v>344</v>
+      </c>
+      <c r="AE8" s="40" t="s">
+        <v>345</v>
+      </c>
+      <c r="AF8" s="4"/>
+      <c r="AG8" s="4"/>
+      <c r="AH8" s="4"/>
+      <c r="AI8" s="4"/>
+      <c r="AJ8" s="4"/>
+    </row>
+    <row r="9" spans="1:38" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>156</v>
@@ -9054,19 +10195,24 @@
       <c r="AB9" s="15">
         <v>2015551002</v>
       </c>
-      <c r="AC9" s="38" t="s">
+      <c r="AC9" s="40" t="s">
         <v>200</v>
       </c>
-      <c r="AD9" s="38" t="s">
-        <v>349</v>
-      </c>
-      <c r="AE9" s="38" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="10" spans="1:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AD9" s="40" t="s">
+        <v>344</v>
+      </c>
+      <c r="AE9" s="40" t="s">
+        <v>345</v>
+      </c>
+      <c r="AF9" s="4"/>
+      <c r="AG9" s="4"/>
+      <c r="AH9" s="4"/>
+      <c r="AI9" s="4"/>
+      <c r="AJ9" s="4"/>
+    </row>
+    <row r="10" spans="1:38" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>156</v>
@@ -9146,19 +10292,24 @@
       <c r="AB10" s="15">
         <v>2015551002</v>
       </c>
-      <c r="AC10" s="38" t="s">
+      <c r="AC10" s="40" t="s">
         <v>200</v>
       </c>
-      <c r="AD10" s="38" t="s">
-        <v>349</v>
-      </c>
-      <c r="AE10" s="38" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="11" spans="1:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AD10" s="40" t="s">
+        <v>344</v>
+      </c>
+      <c r="AE10" s="40" t="s">
+        <v>345</v>
+      </c>
+      <c r="AF10" s="4"/>
+      <c r="AG10" s="4"/>
+      <c r="AH10" s="4"/>
+      <c r="AI10" s="4"/>
+      <c r="AJ10" s="4"/>
+    </row>
+    <row r="11" spans="1:38" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>156</v>
@@ -9238,19 +10389,24 @@
       <c r="AB11" s="15">
         <v>2015551002</v>
       </c>
-      <c r="AC11" s="38" t="s">
+      <c r="AC11" s="40" t="s">
         <v>200</v>
       </c>
-      <c r="AD11" s="38" t="s">
-        <v>349</v>
-      </c>
-      <c r="AE11" s="38" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="12" spans="1:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AD11" s="40" t="s">
+        <v>344</v>
+      </c>
+      <c r="AE11" s="40" t="s">
+        <v>345</v>
+      </c>
+      <c r="AF11" s="4"/>
+      <c r="AG11" s="4"/>
+      <c r="AH11" s="4"/>
+      <c r="AI11" s="4"/>
+      <c r="AJ11" s="4"/>
+    </row>
+    <row r="12" spans="1:38" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>156</v>
@@ -9330,19 +10486,24 @@
       <c r="AB12" s="15">
         <v>2015551002</v>
       </c>
-      <c r="AC12" s="38" t="s">
+      <c r="AC12" s="40" t="s">
         <v>200</v>
       </c>
-      <c r="AD12" s="38" t="s">
-        <v>349</v>
-      </c>
-      <c r="AE12" s="38" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="13" spans="1:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AD12" s="40" t="s">
+        <v>344</v>
+      </c>
+      <c r="AE12" s="40" t="s">
+        <v>345</v>
+      </c>
+      <c r="AF12" s="4"/>
+      <c r="AG12" s="4"/>
+      <c r="AH12" s="4"/>
+      <c r="AI12" s="4"/>
+      <c r="AJ12" s="4"/>
+    </row>
+    <row r="13" spans="1:38" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>156</v>
@@ -9422,19 +10583,24 @@
       <c r="AB13" s="15">
         <v>2015551002</v>
       </c>
-      <c r="AC13" s="38" t="s">
+      <c r="AC13" s="40" t="s">
         <v>200</v>
       </c>
-      <c r="AD13" s="38" t="s">
-        <v>349</v>
-      </c>
-      <c r="AE13" s="38" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="14" spans="1:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AD13" s="40" t="s">
+        <v>344</v>
+      </c>
+      <c r="AE13" s="40" t="s">
+        <v>345</v>
+      </c>
+      <c r="AF13" s="4"/>
+      <c r="AG13" s="4"/>
+      <c r="AH13" s="4"/>
+      <c r="AI13" s="4"/>
+      <c r="AJ13" s="4"/>
+    </row>
+    <row r="14" spans="1:38" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>156</v>
@@ -9514,15 +10680,543 @@
       <c r="AB14" s="15">
         <v>2015551002</v>
       </c>
-      <c r="AC14" s="38" t="s">
+      <c r="AC14" s="40" t="s">
         <v>200</v>
       </c>
-      <c r="AD14" s="38" t="s">
-        <v>349</v>
-      </c>
-      <c r="AE14" s="38" t="s">
-        <v>350</v>
-      </c>
+      <c r="AD14" s="40" t="s">
+        <v>344</v>
+      </c>
+      <c r="AE14" s="40" t="s">
+        <v>345</v>
+      </c>
+      <c r="AF14" s="4"/>
+      <c r="AG14" s="4"/>
+      <c r="AH14" s="4"/>
+      <c r="AI14" s="4"/>
+      <c r="AJ14" s="4"/>
+    </row>
+    <row r="15" spans="1:38" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="E15" s="14" t="s">
+        <v>165</v>
+      </c>
+      <c r="F15" s="14" t="s">
+        <v>165</v>
+      </c>
+      <c r="G15" s="14"/>
+      <c r="H15" s="14">
+        <v>2015551002</v>
+      </c>
+      <c r="I15" s="14">
+        <v>2015551003</v>
+      </c>
+      <c r="J15" s="14">
+        <v>2015551004</v>
+      </c>
+      <c r="K15" s="14">
+        <v>2015551005</v>
+      </c>
+      <c r="L15" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="M15" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="N15" s="6"/>
+      <c r="O15" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="P15" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q15" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="R15" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="S15" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="T15" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="U15" s="6">
+        <v>99501</v>
+      </c>
+      <c r="V15" s="6" t="str">
+        <f>searchValues!$L$2</f>
+        <v>Alaska</v>
+      </c>
+      <c r="W15" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="X15" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="Y15" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="Z15" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="AA15" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="AB15" s="15">
+        <v>2015551002</v>
+      </c>
+      <c r="AC15" s="40" t="s">
+        <v>200</v>
+      </c>
+      <c r="AD15" s="40" t="s">
+        <v>344</v>
+      </c>
+      <c r="AE15" s="40" t="s">
+        <v>345</v>
+      </c>
+      <c r="AF15" s="4"/>
+      <c r="AG15" s="4"/>
+      <c r="AH15" s="4"/>
+      <c r="AI15" s="4"/>
+      <c r="AJ15" s="4"/>
+      <c r="AK15" s="39"/>
+      <c r="AL15" s="4"/>
+    </row>
+    <row r="16" spans="1:38" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>367</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="E16" s="14" t="s">
+        <v>165</v>
+      </c>
+      <c r="F16" s="14" t="s">
+        <v>165</v>
+      </c>
+      <c r="G16" s="14"/>
+      <c r="H16" s="14">
+        <v>2015551002</v>
+      </c>
+      <c r="I16" s="14">
+        <v>2015551003</v>
+      </c>
+      <c r="J16" s="14">
+        <v>2015551004</v>
+      </c>
+      <c r="K16" s="14">
+        <v>2015551005</v>
+      </c>
+      <c r="L16" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="M16" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="N16" s="6"/>
+      <c r="O16" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="P16" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q16" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="R16" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="S16" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="T16" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="U16" s="6">
+        <v>99501</v>
+      </c>
+      <c r="V16" s="6" t="str">
+        <f>searchValues!$L$2</f>
+        <v>Alaska</v>
+      </c>
+      <c r="W16" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="X16" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="Y16" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="Z16" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="AA16" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="AB16" s="15">
+        <v>2015551002</v>
+      </c>
+      <c r="AC16" s="40" t="s">
+        <v>200</v>
+      </c>
+      <c r="AD16" s="40" t="s">
+        <v>344</v>
+      </c>
+      <c r="AE16" s="40" t="s">
+        <v>345</v>
+      </c>
+      <c r="AF16" s="4" t="s">
+        <v>369</v>
+      </c>
+      <c r="AG16" s="4"/>
+      <c r="AH16" s="4"/>
+      <c r="AI16" s="4"/>
+      <c r="AJ16" s="4"/>
+    </row>
+    <row r="17" spans="1:36" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
+        <v>375</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="C17" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="E17" s="14" t="s">
+        <v>165</v>
+      </c>
+      <c r="F17" s="14" t="s">
+        <v>165</v>
+      </c>
+      <c r="G17" s="14"/>
+      <c r="H17" s="14">
+        <v>2015551002</v>
+      </c>
+      <c r="I17" s="14">
+        <v>2015551003</v>
+      </c>
+      <c r="J17" s="14">
+        <v>2015551004</v>
+      </c>
+      <c r="K17" s="14">
+        <v>2015551005</v>
+      </c>
+      <c r="L17" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="M17" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="N17" s="6"/>
+      <c r="O17" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="P17" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q17" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="R17" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="S17" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="T17" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="U17" s="6">
+        <v>99501</v>
+      </c>
+      <c r="V17" s="6" t="str">
+        <f>searchValues!$L$2</f>
+        <v>Alaska</v>
+      </c>
+      <c r="W17" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="X17" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="Y17" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="Z17" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="AA17" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="AB17" s="15">
+        <v>2015551002</v>
+      </c>
+      <c r="AC17" s="40" t="s">
+        <v>200</v>
+      </c>
+      <c r="AD17" s="40" t="s">
+        <v>344</v>
+      </c>
+      <c r="AE17" s="40" t="s">
+        <v>345</v>
+      </c>
+      <c r="AF17" s="4"/>
+      <c r="AG17" s="4"/>
+      <c r="AH17" s="4"/>
+      <c r="AI17" s="4"/>
+      <c r="AJ17" s="4"/>
+    </row>
+    <row r="18" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A18" s="4"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="4"/>
+      <c r="M18" s="4"/>
+      <c r="N18" s="4"/>
+      <c r="O18" s="4"/>
+      <c r="P18" s="4"/>
+      <c r="Q18" s="4"/>
+      <c r="R18" s="4"/>
+      <c r="S18" s="4"/>
+      <c r="T18" s="4"/>
+      <c r="U18" s="4"/>
+      <c r="V18" s="4"/>
+      <c r="W18" s="4"/>
+      <c r="X18" s="4"/>
+      <c r="Y18" s="4"/>
+      <c r="Z18" s="4"/>
+      <c r="AA18" s="4"/>
+      <c r="AB18" s="4"/>
+      <c r="AC18" s="4"/>
+      <c r="AD18" s="4"/>
+      <c r="AE18" s="4"/>
+      <c r="AF18" s="4"/>
+      <c r="AG18" s="4"/>
+      <c r="AH18" s="4"/>
+      <c r="AI18" s="4"/>
+      <c r="AJ18" s="4"/>
+    </row>
+    <row r="19" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A19" s="4"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
+      <c r="K19" s="4"/>
+      <c r="L19" s="4"/>
+      <c r="M19" s="4"/>
+      <c r="N19" s="4"/>
+      <c r="O19" s="4"/>
+      <c r="P19" s="4"/>
+      <c r="Q19" s="4"/>
+      <c r="R19" s="4"/>
+      <c r="S19" s="4"/>
+      <c r="T19" s="4"/>
+      <c r="U19" s="4"/>
+      <c r="V19" s="4"/>
+      <c r="W19" s="4"/>
+      <c r="X19" s="4"/>
+      <c r="Y19" s="4"/>
+      <c r="Z19" s="4"/>
+      <c r="AA19" s="4"/>
+      <c r="AB19" s="4"/>
+      <c r="AC19" s="4"/>
+      <c r="AD19" s="4"/>
+      <c r="AE19" s="4"/>
+      <c r="AF19" s="4"/>
+      <c r="AG19" s="4"/>
+      <c r="AH19" s="4"/>
+      <c r="AI19" s="4"/>
+      <c r="AJ19" s="4"/>
+    </row>
+    <row r="20" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A20" s="4"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="4"/>
+      <c r="L20" s="4"/>
+      <c r="M20" s="4"/>
+      <c r="N20" s="4"/>
+      <c r="O20" s="4"/>
+      <c r="P20" s="4"/>
+      <c r="Q20" s="4"/>
+      <c r="R20" s="4"/>
+      <c r="S20" s="4"/>
+      <c r="T20" s="4"/>
+      <c r="U20" s="4"/>
+      <c r="V20" s="4"/>
+      <c r="W20" s="4"/>
+      <c r="X20" s="4"/>
+      <c r="Y20" s="4"/>
+      <c r="Z20" s="4"/>
+      <c r="AA20" s="4"/>
+      <c r="AB20" s="4"/>
+      <c r="AC20" s="4"/>
+      <c r="AD20" s="4"/>
+      <c r="AE20" s="4"/>
+      <c r="AF20" s="4"/>
+      <c r="AG20" s="4"/>
+      <c r="AH20" s="4"/>
+      <c r="AI20" s="4"/>
+      <c r="AJ20" s="4"/>
+    </row>
+    <row r="21" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A21" s="4"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4"/>
+      <c r="K21" s="4"/>
+      <c r="L21" s="4"/>
+      <c r="M21" s="4"/>
+      <c r="N21" s="4"/>
+      <c r="O21" s="4"/>
+      <c r="P21" s="4"/>
+      <c r="Q21" s="4"/>
+      <c r="R21" s="4"/>
+      <c r="S21" s="4"/>
+      <c r="T21" s="4"/>
+      <c r="U21" s="4"/>
+      <c r="V21" s="4"/>
+      <c r="W21" s="4"/>
+      <c r="X21" s="4"/>
+      <c r="Y21" s="4"/>
+      <c r="Z21" s="4"/>
+      <c r="AA21" s="4"/>
+      <c r="AB21" s="4"/>
+      <c r="AC21" s="4"/>
+      <c r="AD21" s="4"/>
+      <c r="AE21" s="4"/>
+      <c r="AF21" s="4"/>
+      <c r="AG21" s="4"/>
+      <c r="AH21" s="4"/>
+      <c r="AI21" s="4"/>
+      <c r="AJ21" s="4"/>
+    </row>
+    <row r="22" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A22" s="4"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="4"/>
+      <c r="K22" s="4"/>
+      <c r="L22" s="4"/>
+      <c r="M22" s="4"/>
+      <c r="N22" s="4"/>
+      <c r="O22" s="4"/>
+      <c r="P22" s="4"/>
+      <c r="Q22" s="4"/>
+      <c r="R22" s="4"/>
+      <c r="S22" s="4"/>
+      <c r="T22" s="4"/>
+      <c r="U22" s="4"/>
+      <c r="V22" s="4"/>
+      <c r="W22" s="4"/>
+      <c r="X22" s="4"/>
+      <c r="Y22" s="4"/>
+      <c r="Z22" s="4"/>
+      <c r="AA22" s="4"/>
+      <c r="AB22" s="4"/>
+      <c r="AC22" s="4"/>
+      <c r="AD22" s="4"/>
+      <c r="AE22" s="4"/>
+      <c r="AF22" s="4"/>
+      <c r="AG22" s="4"/>
+      <c r="AH22" s="4"/>
+      <c r="AI22" s="4"/>
+      <c r="AJ22" s="4"/>
+    </row>
+    <row r="23" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A23" s="4"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="4"/>
+      <c r="J23" s="4"/>
+      <c r="K23" s="4"/>
+      <c r="L23" s="4"/>
+      <c r="M23" s="4"/>
+      <c r="N23" s="4"/>
+      <c r="O23" s="4"/>
+      <c r="P23" s="4"/>
+      <c r="Q23" s="4"/>
+      <c r="R23" s="4"/>
+      <c r="S23" s="4"/>
+      <c r="T23" s="4"/>
+      <c r="U23" s="4"/>
+      <c r="V23" s="4"/>
+      <c r="W23" s="4"/>
+      <c r="X23" s="4"/>
+      <c r="Y23" s="4"/>
+      <c r="Z23" s="4"/>
+      <c r="AA23" s="4"/>
+      <c r="AB23" s="4"/>
+      <c r="AC23" s="4"/>
+      <c r="AD23" s="4"/>
+      <c r="AE23" s="4"/>
+      <c r="AF23" s="4"/>
+      <c r="AG23" s="4"/>
+      <c r="AH23" s="4"/>
+      <c r="AI23" s="4"/>
+      <c r="AJ23" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -9541,12 +11235,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="81.85546875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="22.5703125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="28.140625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="20.7109375" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="18" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="27.28515625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="81.85546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="22.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="28.140625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="20.7109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="27.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -9554,10 +11248,10 @@
         <v>2</v>
       </c>
       <c r="B1" s="9" t="s">
+        <v>309</v>
+      </c>
+      <c r="C1" s="10" t="s">
         <v>310</v>
-      </c>
-      <c r="C1" s="10" t="s">
-        <v>311</v>
       </c>
       <c r="D1" s="10"/>
       <c r="E1" s="10"/>
@@ -9565,24 +11259,24 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B2" t="s">
+        <v>311</v>
+      </c>
+      <c r="C2" t="s">
         <v>312</v>
-      </c>
-      <c r="C2" t="s">
-        <v>313</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B3" t="s">
+        <v>311</v>
+      </c>
+      <c r="C3" t="s">
         <v>312</v>
-      </c>
-      <c r="C3" t="s">
-        <v>313</v>
       </c>
     </row>
   </sheetData>
@@ -9592,29 +11286,29 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9CB62B0-3E14-40DE-9CB1-C3C158CCA48E}">
-  <dimension ref="A1:N14"/>
+  <dimension ref="A1:N17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="P4" sqref="P4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="60.7109375" style="4" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="22.28515625" style="4" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="20.28515625" style="4" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="12.85546875" style="4" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="8.5703125" style="4" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="9.7109375" style="4" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="17.42578125" style="4" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="21.28515625" style="4" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="29.85546875" style="4" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="22.140625" style="4" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="19.5703125" style="4" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="20.28515625" style="4" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="21.5703125" style="4" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="13.5703125" style="4" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="16384" width="9.140625" style="4"/>
+    <col min="1" max="1" customWidth="true" style="4" width="60.7109375" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="4" width="22.28515625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="4" width="20.28515625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="4" width="12.85546875" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="4" width="8.5703125" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" style="4" width="9.7109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="4" width="17.42578125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="4" width="21.28515625" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" style="4" width="29.85546875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="4" width="22.140625" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="4" width="19.5703125" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" style="4" width="20.28515625" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" style="4" width="21.5703125" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" style="4" width="13.5703125" collapsed="true"/>
+    <col min="15" max="16384" style="4" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -9689,7 +11383,7 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>243</v>
@@ -9715,7 +11409,7 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>243</v>
@@ -9741,7 +11435,7 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>243</v>
@@ -9767,7 +11461,7 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>243</v>
@@ -9793,7 +11487,7 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>243</v>
@@ -9819,7 +11513,7 @@
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>243</v>
@@ -9845,7 +11539,7 @@
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>243</v>
@@ -9871,7 +11565,7 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>243</v>
@@ -9897,7 +11591,7 @@
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>243</v>
@@ -9923,7 +11617,7 @@
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>243</v>
@@ -9949,7 +11643,7 @@
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>243</v>
@@ -9975,7 +11669,7 @@
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>243</v>
@@ -9996,6 +11690,84 @@
         <v>92</v>
       </c>
       <c r="N14" s="4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="F15" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="I15" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="L15" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="N15" s="4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>367</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="F16" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="I16" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="L16" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="N16" s="4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
+        <v>375</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="F17" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="I17" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="L17" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="N17" s="4" t="s">
         <v>92</v>
       </c>
     </row>
@@ -10014,9 +11786,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="66.140625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="22.7109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="36.5703125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="66.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="22.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="36.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
@@ -10024,10 +11796,10 @@
         <v>2</v>
       </c>
       <c r="B1" s="34" t="s">
+        <v>315</v>
+      </c>
+      <c r="C1" s="34" t="s">
         <v>316</v>
-      </c>
-      <c r="C1" s="34" t="s">
-        <v>317</v>
       </c>
       <c r="D1" s="33"/>
       <c r="E1" s="33"/>
@@ -10041,13 +11813,13 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B2" t="s">
+        <v>317</v>
+      </c>
+      <c r="C2" t="s">
         <v>318</v>
-      </c>
-      <c r="C2" t="s">
-        <v>319</v>
       </c>
     </row>
   </sheetData>
@@ -10066,10 +11838,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="82" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="39" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="38.42578125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="29.42578125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="82.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="39.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="38.42578125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="29.42578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -10077,13 +11849,13 @@
         <v>2</v>
       </c>
       <c r="B1" s="34" t="s">
+        <v>320</v>
+      </c>
+      <c r="C1" s="34" t="s">
         <v>321</v>
       </c>
-      <c r="C1" s="34" t="s">
+      <c r="D1" s="34" t="s">
         <v>322</v>
-      </c>
-      <c r="D1" s="34" t="s">
-        <v>323</v>
       </c>
       <c r="E1" s="33"/>
       <c r="F1" s="33"/>
@@ -10093,16 +11865,16 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B2" t="s">
+        <v>323</v>
+      </c>
+      <c r="C2" t="s">
+        <v>311</v>
+      </c>
+      <c r="D2" t="s">
         <v>324</v>
-      </c>
-      <c r="C2" t="s">
-        <v>312</v>
-      </c>
-      <c r="D2" t="s">
-        <v>325</v>
       </c>
     </row>
   </sheetData>
@@ -10113,22 +11885,22 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{663DF9C3-5C9B-4F94-B024-5FECECDF92BA}">
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="63" style="4" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="16.85546875" style="4" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="17.42578125" style="4" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="17" style="4" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="14" style="4" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="19.28515625" style="4" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="12" style="4" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="16384" width="9.140625" style="4"/>
+    <col min="1" max="1" customWidth="true" style="4" width="63.0" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="4" width="16.85546875" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="4" width="17.42578125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="4" width="17.0" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="4" width="14.0" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" style="4" width="19.28515625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" style="4" width="12.0" collapsed="true"/>
+    <col min="8" max="16384" style="4" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -10158,13 +11930,19 @@
       <c r="A2" s="4" t="s">
         <v>125</v>
       </c>
+      <c r="F2" s="4" t="s">
+        <v>87</v>
+      </c>
       <c r="G2" s="4" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>291</v>
+        <v>290</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>87</v>
       </c>
       <c r="G3" s="4" t="s">
         <v>106</v>
@@ -10172,7 +11950,10 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>336</v>
+        <v>334</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>87</v>
       </c>
       <c r="G4" s="4" t="s">
         <v>106</v>
@@ -10180,7 +11961,10 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>346</v>
+        <v>343</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>87</v>
       </c>
       <c r="G5" s="4" t="s">
         <v>106</v>
@@ -10188,7 +11972,10 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>315</v>
+        <v>314</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>87</v>
       </c>
       <c r="G6" s="4" t="s">
         <v>106</v>
@@ -10196,7 +11983,10 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>320</v>
+        <v>319</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>87</v>
       </c>
       <c r="G7" s="4" t="s">
         <v>106</v>
@@ -10204,7 +11994,10 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>331</v>
+        <v>329</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>87</v>
       </c>
       <c r="G8" s="4" t="s">
         <v>106</v>
@@ -10212,7 +12005,10 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>314</v>
+        <v>313</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>87</v>
       </c>
       <c r="G9" s="4" t="s">
         <v>106</v>
@@ -10220,7 +12016,10 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>299</v>
+        <v>298</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>87</v>
       </c>
       <c r="G10" s="4" t="s">
         <v>106</v>
@@ -10228,7 +12027,10 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>309</v>
+        <v>308</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>87</v>
       </c>
       <c r="G11" s="4" t="s">
         <v>106</v>
@@ -10236,7 +12038,10 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>267</v>
+        <v>266</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>87</v>
       </c>
       <c r="G12" s="4" t="s">
         <v>106</v>
@@ -10244,7 +12049,10 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>275</v>
+        <v>274</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>87</v>
       </c>
       <c r="G13" s="4" t="s">
         <v>106</v>
@@ -10252,9 +12060,45 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>278</v>
+        <v>277</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>87</v>
       </c>
       <c r="G14" s="4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>367</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
+        <v>375</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="G17" s="4" t="s">
         <v>106</v>
       </c>
     </row>
